--- a/performance_comp_py1e2_jl1e4.xlsx
+++ b/performance_comp_py1e2_jl1e4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18803" windowHeight="5738"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18803" windowHeight="5738" firstSheet="14" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="spd_to_xyz, spdi" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="5">
   <si>
     <t>1</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>100</t>
-  </si>
-  <si>
-    <t>1000</t>
   </si>
 </sst>
 </file>
@@ -453,7 +450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -474,7 +471,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -482,22 +479,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.4308905099246383</v>
+        <v>3.733959010080576</v>
       </c>
       <c r="C2">
-        <v>4.0875654821914074</v>
+        <v>4.1929830344656898</v>
       </c>
       <c r="D2">
-        <v>3.1875484800511051</v>
+        <v>4.5700719747866856</v>
       </c>
       <c r="E2">
-        <v>5.9835438241417167</v>
+        <v>3.5719814594288768</v>
       </c>
       <c r="F2">
-        <v>3.6869285767812841</v>
+        <v>4.6747205150541982</v>
       </c>
       <c r="G2">
-        <v>6.5165379458802821</v>
+        <v>4.3435329318874736</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -505,22 +502,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.8726698175203502</v>
+        <v>3.7698540243258538</v>
       </c>
       <c r="C3">
-        <v>5.9365515839359571</v>
+        <v>5.4332109786322338</v>
       </c>
       <c r="D3">
-        <v>6.5268452748156216</v>
+        <v>5.2419922111880126</v>
       </c>
       <c r="E3">
-        <v>5.0282219436039366</v>
+        <v>5.7300329510706254</v>
       </c>
       <c r="F3">
-        <v>5.9639553245653749</v>
+        <v>5.8434393517661416</v>
       </c>
       <c r="G3">
-        <v>3.8909139536684139</v>
+        <v>3.5568240011118148</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -528,22 +525,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.9527848577281679</v>
+        <v>3.8674536405355968</v>
       </c>
       <c r="C4">
-        <v>7.2890475142470228</v>
+        <v>6.6312444094576346</v>
       </c>
       <c r="D4">
-        <v>5.8963438765412004</v>
+        <v>5.1798638672927941</v>
       </c>
       <c r="E4">
-        <v>4.1633238961212182</v>
+        <v>5.503300106405173</v>
       </c>
       <c r="F4">
-        <v>10.047096872334579</v>
+        <v>5.6475860987131474</v>
       </c>
       <c r="G4">
-        <v>6.2065813183427316</v>
+        <v>3.0234737440727302</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -551,22 +548,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.4400362922771652</v>
+        <v>3.5278539433334499</v>
       </c>
       <c r="C5">
-        <v>3.912744370146584</v>
+        <v>3.9816420801564449</v>
       </c>
       <c r="D5">
-        <v>6.869995673370723</v>
+        <v>4.6629962135850569</v>
       </c>
       <c r="E5">
-        <v>7.9043014072634419</v>
+        <v>4.941819617076515</v>
       </c>
       <c r="F5">
-        <v>5.3587280639652004</v>
+        <v>3.8200562851963138</v>
       </c>
       <c r="G5">
-        <v>8.4469426304306605</v>
+        <v>2.8295511623042251</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -574,45 +571,45 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.942816749342819</v>
+        <v>1.3492004651705141</v>
       </c>
       <c r="C6">
-        <v>2.14669959578847</v>
+        <v>1.202135933321002</v>
       </c>
       <c r="D6">
-        <v>2.3185467168705101</v>
+        <v>0.97091759527522681</v>
       </c>
       <c r="E6">
-        <v>1.848401704847217</v>
+        <v>1.321035686782841</v>
       </c>
       <c r="F6">
-        <v>1.840796704711025</v>
+        <v>0.96331942768039291</v>
       </c>
       <c r="G6">
-        <v>1.6315850769808939</v>
+        <v>1.06858300596567</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>1.666944181933675</v>
+        <v>1.020214529216656</v>
       </c>
       <c r="C7">
-        <v>1.3779281496946969</v>
+        <v>0.92841737120330836</v>
       </c>
       <c r="D7">
-        <v>1.689124612754568</v>
+        <v>1.078332908485149</v>
       </c>
       <c r="E7">
-        <v>1.537971482204266</v>
+        <v>0.99916939375918157</v>
       </c>
       <c r="F7">
-        <v>1.3203679553438721</v>
+        <v>0.96257214505245503</v>
       </c>
       <c r="G7">
-        <v>2.0012767130963609</v>
+        <v>1.025481870513077</v>
       </c>
     </row>
   </sheetData>
@@ -645,7 +642,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -653,22 +650,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>965.05217180808006</v>
+        <v>772.28458346933155</v>
       </c>
       <c r="C2">
-        <v>747.5636578306237</v>
+        <v>1038.419570737339</v>
       </c>
       <c r="D2">
-        <v>1211.175610801567</v>
+        <v>949.77782929587363</v>
       </c>
       <c r="E2">
-        <v>862.74172183730036</v>
+        <v>704.75432488117895</v>
       </c>
       <c r="F2">
-        <v>965.8818467016348</v>
+        <v>718.46601701105578</v>
       </c>
       <c r="G2">
-        <v>953.25019739329116</v>
+        <v>979.53773240997509</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -676,22 +673,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>101.2314087170402</v>
+        <v>75.51830474816677</v>
       </c>
       <c r="C3">
-        <v>80.217660265833587</v>
+        <v>76.394878014942265</v>
       </c>
       <c r="D3">
-        <v>59.459484191860021</v>
+        <v>57.759400725673963</v>
       </c>
       <c r="E3">
-        <v>71.206631636936905</v>
+        <v>72.476489320211726</v>
       </c>
       <c r="F3">
-        <v>76.947850565542566</v>
+        <v>77.200353471089016</v>
       </c>
       <c r="G3">
-        <v>105.0692466202929</v>
+        <v>74.987491871341703</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -699,22 +696,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>64.044247684344967</v>
+        <v>77.383605994269658</v>
       </c>
       <c r="C4">
-        <v>57.973079827929929</v>
+        <v>59.675948221533943</v>
       </c>
       <c r="D4">
-        <v>53.508931582628833</v>
+        <v>86.395069172696481</v>
       </c>
       <c r="E4">
-        <v>57.528151091088681</v>
+        <v>95.908009057676395</v>
       </c>
       <c r="F4">
-        <v>74.231137970745039</v>
+        <v>82.367041736402186</v>
       </c>
       <c r="G4">
-        <v>84.795965325731331</v>
+        <v>71.221372273974907</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -722,22 +719,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>61.194491897342928</v>
+        <v>70.912854048713783</v>
       </c>
       <c r="C5">
-        <v>63.050995742156267</v>
+        <v>55.265962565457741</v>
       </c>
       <c r="D5">
-        <v>92.637383208773798</v>
+        <v>47.530385426311803</v>
       </c>
       <c r="E5">
-        <v>47.403158087040268</v>
+        <v>61.393281087226477</v>
       </c>
       <c r="F5">
-        <v>116.78044770761591</v>
+        <v>54.585567029117399</v>
       </c>
       <c r="G5">
-        <v>50.568123518532772</v>
+        <v>63.229672377929077</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -745,45 +742,45 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>24.20541907850178</v>
+        <v>19.125696550271119</v>
       </c>
       <c r="C6">
-        <v>21.978066383807899</v>
+        <v>18.568862729928469</v>
       </c>
       <c r="D6">
-        <v>20.378122547735611</v>
+        <v>13.57799500345021</v>
       </c>
       <c r="E6">
-        <v>14.523277567086019</v>
+        <v>17.027896078725441</v>
       </c>
       <c r="F6">
-        <v>13.80511239629416</v>
+        <v>19.579349142098739</v>
       </c>
       <c r="G6">
-        <v>22.22396091677399</v>
+        <v>20.65491522337976</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>5.1744408630994512</v>
+        <v>2.23439458441741</v>
       </c>
       <c r="C7">
-        <v>10.592476407836349</v>
+        <v>2.498757556466392</v>
       </c>
       <c r="D7">
-        <v>6.9744695979127931</v>
+        <v>2.3464470738452068</v>
       </c>
       <c r="E7">
-        <v>5.0949608130607684</v>
+        <v>2.8734798595189739</v>
       </c>
       <c r="F7">
-        <v>7.8629778439364744</v>
+        <v>2.0068737244174488</v>
       </c>
       <c r="G7">
-        <v>8.260502726305468</v>
+        <v>3.1214418053426778</v>
       </c>
     </row>
   </sheetData>
@@ -816,7 +813,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -824,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>86.788032660606561</v>
+        <v>81.077528311687018</v>
       </c>
       <c r="C2">
-        <v>63.527109202238023</v>
+        <v>78.749877828295055</v>
       </c>
       <c r="D2">
-        <v>110.646384409459</v>
+        <v>98.578438877465146</v>
       </c>
       <c r="E2">
-        <v>53.832638246185759</v>
+        <v>51.492331917089182</v>
       </c>
       <c r="F2">
-        <v>20.080682092317591</v>
+        <v>20.212691180419849</v>
       </c>
       <c r="G2">
-        <v>7.0608064396247858</v>
+        <v>4.1806934779244962</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -847,22 +844,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>84.865793177553314</v>
+        <v>76.281826409706994</v>
       </c>
       <c r="C3">
-        <v>75.40057086286248</v>
+        <v>61.393710608369993</v>
       </c>
       <c r="D3">
-        <v>44.519499212060218</v>
+        <v>54.941370659800342</v>
       </c>
       <c r="E3">
-        <v>52.888436371030267</v>
+        <v>41.988091095823073</v>
       </c>
       <c r="F3">
-        <v>14.556244473676569</v>
+        <v>11.47771937773096</v>
       </c>
       <c r="G3">
-        <v>8.1038322206138886</v>
+        <v>2.307197183362518</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -870,22 +867,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>47.648245776343821</v>
+        <v>58.26056832254347</v>
       </c>
       <c r="C4">
-        <v>43.232693124646289</v>
+        <v>64.894427917526073</v>
       </c>
       <c r="D4">
-        <v>34.78019265301031</v>
+        <v>33.554529457912537</v>
       </c>
       <c r="E4">
-        <v>24.969378454434128</v>
+        <v>24.90266978254385</v>
       </c>
       <c r="F4">
-        <v>6.8812818705861796</v>
+        <v>7.1911662995455261</v>
       </c>
       <c r="G4">
-        <v>3.385063007972378</v>
+        <v>1.143167629306344</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -893,22 +890,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>46.368488192085522</v>
+        <v>39.542941695369727</v>
       </c>
       <c r="C5">
-        <v>39.544860802408117</v>
+        <v>41.276683695179287</v>
       </c>
       <c r="D5">
-        <v>23.27507308675079</v>
+        <v>24.217552492508201</v>
       </c>
       <c r="E5">
-        <v>16.952730353462691</v>
+        <v>13.522898160099841</v>
       </c>
       <c r="F5">
-        <v>8.7782239538635469</v>
+        <v>3.599551132978696</v>
       </c>
       <c r="G5">
-        <v>1.390301096859291</v>
+        <v>0.74548838568935893</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -916,45 +913,45 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.381143730811891</v>
+        <v>6.862964150810809</v>
       </c>
       <c r="C6">
-        <v>9.7537456893832708</v>
+        <v>5.4545627109795962</v>
       </c>
       <c r="D6">
-        <v>9.753888141076887</v>
+        <v>4.7012568857265826</v>
       </c>
       <c r="E6">
-        <v>7.0024122297847224</v>
+        <v>3.6950940482038188</v>
       </c>
       <c r="F6">
-        <v>1.4972018780016461</v>
+        <v>0.86804103781215836</v>
       </c>
       <c r="G6">
-        <v>1.5675898239281481</v>
+        <v>0.8396306494281649</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>3.0627845886466258</v>
+        <v>1.37277430425442</v>
       </c>
       <c r="C7">
-        <v>1.522570601755981</v>
+        <v>1.1476794217166739</v>
       </c>
       <c r="D7">
-        <v>0.77216515484917592</v>
+        <v>0.79319140725621706</v>
       </c>
       <c r="E7">
-        <v>0.70175145710273978</v>
+        <v>0.60598939458412748</v>
       </c>
       <c r="F7">
-        <v>0.94494896971209386</v>
+        <v>0.83377140587094056</v>
       </c>
       <c r="G7">
-        <v>0.63268527288860832</v>
+        <v>0.47947728950766888</v>
       </c>
     </row>
   </sheetData>
@@ -987,7 +984,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -995,22 +992,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>104.09805480938429</v>
+        <v>61.993244565017967</v>
       </c>
       <c r="C2">
-        <v>63.260166610686483</v>
+        <v>60.622029507338247</v>
       </c>
       <c r="D2">
-        <v>100.7475558933785</v>
+        <v>68.579344193463996</v>
       </c>
       <c r="E2">
-        <v>55.797302772888138</v>
+        <v>58.76887858674533</v>
       </c>
       <c r="F2">
-        <v>20.116197897835079</v>
+        <v>18.790593309859279</v>
       </c>
       <c r="G2">
-        <v>8.1739890914782762</v>
+        <v>3.1553140788306102</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -1018,22 +1015,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>78.230008795232834</v>
+        <v>72.564777587045057</v>
       </c>
       <c r="C3">
-        <v>77.804494343094262</v>
+        <v>52.726715210412387</v>
       </c>
       <c r="D3">
-        <v>41.262786683594982</v>
+        <v>41.529427115447831</v>
       </c>
       <c r="E3">
-        <v>39.457793060247312</v>
+        <v>34.148550551357538</v>
       </c>
       <c r="F3">
-        <v>15.583450014557769</v>
+        <v>7.9378306085129742</v>
       </c>
       <c r="G3">
-        <v>5.0916921507522126</v>
+        <v>1.424829475257908</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -1041,22 +1038,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>45.452691185284898</v>
+        <v>44.305915553335588</v>
       </c>
       <c r="C4">
-        <v>43.848500252808428</v>
+        <v>61.934470916789358</v>
       </c>
       <c r="D4">
-        <v>32.955544416641267</v>
+        <v>48.594362878218313</v>
       </c>
       <c r="E4">
-        <v>24.407785824739712</v>
+        <v>27.070799908689089</v>
       </c>
       <c r="F4">
-        <v>6.887341607171777</v>
+        <v>6.5551463846660774</v>
       </c>
       <c r="G4">
-        <v>0.89938350998718997</v>
+        <v>1.012613094569274</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -1064,22 +1061,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>42.983721060918</v>
+        <v>32.606206308352533</v>
       </c>
       <c r="C5">
-        <v>38.274908832632057</v>
+        <v>36.503613911175087</v>
       </c>
       <c r="D5">
-        <v>22.000367574434609</v>
+        <v>25.58706617714936</v>
       </c>
       <c r="E5">
-        <v>19.950290697701679</v>
+        <v>14.76773336626354</v>
       </c>
       <c r="F5">
-        <v>8.0783559234554847</v>
+        <v>2.5205838873172142</v>
       </c>
       <c r="G5">
-        <v>0.80188085404466203</v>
+        <v>0.67079903894236592</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -1087,45 +1084,45 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.88466204661453</v>
+        <v>6.8918522454068603</v>
       </c>
       <c r="C6">
-        <v>9.1713682039935378</v>
+        <v>5.435799278366642</v>
       </c>
       <c r="D6">
-        <v>5.7379325995702093</v>
+        <v>5.1012873787420752</v>
       </c>
       <c r="E6">
-        <v>8.5315961823950204</v>
+        <v>2.4506188481006039</v>
       </c>
       <c r="F6">
-        <v>0.92125504089288823</v>
+        <v>0.81169937784323309</v>
       </c>
       <c r="G6">
-        <v>1.612806832317804</v>
+        <v>0.75070618335603856</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>4.5591570135652404</v>
+        <v>1.111234652322368</v>
       </c>
       <c r="C7">
-        <v>0.96065640972019117</v>
+        <v>0.9761483610098376</v>
       </c>
       <c r="D7">
-        <v>0.56733711307532475</v>
+        <v>0.54374860314202667</v>
       </c>
       <c r="E7">
-        <v>0.60920055677624607</v>
+        <v>0.5541206318612949</v>
       </c>
       <c r="F7">
-        <v>0.89294678782071613</v>
+        <v>0.78139719765591109</v>
       </c>
       <c r="G7">
-        <v>0.67542896862195601</v>
+        <v>0.43628204146614391</v>
       </c>
     </row>
   </sheetData>
@@ -1158,7 +1155,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -1166,22 +1163,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>32.401961285555039</v>
+        <v>25.916591088212058</v>
       </c>
       <c r="C2">
-        <v>21.026013404625481</v>
+        <v>22.256763684971311</v>
       </c>
       <c r="D2">
-        <v>32.744121690236341</v>
+        <v>19.092609644336399</v>
       </c>
       <c r="E2">
-        <v>20.872165424472389</v>
+        <v>23.192673458739641</v>
       </c>
       <c r="F2">
-        <v>27.422172193417271</v>
+        <v>21.7166561785242</v>
       </c>
       <c r="G2">
-        <v>22.209771886104491</v>
+        <v>26.654401849990268</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -1189,22 +1186,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>36.478093957137069</v>
+        <v>19.743398037335201</v>
       </c>
       <c r="C3">
-        <v>31.173767746827291</v>
+        <v>19.965138863744389</v>
       </c>
       <c r="D3">
-        <v>21.298617503628989</v>
+        <v>19.749634858390142</v>
       </c>
       <c r="E3">
-        <v>19.787914911439909</v>
+        <v>20.843287490286979</v>
       </c>
       <c r="F3">
-        <v>26.697148067566442</v>
+        <v>25.075307185647809</v>
       </c>
       <c r="G3">
-        <v>26.107299121969309</v>
+        <v>21.88375070269435</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -1212,22 +1209,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.609807962187709</v>
+        <v>19.12062738503392</v>
       </c>
       <c r="C4">
-        <v>23.468932202861279</v>
+        <v>25.209400018624841</v>
       </c>
       <c r="D4">
-        <v>33.483237597386037</v>
+        <v>24.493690847117271</v>
       </c>
       <c r="E4">
-        <v>20.434695466708849</v>
+        <v>22.578169765220139</v>
       </c>
       <c r="F4">
-        <v>34.724607265126338</v>
+        <v>32.08623627056506</v>
       </c>
       <c r="G4">
-        <v>20.956999297354852</v>
+        <v>23.859026113714119</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -1235,22 +1232,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.10031964614905</v>
+        <v>15.890251413512109</v>
       </c>
       <c r="C5">
-        <v>21.900366387335101</v>
+        <v>16.93526514885875</v>
       </c>
       <c r="D5">
-        <v>20.15032167027158</v>
+        <v>22.30535230686176</v>
       </c>
       <c r="E5">
-        <v>28.137248398779299</v>
+        <v>26.615730559377049</v>
       </c>
       <c r="F5">
-        <v>16.591116889510172</v>
+        <v>20.26595388255647</v>
       </c>
       <c r="G5">
-        <v>22.400367002205499</v>
+        <v>21.33033833835934</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -1258,45 +1255,45 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.13349789370131</v>
+        <v>7.4491846346223154</v>
       </c>
       <c r="C6">
-        <v>8.4424337621262353</v>
+        <v>8.7503485498279012</v>
       </c>
       <c r="D6">
-        <v>10.670169570611581</v>
+        <v>6.7588587522833619</v>
       </c>
       <c r="E6">
-        <v>10.6109545616616</v>
+        <v>9.2387889979863278</v>
       </c>
       <c r="F6">
-        <v>11.07411397389969</v>
+        <v>8.8724587038734679</v>
       </c>
       <c r="G6">
-        <v>11.03728146657822</v>
+        <v>7.8945254742079776</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>6.3084827563926966</v>
+        <v>2.462543766317653</v>
       </c>
       <c r="C7">
-        <v>3.001355390391435</v>
+        <v>2.8054802626705659</v>
       </c>
       <c r="D7">
-        <v>3.509047458254265</v>
+        <v>2.931560216924066</v>
       </c>
       <c r="E7">
-        <v>4.1561443849002959</v>
+        <v>2.6267847231386989</v>
       </c>
       <c r="F7">
-        <v>3.3480724460506912</v>
+        <v>2.7829437828347481</v>
       </c>
       <c r="G7">
-        <v>4.3323362675393202</v>
+        <v>2.9621479401621369</v>
       </c>
     </row>
   </sheetData>
@@ -1329,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -1337,22 +1334,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>59.372085712695018</v>
+        <v>79.234366355657897</v>
       </c>
       <c r="C2">
-        <v>58.624952123992493</v>
+        <v>70.090372766967832</v>
       </c>
       <c r="D2">
-        <v>98.217711790260068</v>
+        <v>70.938052420407701</v>
       </c>
       <c r="E2">
-        <v>70.740476370945203</v>
+        <v>69.765085882664323</v>
       </c>
       <c r="F2">
-        <v>78.758816211311981</v>
+        <v>60.323721167215567</v>
       </c>
       <c r="G2">
-        <v>61.174568517419267</v>
+        <v>68.698126404260989</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -1360,22 +1357,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>116.8769976000428</v>
+        <v>77.069688669380056</v>
       </c>
       <c r="C3">
-        <v>96.635805058886774</v>
+        <v>83.95995532242739</v>
       </c>
       <c r="D3">
-        <v>65.702758357574012</v>
+        <v>68.5273980967185</v>
       </c>
       <c r="E3">
-        <v>61.550388000698518</v>
+        <v>87.421300284229545</v>
       </c>
       <c r="F3">
-        <v>80.45710057556019</v>
+        <v>84.471362223119883</v>
       </c>
       <c r="G3">
-        <v>81.652827306135393</v>
+        <v>76.99190475932987</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -1383,22 +1380,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>73.049346954780646</v>
+        <v>55.681260907275266</v>
       </c>
       <c r="C4">
-        <v>65.177989965401878</v>
+        <v>100.4972009351907</v>
       </c>
       <c r="D4">
-        <v>71.60641827153475</v>
+        <v>61.013427245896111</v>
       </c>
       <c r="E4">
-        <v>71.361219527503977</v>
+        <v>65.663958327278763</v>
       </c>
       <c r="F4">
-        <v>81.294390882129264</v>
+        <v>83.184592591608379</v>
       </c>
       <c r="G4">
-        <v>80.939721305883339</v>
+        <v>58.030263693885743</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -1406,22 +1403,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>65.686552800835528</v>
+        <v>58.031742347956659</v>
       </c>
       <c r="C5">
-        <v>62.834286731982793</v>
+        <v>48.390768640342642</v>
       </c>
       <c r="D5">
-        <v>65.548595801170535</v>
+        <v>54.945678498776303</v>
       </c>
       <c r="E5">
-        <v>51.372243609612788</v>
+        <v>51.588865077229123</v>
       </c>
       <c r="F5">
-        <v>59.073044249209147</v>
+        <v>60.369804937779683</v>
       </c>
       <c r="G5">
-        <v>69.807571346122927</v>
+        <v>47.36507902830629</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -1429,45 +1426,45 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.802768751824509</v>
+        <v>15.52987605576989</v>
       </c>
       <c r="C6">
-        <v>17.655838253926841</v>
+        <v>12.964031678804229</v>
       </c>
       <c r="D6">
-        <v>16.834836715399891</v>
+        <v>15.201474612706001</v>
       </c>
       <c r="E6">
-        <v>21.873186062119679</v>
+        <v>19.849201762574939</v>
       </c>
       <c r="F6">
-        <v>25.374093539925809</v>
+        <v>22.202337779149861</v>
       </c>
       <c r="G6">
-        <v>24.318898245374431</v>
+        <v>17.027553259265481</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>2.8168250403879171</v>
+        <v>2.5959348057855491</v>
       </c>
       <c r="C7">
-        <v>3.6184570811528158</v>
+        <v>3.2006928301474331</v>
       </c>
       <c r="D7">
-        <v>2.499970604179623</v>
+        <v>3.2815323801012708</v>
       </c>
       <c r="E7">
-        <v>2.489256972419196</v>
+        <v>3.173971671464046</v>
       </c>
       <c r="F7">
-        <v>3.1385392726607129</v>
+        <v>2.8609358027194309</v>
       </c>
       <c r="G7">
-        <v>4.0163396533682949</v>
+        <v>3.0295140497111031</v>
       </c>
     </row>
   </sheetData>
@@ -1500,7 +1497,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -1508,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.36441361508513</v>
+        <v>30.978405183536982</v>
       </c>
       <c r="C2">
-        <v>29.02164228049547</v>
+        <v>24.030336918623011</v>
       </c>
       <c r="D2">
-        <v>30.8560934210916</v>
+        <v>22.557994915003452</v>
       </c>
       <c r="E2">
-        <v>15.23347519116736</v>
+        <v>14.763322536703679</v>
       </c>
       <c r="F2">
-        <v>4.8624812726129099</v>
+        <v>4.2675755949226506</v>
       </c>
       <c r="G2">
-        <v>3.440837959019837</v>
+        <v>1.628227125010419</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -1531,22 +1528,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.1092026169833016</v>
+        <v>2.3812943860299121</v>
       </c>
       <c r="C3">
-        <v>3.4393169695634289</v>
+        <v>2.4788333076410272</v>
       </c>
       <c r="D3">
-        <v>2.2702896426853449</v>
+        <v>2.6569023521446322</v>
       </c>
       <c r="E3">
-        <v>2.5157277183976792</v>
+        <v>2.020227978514181</v>
       </c>
       <c r="F3">
-        <v>3.4900547313406869</v>
+        <v>3.399887100718507</v>
       </c>
       <c r="G3">
-        <v>1.2863209077516899</v>
+        <v>1.057790813206082</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -1554,22 +1551,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.6751326718000512</v>
+        <v>2.559184756428329</v>
       </c>
       <c r="C4">
-        <v>3.2958570734971442</v>
+        <v>2.6315817649314459</v>
       </c>
       <c r="D4">
-        <v>2.4239497253743001</v>
+        <v>2.315951498188352</v>
       </c>
       <c r="E4">
-        <v>2.096553478101304</v>
+        <v>2.0353448656526991</v>
       </c>
       <c r="F4">
-        <v>3.160845807254864</v>
+        <v>2.1605292263064828</v>
       </c>
       <c r="G4">
-        <v>0.92680344146366422</v>
+        <v>1.02362042614436</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -1577,22 +1574,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.9000457322184112</v>
+        <v>3.1344247448779101</v>
       </c>
       <c r="C5">
-        <v>2.5304390308068418</v>
+        <v>2.4750795860968511</v>
       </c>
       <c r="D5">
-        <v>1.9434526747601619</v>
+        <v>1.9682878369991681</v>
       </c>
       <c r="E5">
-        <v>1.657168989839092</v>
+        <v>1.8486007838272831</v>
       </c>
       <c r="F5">
-        <v>2.5522268204963399</v>
+        <v>1.412998809317183</v>
       </c>
       <c r="G5">
-        <v>1.045733316358981</v>
+        <v>1.0796524908018019</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -1600,45 +1597,45 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.0035429165170671</v>
+        <v>1.699812516958763</v>
       </c>
       <c r="C6">
-        <v>2.5801880353739848</v>
+        <v>3.1045708731450041</v>
       </c>
       <c r="D6">
-        <v>2.9617616204114099</v>
+        <v>2.316861708753942</v>
       </c>
       <c r="E6">
-        <v>2.372271428861457</v>
+        <v>1.3043345300023159</v>
       </c>
       <c r="F6">
-        <v>1.1441818484278781</v>
+        <v>1.152673090129644</v>
       </c>
       <c r="G6">
-        <v>1.154719193928637</v>
+        <v>1.012926432587979</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>1.0605202176205371</v>
+        <v>1.2597613493247291</v>
       </c>
       <c r="C7">
-        <v>1.329740101386657</v>
+        <v>1.2089448122035189</v>
       </c>
       <c r="D7">
-        <v>1.539816187732628</v>
+        <v>1.437150744339075</v>
       </c>
       <c r="E7">
-        <v>1.230626775773372</v>
+        <v>1.047163196771185</v>
       </c>
       <c r="F7">
-        <v>1.063442852735127</v>
+        <v>0.94892374918346434</v>
       </c>
       <c r="G7">
-        <v>1.125963354183209</v>
+        <v>0.77002565135153034</v>
       </c>
     </row>
   </sheetData>
@@ -1671,7 +1668,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -1679,22 +1676,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>76.803725326496888</v>
+        <v>85.542775356986738</v>
       </c>
       <c r="C2">
-        <v>98.914137749440656</v>
+        <v>98.662070378361506</v>
       </c>
       <c r="D2">
-        <v>114.9777405269855</v>
+        <v>75.358402525101695</v>
       </c>
       <c r="E2">
-        <v>63.106483707191252</v>
+        <v>84.145361200926146</v>
       </c>
       <c r="F2">
-        <v>24.650719518771609</v>
+        <v>21.28540629511896</v>
       </c>
       <c r="G2">
-        <v>11.339624263283071</v>
+        <v>7.309179186035867</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -1702,22 +1699,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.914563754719449</v>
+        <v>14.66307339553966</v>
       </c>
       <c r="C3">
-        <v>11.548841402591901</v>
+        <v>10.66163425125657</v>
       </c>
       <c r="D3">
-        <v>14.845063436800119</v>
+        <v>10.61511073674351</v>
       </c>
       <c r="E3">
-        <v>10.379177544990609</v>
+        <v>12.178642343276771</v>
       </c>
       <c r="F3">
-        <v>11.61099048817305</v>
+        <v>7.6468831924655056</v>
       </c>
       <c r="G3">
-        <v>5.0819750196092484</v>
+        <v>4.2444824719184986</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -1725,22 +1722,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.902966578052309</v>
+        <v>11.0687144498336</v>
       </c>
       <c r="C4">
-        <v>13.80007738550313</v>
+        <v>14.85007414555534</v>
       </c>
       <c r="D4">
-        <v>9.5788229399886813</v>
+        <v>11.40551375977736</v>
       </c>
       <c r="E4">
-        <v>8.9096637784687527</v>
+        <v>9.996347601451788</v>
       </c>
       <c r="F4">
-        <v>9.5748780422949835</v>
+        <v>7.3371791955435963</v>
       </c>
       <c r="G4">
-        <v>4.9027434386832001</v>
+        <v>4.2273202319241747</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -1748,22 +1745,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.244811323000921</v>
+        <v>10.170827384071121</v>
       </c>
       <c r="C5">
-        <v>12.83218978582396</v>
+        <v>9.894556616189492</v>
       </c>
       <c r="D5">
-        <v>9.5756787086735251</v>
+        <v>12.7091808578231</v>
       </c>
       <c r="E5">
-        <v>6.5516122722543511</v>
+        <v>8.6774098355176346</v>
       </c>
       <c r="F5">
-        <v>6.5023025980806111</v>
+        <v>5.6577966059407956</v>
       </c>
       <c r="G5">
-        <v>4.3199709116411142</v>
+        <v>3.8807862463957248</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -1771,45 +1768,45 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.3074511567268434</v>
+        <v>7.9725212800237406</v>
       </c>
       <c r="C6">
-        <v>9.9006035383936322</v>
+        <v>8.605029505478182</v>
       </c>
       <c r="D6">
-        <v>7.5081077807264842</v>
+        <v>6.3573100031345664</v>
       </c>
       <c r="E6">
-        <v>5.9962050888411476</v>
+        <v>5.2518153361463646</v>
       </c>
       <c r="F6">
-        <v>4.0835924021590433</v>
+        <v>3.9356428932680192</v>
       </c>
       <c r="G6">
-        <v>3.7728317125501811</v>
+        <v>3.3541756751117271</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>3.5299060063553682</v>
+        <v>4.2336781170797559</v>
       </c>
       <c r="C7">
-        <v>4.801579870930011</v>
+        <v>4.4101157012537069</v>
       </c>
       <c r="D7">
-        <v>4.2922409452987509</v>
+        <v>3.8364993968036512</v>
       </c>
       <c r="E7">
-        <v>4.0226677103358721</v>
+        <v>3.778693412562542</v>
       </c>
       <c r="F7">
-        <v>3.7035198025373521</v>
+        <v>3.2906711867051199</v>
       </c>
       <c r="G7">
-        <v>2.6172775853227188</v>
+        <v>2.1539004292464878</v>
       </c>
     </row>
   </sheetData>
@@ -1842,7 +1839,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -1850,22 +1847,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.635800689904599</v>
+        <v>26.024329597595909</v>
       </c>
       <c r="C2">
-        <v>28.34144221137651</v>
+        <v>24.54128583687886</v>
       </c>
       <c r="D2">
-        <v>29.192546281366511</v>
+        <v>32.435183369474863</v>
       </c>
       <c r="E2">
-        <v>14.387179828891149</v>
+        <v>13.530136061803031</v>
       </c>
       <c r="F2">
-        <v>5.5350848069618941</v>
+        <v>4.959956276299053</v>
       </c>
       <c r="G2">
-        <v>1.384138797940488</v>
+        <v>1.54842069748734</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -1873,22 +1870,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.689993026941341</v>
+        <v>2.6242209846316058</v>
       </c>
       <c r="C3">
-        <v>2.1348112453136352</v>
+        <v>2.6764685172568461</v>
       </c>
       <c r="D3">
-        <v>2.6660890076900929</v>
+        <v>2.1938748013291312</v>
       </c>
       <c r="E3">
-        <v>1.9625630272581289</v>
+        <v>2.2139997706732988</v>
       </c>
       <c r="F3">
-        <v>3.4153519783672972</v>
+        <v>1.8625962341484761</v>
       </c>
       <c r="G3">
-        <v>0.95550223733752637</v>
+        <v>1.2238849753144601</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -1896,22 +1893,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.73687613326143</v>
+        <v>2.4921731856149769</v>
       </c>
       <c r="C4">
-        <v>2.7200896782261261</v>
+        <v>2.3612806470637149</v>
       </c>
       <c r="D4">
-        <v>1.9370659434021109</v>
+        <v>1.8646592430758291</v>
       </c>
       <c r="E4">
-        <v>1.7538960585072441</v>
+        <v>1.783129992405533</v>
       </c>
       <c r="F4">
-        <v>2.7821344902620049</v>
+        <v>1.580024966217638</v>
       </c>
       <c r="G4">
-        <v>0.90979567880327394</v>
+        <v>0.9522284768503656</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -1919,22 +1916,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.4179372841444051</v>
+        <v>2.451507777984804</v>
       </c>
       <c r="C5">
-        <v>2.3115852104446009</v>
+        <v>2.4722442161536349</v>
       </c>
       <c r="D5">
-        <v>2.0363609317519069</v>
+        <v>1.8272712476989501</v>
       </c>
       <c r="E5">
-        <v>1.441690431468502</v>
+        <v>1.718256397437137</v>
       </c>
       <c r="F5">
-        <v>1.417553815174039</v>
+        <v>1.3436503419899879</v>
       </c>
       <c r="G5">
-        <v>1.073643667605608</v>
+        <v>0.96620134705398508</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -1942,45 +1939,45 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.5767392779842999</v>
+        <v>1.502402850473187</v>
       </c>
       <c r="C6">
-        <v>2.5574062069476722</v>
+        <v>1.757237140831607</v>
       </c>
       <c r="D6">
-        <v>2.6467966577378208</v>
+        <v>1.5944490039223911</v>
       </c>
       <c r="E6">
-        <v>1.14919809878349</v>
+        <v>1.1866350826465311</v>
       </c>
       <c r="F6">
-        <v>0.94891488864320395</v>
+        <v>0.98324222119689342</v>
       </c>
       <c r="G6">
-        <v>1.092939428514168</v>
+        <v>0.95180092605978917</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>0.91287267161185703</v>
+        <v>0.97683958883765276</v>
       </c>
       <c r="C7">
-        <v>1.0193167309045701</v>
+        <v>1.1582210366608761</v>
       </c>
       <c r="D7">
-        <v>0.69658967686347251</v>
+        <v>0.51764800270060285</v>
       </c>
       <c r="E7">
-        <v>1.1639140034585009</v>
+        <v>0.94021958239115744</v>
       </c>
       <c r="F7">
-        <v>1.052498730947057</v>
+        <v>0.93320990011133165</v>
       </c>
       <c r="G7">
-        <v>0.75486455623748505</v>
+        <v>0.738435653597041</v>
       </c>
     </row>
   </sheetData>
@@ -1992,7 +1989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -2013,7 +2010,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -2021,22 +2018,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>74.847275517556398</v>
+        <v>76.487276253419708</v>
       </c>
       <c r="C2">
-        <v>100.6277873077326</v>
+        <v>83.026484910669367</v>
       </c>
       <c r="D2">
-        <v>82.210881790077963</v>
+        <v>81.860016124350409</v>
       </c>
       <c r="E2">
-        <v>64.830641409747699</v>
+        <v>82.738401399084296</v>
       </c>
       <c r="F2">
-        <v>31.509597197441149</v>
+        <v>20.554308735386609</v>
       </c>
       <c r="G2">
-        <v>7.0856675127660766</v>
+        <v>7.5251188587186224</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -2044,22 +2041,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.26042574867405</v>
+        <v>9.6487628527595266</v>
       </c>
       <c r="C3">
-        <v>8.9266132465723569</v>
+        <v>9.0400387607588559</v>
       </c>
       <c r="D3">
-        <v>13.70345684257526</v>
+        <v>11.033380969169849</v>
       </c>
       <c r="E3">
-        <v>8.2298690399121259</v>
+        <v>8.6297204356107091</v>
       </c>
       <c r="F3">
-        <v>10.402269886402619</v>
+        <v>7.8041438997080723</v>
       </c>
       <c r="G3">
-        <v>3.643391748398932</v>
+        <v>4.137007815667415</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -2067,22 +2064,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.48359301192944</v>
+        <v>10.72055262592435</v>
       </c>
       <c r="C4">
-        <v>11.30357452319884</v>
+        <v>11.78407002349333</v>
       </c>
       <c r="D4">
-        <v>7.9974808612629564</v>
+        <v>8.8516570553113532</v>
       </c>
       <c r="E4">
-        <v>7.6619343879875181</v>
+        <v>9.284704053701196</v>
       </c>
       <c r="F4">
-        <v>7.9809388226006712</v>
+        <v>7.3435997668032851</v>
       </c>
       <c r="G4">
-        <v>4.4232577620762914</v>
+        <v>3.8231692558976058</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -2090,22 +2087,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.87970690485459</v>
+        <v>9.3782964192496507</v>
       </c>
       <c r="C5">
-        <v>10.381938663564901</v>
+        <v>8.8520457825552832</v>
       </c>
       <c r="D5">
-        <v>6.9193294155470539</v>
+        <v>7.9538963579962001</v>
       </c>
       <c r="E5">
-        <v>6.83401475145733</v>
+        <v>7.367395449683305</v>
       </c>
       <c r="F5">
-        <v>5.1521652219658129</v>
+        <v>4.9741064885882054</v>
       </c>
       <c r="G5">
-        <v>4.2478364800759429</v>
+        <v>3.5987901989229929</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -2113,45 +2110,45 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.4974143011839161</v>
+        <v>6.9291474954231322</v>
       </c>
       <c r="C6">
-        <v>5.1079527796644433</v>
+        <v>5.1131452394570998</v>
       </c>
       <c r="D6">
-        <v>4.5986653004338462</v>
+        <v>3.6955490639545121</v>
       </c>
       <c r="E6">
-        <v>3.8551615949105682</v>
+        <v>4.4972818505084424</v>
       </c>
       <c r="F6">
-        <v>4.3519258408834913</v>
+        <v>3.6424020477406001</v>
       </c>
       <c r="G6">
-        <v>3.1886462383612839</v>
+        <v>2.8631585480231161</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>3.9114074198909541</v>
+        <v>3.3550686335013729</v>
       </c>
       <c r="C7">
-        <v>3.6501625847550709</v>
+        <v>3.556233402294291</v>
       </c>
       <c r="D7">
-        <v>1.2309989087845881</v>
+        <v>1.156976859095459</v>
       </c>
       <c r="E7">
-        <v>4.0244664657228286</v>
+        <v>3.3978655086225569</v>
       </c>
       <c r="F7">
-        <v>3.5838253339699921</v>
+        <v>3.090470649739907</v>
       </c>
       <c r="G7">
-        <v>1.9848586822445069</v>
+        <v>1.9726883614844799</v>
       </c>
     </row>
   </sheetData>
@@ -2184,7 +2181,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -2192,22 +2189,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>82.317015313326792</v>
+        <v>101.3321190159153</v>
       </c>
       <c r="C2">
-        <v>128.75170575922431</v>
+        <v>84.685979299495358</v>
       </c>
       <c r="D2">
-        <v>98.998032429737322</v>
+        <v>92.017446004678035</v>
       </c>
       <c r="E2">
-        <v>81.789790096980028</v>
+        <v>94.196822463790909</v>
       </c>
       <c r="F2">
-        <v>130.0045082749817</v>
+        <v>104.4774794504122</v>
       </c>
       <c r="G2">
-        <v>133.64516774151869</v>
+        <v>116.17406034369129</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -2215,22 +2212,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>64.625784634920905</v>
+        <v>57.636192145768689</v>
       </c>
       <c r="C3">
-        <v>54.62114064659702</v>
+        <v>64.310242158189538</v>
       </c>
       <c r="D3">
-        <v>58.003778787804137</v>
+        <v>73.431819403174629</v>
       </c>
       <c r="E3">
-        <v>53.449519631334773</v>
+        <v>72.355509876178999</v>
       </c>
       <c r="F3">
-        <v>90.8708130416736</v>
+        <v>65.174526011744121</v>
       </c>
       <c r="G3">
-        <v>68.810195192382139</v>
+        <v>56.637330124988353</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -2238,22 +2235,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>60.206096652895738</v>
+        <v>58.959907549705179</v>
       </c>
       <c r="C4">
-        <v>69.239585779829355</v>
+        <v>59.018142418147519</v>
       </c>
       <c r="D4">
-        <v>53.903263051511821</v>
+        <v>58.591101186044277</v>
       </c>
       <c r="E4">
-        <v>55.02850692344191</v>
+        <v>71.008089688402436</v>
       </c>
       <c r="F4">
-        <v>84.792813915938638</v>
+        <v>68.913270868756186</v>
       </c>
       <c r="G4">
-        <v>83.134872218510736</v>
+        <v>78.639980617144701</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -2261,22 +2258,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>56.448803973438586</v>
+        <v>55.66153168983454</v>
       </c>
       <c r="C5">
-        <v>54.309044176312753</v>
+        <v>51.804796060977139</v>
       </c>
       <c r="D5">
-        <v>45.193067779374921</v>
+        <v>47.444227244547378</v>
       </c>
       <c r="E5">
-        <v>52.512513875850019</v>
+        <v>62.968177466922107</v>
       </c>
       <c r="F5">
-        <v>57.041252742639919</v>
+        <v>61.053908897331247</v>
       </c>
       <c r="G5">
-        <v>56.002969201633348</v>
+        <v>54.072257444489352</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -2284,45 +2281,45 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.913564639836819</v>
+        <v>16.00825409124004</v>
       </c>
       <c r="C6">
-        <v>23.258317859707009</v>
+        <v>17.876544922414869</v>
       </c>
       <c r="D6">
-        <v>19.281909912420659</v>
+        <v>17.078954819093589</v>
       </c>
       <c r="E6">
-        <v>21.847001561244621</v>
+        <v>18.66096150559089</v>
       </c>
       <c r="F6">
-        <v>19.554659355781101</v>
+        <v>16.455090148246459</v>
       </c>
       <c r="G6">
-        <v>28.62548203359783</v>
+        <v>20.05265802122047</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>6.5819239710228024</v>
+        <v>4.0053696760649569</v>
       </c>
       <c r="C7">
-        <v>6.2187988641871002</v>
+        <v>4.211460697307011</v>
       </c>
       <c r="D7">
-        <v>5.6775829981603536</v>
+        <v>3.7144016294441249</v>
       </c>
       <c r="E7">
-        <v>4.8062876387699083</v>
+        <v>3.8390473331504049</v>
       </c>
       <c r="F7">
-        <v>6.2645459285582268</v>
+        <v>3.8224689988295042</v>
       </c>
       <c r="G7">
-        <v>7.1098770186211278</v>
+        <v>4.4459268503912428</v>
       </c>
     </row>
   </sheetData>
@@ -2355,7 +2352,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -2363,22 +2360,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.2720369994003553</v>
+        <v>2.6573165957656748</v>
       </c>
       <c r="C2">
-        <v>2.9509000508126291</v>
+        <v>2.934765829622759</v>
       </c>
       <c r="D2">
-        <v>2.536821630692085</v>
+        <v>2.8601601049501282</v>
       </c>
       <c r="E2">
-        <v>3.9692368037293861</v>
+        <v>2.6192866079328518</v>
       </c>
       <c r="F2">
-        <v>1.9572686892952369</v>
+        <v>1.1589250634807271</v>
       </c>
       <c r="G2">
-        <v>0.97655439686094936</v>
+        <v>0.69637586618447411</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -2386,22 +2383,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.6312559962177904</v>
+        <v>2.5663951373225942</v>
       </c>
       <c r="C3">
-        <v>4.5597767217862577</v>
+        <v>2.6228781366906482</v>
       </c>
       <c r="D3">
-        <v>6.1261415627302904</v>
+        <v>2.4334617263911338</v>
       </c>
       <c r="E3">
-        <v>3.6792718382416618</v>
+        <v>2.2300631233121528</v>
       </c>
       <c r="F3">
-        <v>2.0205900646122341</v>
+        <v>0.98372045872307889</v>
       </c>
       <c r="G3">
-        <v>0.94934072574149453</v>
+        <v>0.87365647159662718</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -2409,22 +2406,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.1454516614886883</v>
+        <v>2.3117412105549882</v>
       </c>
       <c r="C4">
-        <v>5.3723179384989157</v>
+        <v>2.371582737207258</v>
       </c>
       <c r="D4">
-        <v>5.0314930429857672</v>
+        <v>2.0386069026683948</v>
       </c>
       <c r="E4">
-        <v>4.5370968423268936</v>
+        <v>1.953108022274374</v>
       </c>
       <c r="F4">
-        <v>2.254276214406699</v>
+        <v>1.1255056937558521</v>
       </c>
       <c r="G4">
-        <v>1.1658255055728921</v>
+        <v>0.99659013075481617</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -2432,22 +2429,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.2207476479745827</v>
+        <v>2.3119409011835699</v>
       </c>
       <c r="C5">
-        <v>4.7020270315129373</v>
+        <v>2.0498308755540369</v>
       </c>
       <c r="D5">
-        <v>4.4023323750662344</v>
+        <v>1.932285050639222</v>
       </c>
       <c r="E5">
-        <v>4.2323647776955546</v>
+        <v>1.9329773751566739</v>
       </c>
       <c r="F5">
-        <v>2.0107775485569142</v>
+        <v>0.96944449098765795</v>
       </c>
       <c r="G5">
-        <v>1.0746090912873101</v>
+        <v>1.0442469630046729</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -2455,45 +2452,45 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.023838736785891</v>
+        <v>0.84208042555827445</v>
       </c>
       <c r="C6">
-        <v>1.302846895335358</v>
+        <v>0.81013770198867829</v>
       </c>
       <c r="D6">
-        <v>1.2481870635114889</v>
+        <v>0.82822402525234606</v>
       </c>
       <c r="E6">
-        <v>1.3087015554613399</v>
+        <v>1.1722069085650551</v>
       </c>
       <c r="F6">
-        <v>1.285880979633991</v>
+        <v>1.038175317038643</v>
       </c>
       <c r="G6">
-        <v>1.826962909197859</v>
+        <v>1.729114528070562</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>2.0403566121524088</v>
+        <v>1.840690194496059</v>
       </c>
       <c r="C7">
-        <v>2.0497485116460079</v>
+        <v>1.797227513978513</v>
       </c>
       <c r="D7">
-        <v>1.9483634754174719</v>
+        <v>1.734842492817309</v>
       </c>
       <c r="E7">
-        <v>1.902695158010338</v>
+        <v>1.7728486108908179</v>
       </c>
       <c r="F7">
-        <v>1.2172603903653081</v>
+        <v>1.0886679653279101</v>
       </c>
       <c r="G7">
-        <v>1.0814073663626831</v>
+        <v>0.95867768174980883</v>
       </c>
     </row>
   </sheetData>
@@ -2526,7 +2523,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -2534,22 +2531,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>39.705890218555673</v>
+        <v>50.852591469105917</v>
       </c>
       <c r="C2">
-        <v>64.532212985159816</v>
+        <v>46.803396539343247</v>
       </c>
       <c r="D2">
-        <v>51.355729492416238</v>
+        <v>44.470518727936543</v>
       </c>
       <c r="E2">
-        <v>41.69612164722345</v>
+        <v>49.767134339930827</v>
       </c>
       <c r="F2">
-        <v>67.4263693275946</v>
+        <v>45.192727359495741</v>
       </c>
       <c r="G2">
-        <v>65.152479874819562</v>
+        <v>53.093638246074647</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -2557,22 +2554,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>38.455141251957834</v>
+        <v>36.475121665303917</v>
       </c>
       <c r="C3">
-        <v>33.86871208393292</v>
+        <v>37.556043561416438</v>
       </c>
       <c r="D3">
-        <v>38.3733264521168</v>
+        <v>39.387897445371557</v>
       </c>
       <c r="E3">
-        <v>33.627832986356232</v>
+        <v>39.738354192112112</v>
       </c>
       <c r="F3">
-        <v>50.695385533153193</v>
+        <v>36.000057741596763</v>
       </c>
       <c r="G3">
-        <v>60.103217994506871</v>
+        <v>39.227401565241138</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -2580,22 +2577,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>42.160696280231427</v>
+        <v>38.616610793107391</v>
       </c>
       <c r="C4">
-        <v>41.584843017490783</v>
+        <v>41.513362094514768</v>
       </c>
       <c r="D4">
-        <v>31.313907850860311</v>
+        <v>38.455456398872514</v>
       </c>
       <c r="E4">
-        <v>35.791801725161029</v>
+        <v>54.445772116437396</v>
       </c>
       <c r="F4">
-        <v>51.750884608864432</v>
+        <v>47.273483402837819</v>
       </c>
       <c r="G4">
-        <v>49.7989954064806</v>
+        <v>37.271213747736489</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -2603,22 +2600,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>37.16581754469653</v>
+        <v>31.72210508014577</v>
       </c>
       <c r="C5">
-        <v>38.077679786690723</v>
+        <v>30.564839362741971</v>
       </c>
       <c r="D5">
-        <v>29.82441392854254</v>
+        <v>34.25276619994208</v>
       </c>
       <c r="E5">
-        <v>38.658408384254287</v>
+        <v>34.757264193406712</v>
       </c>
       <c r="F5">
-        <v>37.601128314903541</v>
+        <v>38.17758908309095</v>
       </c>
       <c r="G5">
-        <v>51.77110665322833</v>
+        <v>29.483035095801391</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -2626,45 +2623,45 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.03864373397451</v>
+        <v>16.425381272078479</v>
       </c>
       <c r="C6">
-        <v>16.180570369236719</v>
+        <v>15.94251285165431</v>
       </c>
       <c r="D6">
-        <v>16.200740642797399</v>
+        <v>14.118842485500981</v>
       </c>
       <c r="E6">
-        <v>15.1524754192125</v>
+        <v>14.442307416121061</v>
       </c>
       <c r="F6">
-        <v>16.157655737455741</v>
+        <v>14.24912941907068</v>
       </c>
       <c r="G6">
-        <v>16.608213301212981</v>
+        <v>17.927227314468659</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>2.4556733037422358</v>
+        <v>2.722954058304798</v>
       </c>
       <c r="C7">
-        <v>3.2831294704487979</v>
+        <v>3.0625639699333722</v>
       </c>
       <c r="D7">
-        <v>2.3720808924993291</v>
+        <v>2.594253351448947</v>
       </c>
       <c r="E7">
-        <v>2.3964915185931441</v>
+        <v>2.7006100982038101</v>
       </c>
       <c r="F7">
-        <v>2.732928206148542</v>
+        <v>2.6336247556666361</v>
       </c>
       <c r="G7">
-        <v>3.697982581821428</v>
+        <v>2.7915304740822822</v>
       </c>
     </row>
   </sheetData>
@@ -2697,7 +2694,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -2705,22 +2702,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>65.974222046215786</v>
+        <v>75.03457671123445</v>
       </c>
       <c r="C2">
-        <v>98.082920466635372</v>
+        <v>71.529169440777025</v>
       </c>
       <c r="D2">
-        <v>70.705326882461577</v>
+        <v>68.115114779777144</v>
       </c>
       <c r="E2">
-        <v>48.731987109625713</v>
+        <v>55.365877511606307</v>
       </c>
       <c r="F2">
-        <v>15.93764468022218</v>
+        <v>13.55105280365402</v>
       </c>
       <c r="G2">
-        <v>4.6897643418881021</v>
+        <v>2.66162825557352</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -2728,22 +2725,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.1458426759448432</v>
+        <v>9.4874840556338729</v>
       </c>
       <c r="C3">
-        <v>7.6472196334998346</v>
+        <v>8.1450492207480334</v>
       </c>
       <c r="D3">
-        <v>8.9503978268531572</v>
+        <v>9.0822778601952496</v>
       </c>
       <c r="E3">
-        <v>7.3008771703789126</v>
+        <v>8.7807710539234911</v>
       </c>
       <c r="F3">
-        <v>4.8190511815555013</v>
+        <v>4.5689123815378707</v>
       </c>
       <c r="G3">
-        <v>1.7631956863561109</v>
+        <v>1.2997138621675659</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -2751,22 +2748,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.82031146607771</v>
+        <v>8.8061420665493646</v>
       </c>
       <c r="C4">
-        <v>7.7516371587027297</v>
+        <v>8.57528668557595</v>
       </c>
       <c r="D4">
-        <v>8.7194851708145329</v>
+        <v>7.1783055913883924</v>
       </c>
       <c r="E4">
-        <v>8.5554551181161163</v>
+        <v>7.0774789542018146</v>
       </c>
       <c r="F4">
-        <v>4.516566757946447</v>
+        <v>3.7054853413581168</v>
       </c>
       <c r="G4">
-        <v>1.031609486375775</v>
+        <v>1.0062021857032919</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -2774,22 +2771,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.9632373057702193</v>
+        <v>8.3480639200624616</v>
       </c>
       <c r="C5">
-        <v>8.6627262300711472</v>
+        <v>8.1978320137766314</v>
       </c>
       <c r="D5">
-        <v>6.6079119692613908</v>
+        <v>6.9151748312479127</v>
       </c>
       <c r="E5">
-        <v>7.224609396457546</v>
+        <v>6.8700100081911666</v>
       </c>
       <c r="F5">
-        <v>3.3746155155965889</v>
+        <v>2.3416051375105651</v>
       </c>
       <c r="G5">
-        <v>0.76568218127004728</v>
+        <v>0.86777615446084333</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -2797,45 +2794,45 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4.2000650599711742</v>
+        <v>4.5256272418539778</v>
       </c>
       <c r="C6">
-        <v>4.4806603527674671</v>
+        <v>4.5060253211308128</v>
       </c>
       <c r="D6">
-        <v>5.7380394004942374</v>
+        <v>4.1341049991799901</v>
       </c>
       <c r="E6">
-        <v>3.5952555861765161</v>
+        <v>1.7738580106493851</v>
       </c>
       <c r="F6">
-        <v>0.93142246501329928</v>
+        <v>0.88207000184991236</v>
       </c>
       <c r="G6">
-        <v>1.090971594392979</v>
+        <v>0.84578337523457636</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>1.764310113426433</v>
+        <v>1.5071399188859029</v>
       </c>
       <c r="C7">
-        <v>1.4569288298841689</v>
+        <v>1.2729056833545671</v>
       </c>
       <c r="D7">
-        <v>1.5155984664052069</v>
+        <v>1.2096831706127991</v>
       </c>
       <c r="E7">
-        <v>0.96830567717871652</v>
+        <v>0.78567440088312357</v>
       </c>
       <c r="F7">
-        <v>1.225421474226454</v>
+        <v>0.91747063821744879</v>
       </c>
       <c r="G7">
-        <v>0.62780265719462214</v>
+        <v>0.60167147118264253</v>
       </c>
     </row>
   </sheetData>
@@ -2868,7 +2865,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -2876,22 +2873,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>66.18873090452054</v>
+        <v>44.620837595977932</v>
       </c>
       <c r="C2">
-        <v>61.419132928375888</v>
+        <v>44.697979199289108</v>
       </c>
       <c r="D2">
-        <v>45.322492145105862</v>
+        <v>42.243671475769403</v>
       </c>
       <c r="E2">
-        <v>34.718651707751107</v>
+        <v>39.76822359122427</v>
       </c>
       <c r="F2">
-        <v>19.383019447927989</v>
+        <v>18.646221050983911</v>
       </c>
       <c r="G2">
-        <v>4.3508245808440611</v>
+        <v>4.5046925468353907</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -2899,22 +2896,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.04043649148616</v>
+        <v>8.9720826080284439</v>
       </c>
       <c r="C3">
-        <v>7.7783070266675276</v>
+        <v>10.000452059524379</v>
       </c>
       <c r="D3">
-        <v>8.2661179391355528</v>
+        <v>9.0929941185710739</v>
       </c>
       <c r="E3">
-        <v>7.3279518287756087</v>
+        <v>7.3969546044249199</v>
       </c>
       <c r="F3">
-        <v>7.0464863682395373</v>
+        <v>6.1158934135371066</v>
       </c>
       <c r="G3">
-        <v>2.19521142151841</v>
+        <v>2.1450913732054402</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -2922,22 +2919,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.806115055906821</v>
+        <v>8.844360362670999</v>
       </c>
       <c r="C4">
-        <v>8.2853310914048333</v>
+        <v>9.7985359358159698</v>
       </c>
       <c r="D4">
-        <v>10.249928149963621</v>
+        <v>8.0566929357424257</v>
       </c>
       <c r="E4">
-        <v>7.1779330204134029</v>
+        <v>6.772400364104616</v>
       </c>
       <c r="F4">
-        <v>4.7597312168927282</v>
+        <v>4.9294481187783816</v>
       </c>
       <c r="G4">
-        <v>2.3077200476590431</v>
+        <v>1.8557978913967881</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -2945,22 +2942,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.2805702347565333</v>
+        <v>9.583839251477583</v>
       </c>
       <c r="C5">
-        <v>7.5067820266969747</v>
+        <v>7.8841249471545076</v>
       </c>
       <c r="D5">
-        <v>6.8068976990529482</v>
+        <v>7.5638989130745973</v>
       </c>
       <c r="E5">
-        <v>7.1530766448204401</v>
+        <v>7.180715996532812</v>
       </c>
       <c r="F5">
-        <v>2.373907155342557</v>
+        <v>2.743860967182532</v>
       </c>
       <c r="G5">
-        <v>1.7031962321249661</v>
+        <v>1.535439575841026</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -2968,45 +2965,45 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.3370799029250131</v>
+        <v>6.0018714571891332</v>
       </c>
       <c r="C6">
-        <v>5.5249608798261418</v>
+        <v>5.0493394465016443</v>
       </c>
       <c r="D6">
-        <v>4.4690253797226429</v>
+        <v>3.923715281950598</v>
       </c>
       <c r="E6">
-        <v>2.456196833101437</v>
+        <v>2.5923880596982078</v>
       </c>
       <c r="F6">
-        <v>1.5583329366217009</v>
+        <v>1.754031191303177</v>
       </c>
       <c r="G6">
-        <v>1.16274036243018</v>
+        <v>0.9800108261957412</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>1.635670150369126</v>
+        <v>1.837183515002019</v>
       </c>
       <c r="C7">
-        <v>1.71355120386621</v>
+        <v>1.754728983703493</v>
       </c>
       <c r="D7">
-        <v>1.5539082225340559</v>
+        <v>1.3818276522308111</v>
       </c>
       <c r="E7">
-        <v>1.58610332477003</v>
+        <v>1.3227954600828311</v>
       </c>
       <c r="F7">
-        <v>1.111424816226994</v>
+        <v>0.99414173026558394</v>
       </c>
       <c r="G7">
-        <v>0.77834271886131134</v>
+        <v>0.70807160557548421</v>
       </c>
     </row>
   </sheetData>
@@ -3039,7 +3036,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -3047,22 +3044,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>105.3628096717939</v>
+        <v>70.49277881534951</v>
       </c>
       <c r="C2">
-        <v>103.3774528696328</v>
+        <v>78.69118742740315</v>
       </c>
       <c r="D2">
-        <v>79.792667888150604</v>
+        <v>69.49750322383737</v>
       </c>
       <c r="E2">
-        <v>54.075348282248093</v>
+        <v>54.9427737876373</v>
       </c>
       <c r="F2">
-        <v>15.76409406905421</v>
+        <v>12.941269222057169</v>
       </c>
       <c r="G2">
-        <v>2.581169592793322</v>
+        <v>2.3767680971952951</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -3070,22 +3067,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.0097698646939683</v>
+        <v>9.4107812661344994</v>
       </c>
       <c r="C3">
-        <v>12.63596166368146</v>
+        <v>9.6690089859039681</v>
       </c>
       <c r="D3">
-        <v>8.9206575973826663</v>
+        <v>10.46939597731882</v>
       </c>
       <c r="E3">
-        <v>9.2983680649244285</v>
+        <v>10.371793650146641</v>
       </c>
       <c r="F3">
-        <v>6.3762897306935979</v>
+        <v>5.6669943423328313</v>
       </c>
       <c r="G3">
-        <v>1.606553983224275</v>
+        <v>1.60970456018777</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -3093,22 +3090,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.0188389804297344</v>
+        <v>9.3664032953971397</v>
       </c>
       <c r="C4">
-        <v>11.14632995494549</v>
+        <v>10.11092952871571</v>
       </c>
       <c r="D4">
-        <v>7.430279750039797</v>
+        <v>8.6963145149167236</v>
       </c>
       <c r="E4">
-        <v>7.7024508921881107</v>
+        <v>8.3300341776536104</v>
       </c>
       <c r="F4">
-        <v>3.9346220937988852</v>
+        <v>3.9970283247437508</v>
       </c>
       <c r="G4">
-        <v>1.4321357683466029</v>
+        <v>1.237780567407833</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -3116,22 +3113,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.03278729117803</v>
+        <v>9.3116818009647417</v>
       </c>
       <c r="C5">
-        <v>7.6801216741711684</v>
+        <v>9.4254820401587907</v>
       </c>
       <c r="D5">
-        <v>8.5438810188027006</v>
+        <v>7.6226205482033551</v>
       </c>
       <c r="E5">
-        <v>6.522957983312244</v>
+        <v>6.4570546128436881</v>
       </c>
       <c r="F5">
-        <v>1.9399285467335969</v>
+        <v>2.151422555611481</v>
       </c>
       <c r="G5">
-        <v>0.95839065612496077</v>
+        <v>0.92827384669055535</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -3139,45 +3136,45 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.2885458049105196</v>
+        <v>4.967899028866154</v>
       </c>
       <c r="C6">
-        <v>5.1352285409189724</v>
+        <v>4.9418206696854474</v>
       </c>
       <c r="D6">
-        <v>5.0300863225044097</v>
+        <v>4.0822995454506872</v>
       </c>
       <c r="E6">
-        <v>2.48298547793115</v>
+        <v>1.77972051761799</v>
       </c>
       <c r="F6">
-        <v>0.88256938197307433</v>
+        <v>0.88280283058106368</v>
       </c>
       <c r="G6">
-        <v>1.0970115886015681</v>
+        <v>0.90042025250838043</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>1.452644417511739</v>
+        <v>1.3338786359613291</v>
       </c>
       <c r="C7">
-        <v>1.551524508611678</v>
+        <v>1.226981920437118</v>
       </c>
       <c r="D7">
-        <v>0.8352753351431792</v>
+        <v>0.85561287665336072</v>
       </c>
       <c r="E7">
-        <v>0.93077276701752643</v>
+        <v>0.82183835733918886</v>
       </c>
       <c r="F7">
-        <v>1.1545819716246579</v>
+        <v>0.95134022856435174</v>
       </c>
       <c r="G7">
-        <v>0.62802776716886255</v>
+        <v>0.60027055418077147</v>
       </c>
     </row>
   </sheetData>
@@ -3210,7 +3207,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -3218,22 +3215,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>52.292124493747743</v>
+        <v>47.683635237791847</v>
       </c>
       <c r="C2">
-        <v>58.277733075497551</v>
+        <v>43.488847249895692</v>
       </c>
       <c r="D2">
-        <v>46.141900110577978</v>
+        <v>44.531287724613492</v>
       </c>
       <c r="E2">
-        <v>37.933428951473132</v>
+        <v>44.162551878836723</v>
       </c>
       <c r="F2">
-        <v>20.55687307972596</v>
+        <v>18.11776333253373</v>
       </c>
       <c r="G2">
-        <v>4.8523508207961514</v>
+        <v>3.722955877439948</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -3241,22 +3238,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.5889347959404851</v>
+        <v>9.5933501885453119</v>
       </c>
       <c r="C3">
-        <v>12.072793781823879</v>
+        <v>9.6121881625196917</v>
       </c>
       <c r="D3">
-        <v>8.4268007515989236</v>
+        <v>9.8450444916820548</v>
       </c>
       <c r="E3">
-        <v>9.2459776746517743</v>
+        <v>9.9924496910066569</v>
       </c>
       <c r="F3">
-        <v>6.9972999737067427</v>
+        <v>6.5062844156328374</v>
       </c>
       <c r="G3">
-        <v>2.9418447891249491</v>
+        <v>2.381315422807567</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -3264,22 +3261,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.4326538375486635</v>
+        <v>9.1724980958511964</v>
       </c>
       <c r="C4">
-        <v>9.1645943817025923</v>
+        <v>9.6154851114773514</v>
       </c>
       <c r="D4">
-        <v>6.5639609022204928</v>
+        <v>7.9753001385465359</v>
       </c>
       <c r="E4">
-        <v>7.311908104639179</v>
+        <v>8.4985101654655679</v>
       </c>
       <c r="F4">
-        <v>5.1479446856467499</v>
+        <v>4.9458901592024027</v>
       </c>
       <c r="G4">
-        <v>2.166233097488111</v>
+        <v>1.9180213949901921</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -3287,22 +3284,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.3064858021572689</v>
+        <v>9.060832817557138</v>
       </c>
       <c r="C5">
-        <v>7.6677582402033302</v>
+        <v>8.1988028756221709</v>
       </c>
       <c r="D5">
-        <v>10.25757144246702</v>
+        <v>7.9801259448866446</v>
       </c>
       <c r="E5">
-        <v>8.043763524048984</v>
+        <v>7.1070422693155511</v>
       </c>
       <c r="F5">
-        <v>3.6918838737328739</v>
+        <v>2.8454514147738932</v>
       </c>
       <c r="G5">
-        <v>1.553183763060364</v>
+        <v>1.481642465323485</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -3310,45 +3307,45 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.4354010169039171</v>
+        <v>5.7039290301687871</v>
       </c>
       <c r="C6">
-        <v>5.7601985827424249</v>
+        <v>5.0537722704829218</v>
       </c>
       <c r="D6">
-        <v>4.7299579802889493</v>
+        <v>3.6182161001283681</v>
       </c>
       <c r="E6">
-        <v>2.8632256590561762</v>
+        <v>2.5098525798334812</v>
       </c>
       <c r="F6">
-        <v>1.3197394242776179</v>
+        <v>1.376950966520494</v>
       </c>
       <c r="G6">
-        <v>1.094356753734578</v>
+        <v>0.95551298050631139</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>1.8339107838155939</v>
+        <v>1.629197998105985</v>
       </c>
       <c r="C7">
-        <v>1.4443640618490949</v>
+        <v>1.5022353009168701</v>
       </c>
       <c r="D7">
-        <v>0.9285719115531329</v>
+        <v>0.97326701152978046</v>
       </c>
       <c r="E7">
-        <v>1.62987352740145</v>
+        <v>1.319052487164041</v>
       </c>
       <c r="F7">
-        <v>1.056509601642567</v>
+        <v>0.92066223219992338</v>
       </c>
       <c r="G7">
-        <v>0.72530230364289283</v>
+        <v>0.67307853743916957</v>
       </c>
     </row>
   </sheetData>
@@ -3381,7 +3378,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -3389,22 +3386,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>237.4793997857839</v>
+        <v>219.22947644770011</v>
       </c>
       <c r="C2">
-        <v>179.84543687045621</v>
+        <v>200.4927057042128</v>
       </c>
       <c r="D2">
-        <v>232.8084571382544</v>
+        <v>218.86610094199989</v>
       </c>
       <c r="E2">
-        <v>181.83378316660949</v>
+        <v>218.6649792412818</v>
       </c>
       <c r="F2">
-        <v>323.26210795854911</v>
+        <v>196.62253351786481</v>
       </c>
       <c r="G2">
-        <v>274.70503011485459</v>
+        <v>236.439798349282</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -3412,22 +3409,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>139.2332206453097</v>
+        <v>93.517527204771426</v>
       </c>
       <c r="C3">
-        <v>125.9537718217402</v>
+        <v>85.092401666711325</v>
       </c>
       <c r="D3">
-        <v>87.341858940731484</v>
+        <v>103.5082387448643</v>
       </c>
       <c r="E3">
-        <v>88.496002267815697</v>
+        <v>93.796814263397934</v>
       </c>
       <c r="F3">
-        <v>110.6304669026601</v>
+        <v>116.94390824635541</v>
       </c>
       <c r="G3">
-        <v>117.6060482363108</v>
+        <v>95.029230292295139</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -3435,22 +3432,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>76.921200430807289</v>
+        <v>84.237335164651583</v>
       </c>
       <c r="C4">
-        <v>95.947458229725839</v>
+        <v>79.109683777198711</v>
       </c>
       <c r="D4">
-        <v>75.712646776313647</v>
+        <v>105.31605918995309</v>
       </c>
       <c r="E4">
-        <v>74.646260906533527</v>
+        <v>88.934946243356592</v>
       </c>
       <c r="F4">
-        <v>98.534008694090844</v>
+        <v>81.880520307890421</v>
       </c>
       <c r="G4">
-        <v>97.479344603375793</v>
+        <v>93.155351860786212</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -3458,22 +3455,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>56.032901736935678</v>
+        <v>64.261468716088913</v>
       </c>
       <c r="C5">
-        <v>55.028639403486821</v>
+        <v>58.212035355747823</v>
       </c>
       <c r="D5">
-        <v>65.031279598548011</v>
+        <v>73.356137364128642</v>
       </c>
       <c r="E5">
-        <v>63.422485565098512</v>
+        <v>59.047093691700638</v>
       </c>
       <c r="F5">
-        <v>63.2787949793236</v>
+        <v>71.58168772460256</v>
       </c>
       <c r="G5">
-        <v>68.506279792413864</v>
+        <v>55.196747601536273</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -3481,45 +3478,45 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.576390694088399</v>
+        <v>13.274494675322529</v>
       </c>
       <c r="C6">
-        <v>11.937832334014811</v>
+        <v>11.666025285982331</v>
       </c>
       <c r="D6">
-        <v>10.6599974229367</v>
+        <v>11.147760680951521</v>
       </c>
       <c r="E6">
-        <v>12.32292216694645</v>
+        <v>11.39699722345666</v>
       </c>
       <c r="F6">
-        <v>10.8308325097452</v>
+        <v>10.79610541757015</v>
       </c>
       <c r="G6">
-        <v>15.756746389114211</v>
+        <v>10.943306930631829</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>3.7250226848395802</v>
+        <v>1.9534693410832391</v>
       </c>
       <c r="C7">
-        <v>3.9042276447346018</v>
+        <v>2.1120646769598879</v>
       </c>
       <c r="D7">
-        <v>3.455777436909035</v>
+        <v>2.05557197484538</v>
       </c>
       <c r="E7">
-        <v>4.1265692589797736</v>
+        <v>2.1446907247520168</v>
       </c>
       <c r="F7">
-        <v>4.1702431601279342</v>
+        <v>2.0418744855699491</v>
       </c>
       <c r="G7">
-        <v>4.1912375750159541</v>
+        <v>2.3045333199234461</v>
       </c>
     </row>
   </sheetData>
@@ -3552,7 +3549,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -3560,22 +3557,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>248.01854247195271</v>
+        <v>188.59410295067849</v>
       </c>
       <c r="C2">
-        <v>195.1459786989503</v>
+        <v>230.94831372920751</v>
       </c>
       <c r="D2">
-        <v>246.43276290756529</v>
+        <v>190.70508043397021</v>
       </c>
       <c r="E2">
-        <v>300.65708784270112</v>
+        <v>218.41676847810609</v>
       </c>
       <c r="F2">
-        <v>347.04604326456939</v>
+        <v>214.46397315480641</v>
       </c>
       <c r="G2">
-        <v>287.85666378441562</v>
+        <v>206.70179937953051</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -3583,22 +3580,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>122.8424123285631</v>
+        <v>106.2937788521287</v>
       </c>
       <c r="C3">
-        <v>95.775310689295381</v>
+        <v>123.710195338055</v>
       </c>
       <c r="D3">
-        <v>93.3612015386108</v>
+        <v>109.7356683677705</v>
       </c>
       <c r="E3">
-        <v>104.6321991035428</v>
+        <v>106.9009732023146</v>
       </c>
       <c r="F3">
-        <v>119.8050815337694</v>
+        <v>122.75431875044499</v>
       </c>
       <c r="G3">
-        <v>150.92922318897871</v>
+        <v>102.5254474320778</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -3606,22 +3603,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>86.810106932613223</v>
+        <v>105.7760000691256</v>
       </c>
       <c r="C4">
-        <v>117.32003368798649</v>
+        <v>111.6248514392778</v>
       </c>
       <c r="D4">
-        <v>91.766777851479603</v>
+        <v>90.184497296710077</v>
       </c>
       <c r="E4">
-        <v>84.256887987395032</v>
+        <v>99.590293550889811</v>
       </c>
       <c r="F4">
-        <v>113.7128595601382</v>
+        <v>113.5547957332537</v>
       </c>
       <c r="G4">
-        <v>126.3184163006611</v>
+        <v>124.1964975458293</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -3629,22 +3626,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>71.045308794358945</v>
+        <v>72.70112725465718</v>
       </c>
       <c r="C5">
-        <v>71.260412591588022</v>
+        <v>85.679128875404672</v>
       </c>
       <c r="D5">
-        <v>127.01482749972141</v>
+        <v>97.407729290671725</v>
       </c>
       <c r="E5">
-        <v>119.2953867197446</v>
+        <v>83.860372267043218</v>
       </c>
       <c r="F5">
-        <v>103.04916375721091</v>
+        <v>84.358050618954508</v>
       </c>
       <c r="G5">
-        <v>92.77920429175785</v>
+        <v>87.538422029537315</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -3652,45 +3649,45 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.981357446465999</v>
+        <v>20.791645899403061</v>
       </c>
       <c r="C6">
-        <v>23.32506342542883</v>
+        <v>20.790329425356639</v>
       </c>
       <c r="D6">
-        <v>18.002111513926749</v>
+        <v>23.075220232694061</v>
       </c>
       <c r="E6">
-        <v>23.983599769520151</v>
+        <v>18.86224064298187</v>
       </c>
       <c r="F6">
-        <v>24.526702792456891</v>
+        <v>20.860974514978679</v>
       </c>
       <c r="G6">
-        <v>31.923962660132329</v>
+        <v>21.877505031935641</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>4.4220309078024886</v>
+        <v>3.5054232656202231</v>
       </c>
       <c r="C7">
-        <v>3.2702894585221669</v>
+        <v>3.531179949661456</v>
       </c>
       <c r="D7">
-        <v>4.1514768291080291</v>
+        <v>3.579595726696235</v>
       </c>
       <c r="E7">
-        <v>5.6948806122934208</v>
+        <v>3.875919460244718</v>
       </c>
       <c r="F7">
-        <v>5.0683046973712553</v>
+        <v>3.8039517129421858</v>
       </c>
       <c r="G7">
-        <v>3.8776976388128399</v>
+        <v>3.9119687958278742</v>
       </c>
     </row>
   </sheetData>
@@ -3723,7 +3720,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -3731,22 +3728,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>144.68172486465389</v>
+        <v>122.9197375681365</v>
       </c>
       <c r="C2">
-        <v>91.714484223386464</v>
+        <v>107.2479686909611</v>
       </c>
       <c r="D2">
-        <v>107.7136369018838</v>
+        <v>109.62054125443289</v>
       </c>
       <c r="E2">
-        <v>88.834778052720083</v>
+        <v>73.303930391316314</v>
       </c>
       <c r="F2">
-        <v>18.66219546543724</v>
+        <v>12.404481687243241</v>
       </c>
       <c r="G2">
-        <v>4.303256037039179</v>
+        <v>2.173386252825507</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -3754,22 +3751,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>25.787466054777571</v>
+        <v>20.859567472672861</v>
       </c>
       <c r="C3">
-        <v>19.16955000557337</v>
+        <v>20.799302341668721</v>
       </c>
       <c r="D3">
-        <v>17.837727452659351</v>
+        <v>21.139281716039211</v>
       </c>
       <c r="E3">
-        <v>17.3330401416057</v>
+        <v>17.008083961310621</v>
       </c>
       <c r="F3">
-        <v>7.202330583971456</v>
+        <v>4.9545893912998622</v>
       </c>
       <c r="G3">
-        <v>1.8907853926446669</v>
+        <v>1.3715405603838871</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -3777,22 +3774,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.375497920466039</v>
+        <v>18.86726384625236</v>
       </c>
       <c r="C4">
-        <v>17.304012336734139</v>
+        <v>18.9758030233215</v>
       </c>
       <c r="D4">
-        <v>19.76756853083522</v>
+        <v>17.610814485026619</v>
       </c>
       <c r="E4">
-        <v>10.440543409297421</v>
+        <v>16.675008393444191</v>
       </c>
       <c r="F4">
-        <v>4.7560315004553484</v>
+        <v>3.0806205415802039</v>
       </c>
       <c r="G4">
-        <v>0.92709737014248295</v>
+        <v>0.99655783900272821</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -3800,22 +3797,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.02538915741485</v>
+        <v>18.543876018202528</v>
       </c>
       <c r="C5">
-        <v>13.832481995514071</v>
+        <v>16.546713633932601</v>
       </c>
       <c r="D5">
-        <v>11.56591575360914</v>
+        <v>11.3917600205402</v>
       </c>
       <c r="E5">
-        <v>8.2517748672760636</v>
+        <v>9.9295589068504189</v>
       </c>
       <c r="F5">
-        <v>2.5889757284905719</v>
+        <v>2.0447487878038149</v>
       </c>
       <c r="G5">
-        <v>0.86576453926895347</v>
+        <v>0.78680952631138557</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -3823,45 +3820,45 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.955331650544645</v>
+        <v>6.8222194146261552</v>
       </c>
       <c r="C6">
-        <v>4.8803805539380454</v>
+        <v>4.3376446135084574</v>
       </c>
       <c r="D6">
-        <v>2.9425492008373428</v>
+        <v>3.2353901147742952</v>
       </c>
       <c r="E6">
-        <v>4.458567282045621</v>
+        <v>1.8559608000100629</v>
       </c>
       <c r="F6">
-        <v>0.88253726458018056</v>
+        <v>0.80500364709052319</v>
       </c>
       <c r="G6">
-        <v>1.605563142203916</v>
+        <v>0.79214729411010854</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>1.839749104614514</v>
+        <v>1.3435101413032879</v>
       </c>
       <c r="C7">
-        <v>1.054437496241768</v>
+        <v>1.235857460419556</v>
       </c>
       <c r="D7">
-        <v>1.2230358216498809</v>
+        <v>0.812047105310299</v>
       </c>
       <c r="E7">
-        <v>0.90942518523548821</v>
+        <v>0.74498154725783317</v>
       </c>
       <c r="F7">
-        <v>1.008556483053086</v>
+        <v>0.81472998818141729</v>
       </c>
       <c r="G7">
-        <v>0.5560948246734525</v>
+        <v>0.53149571727619771</v>
       </c>
     </row>
   </sheetData>
@@ -3894,7 +3891,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -3902,22 +3899,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>131.93879865677891</v>
+        <v>112.3397689718948</v>
       </c>
       <c r="C2">
-        <v>97.563415636506079</v>
+        <v>110.4811174119876</v>
       </c>
       <c r="D2">
-        <v>91.689010497093534</v>
+        <v>91.860397715790072</v>
       </c>
       <c r="E2">
-        <v>78.184917809972575</v>
+        <v>83.013878949168969</v>
       </c>
       <c r="F2">
-        <v>34.00774375667153</v>
+        <v>24.70833300047298</v>
       </c>
       <c r="G2">
-        <v>3.94307077590071</v>
+        <v>3.725220272143424</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -3925,22 +3922,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.639329353784809</v>
+        <v>16.57256069372087</v>
       </c>
       <c r="C3">
-        <v>18.22305525254696</v>
+        <v>24.970966998763181</v>
       </c>
       <c r="D3">
-        <v>15.31875002376316</v>
+        <v>15.823952793142739</v>
       </c>
       <c r="E3">
-        <v>14.103743321005609</v>
+        <v>16.777515982423608</v>
       </c>
       <c r="F3">
-        <v>9.778292575916101</v>
+        <v>8.1893871029299028</v>
       </c>
       <c r="G3">
-        <v>1.8709628095882049</v>
+        <v>2.1072928767829389</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -3948,22 +3945,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.6623806638909</v>
+        <v>19.182225444505448</v>
       </c>
       <c r="C4">
-        <v>15.659132314185999</v>
+        <v>21.384229086716712</v>
       </c>
       <c r="D4">
-        <v>23.26420106715409</v>
+        <v>17.942335128731461</v>
       </c>
       <c r="E4">
-        <v>11.35755232881068</v>
+        <v>13.75873621621438</v>
       </c>
       <c r="F4">
-        <v>5.4294604771381891</v>
+        <v>4.4463787725851276</v>
       </c>
       <c r="G4">
-        <v>1.400977325881557</v>
+        <v>1.6240910436426259</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -3971,22 +3968,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.128268286759241</v>
+        <v>14.719225958387391</v>
       </c>
       <c r="C5">
-        <v>13.729880895022101</v>
+        <v>13.873488138156469</v>
       </c>
       <c r="D5">
-        <v>12.092338805538001</v>
+        <v>15.154286272457391</v>
       </c>
       <c r="E5">
-        <v>9.7039056585190142</v>
+        <v>11.06397160736241</v>
       </c>
       <c r="F5">
-        <v>3.4069317588747041</v>
+        <v>2.87915736735077</v>
       </c>
       <c r="G5">
-        <v>1.147698247898042</v>
+        <v>1.347315694559146</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -3994,45 +3991,45 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.8840629404326004</v>
+        <v>7.6251459351459188</v>
       </c>
       <c r="C6">
-        <v>6.4959383786313731</v>
+        <v>4.9961208937505779</v>
       </c>
       <c r="D6">
-        <v>3.786026264016503</v>
+        <v>3.9391270928425279</v>
       </c>
       <c r="E6">
-        <v>2.5547074215312979</v>
+        <v>2.5140398677431688</v>
       </c>
       <c r="F6">
-        <v>1.19763778806611</v>
+        <v>1.279741476694517</v>
       </c>
       <c r="G6">
-        <v>1.753296131853844</v>
+        <v>1.3680663931449011</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>2.1793484798113099</v>
+        <v>1.8443715481952641</v>
       </c>
       <c r="C7">
-        <v>1.59938610524367</v>
+        <v>1.70287292022493</v>
       </c>
       <c r="D7">
-        <v>1.6552273799885859</v>
+        <v>1.205883191616625</v>
       </c>
       <c r="E7">
-        <v>1.2884996065187999</v>
+        <v>1.155551760757306</v>
       </c>
       <c r="F7">
-        <v>1.61820256902876</v>
+        <v>1.369772173312406</v>
       </c>
       <c r="G7">
-        <v>0.59757219517863103</v>
+        <v>0.5809498129579751</v>
       </c>
     </row>
   </sheetData>
@@ -4065,7 +4062,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -4073,22 +4070,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>153.90206527506771</v>
+        <v>94.043805534329238</v>
       </c>
       <c r="C2">
-        <v>102.77348702322151</v>
+        <v>96.041777193844339</v>
       </c>
       <c r="D2">
-        <v>106.2433701381002</v>
+        <v>107.2844058400577</v>
       </c>
       <c r="E2">
-        <v>82.599984168820797</v>
+        <v>68.39905871979046</v>
       </c>
       <c r="F2">
-        <v>14.102032919872279</v>
+        <v>11.241627800282849</v>
       </c>
       <c r="G2">
-        <v>3.1000344121104741</v>
+        <v>2.1250774233704521</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -4096,22 +4093,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.82890111697791</v>
+        <v>14.33983079633397</v>
       </c>
       <c r="C3">
-        <v>14.25348359688584</v>
+        <v>16.007067127328028</v>
       </c>
       <c r="D3">
-        <v>11.983992546164311</v>
+        <v>14.27265048981319</v>
       </c>
       <c r="E3">
-        <v>10.48111860521408</v>
+        <v>12.61496083233501</v>
       </c>
       <c r="F3">
-        <v>3.9968880449118558</v>
+        <v>4.1165730694706637</v>
       </c>
       <c r="G3">
-        <v>1.4659911757799511</v>
+        <v>1.3015009951022021</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -4119,22 +4116,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.11037214783985</v>
+        <v>13.58771744497132</v>
       </c>
       <c r="C4">
-        <v>11.86443686646521</v>
+        <v>14.692226244594901</v>
       </c>
       <c r="D4">
-        <v>10.703405330692901</v>
+        <v>10.550162041697259</v>
       </c>
       <c r="E4">
-        <v>8.1012648813237877</v>
+        <v>9.4383998473375286</v>
       </c>
       <c r="F4">
-        <v>2.6148562009325058</v>
+        <v>3.0141217368665312</v>
       </c>
       <c r="G4">
-        <v>0.94660872593749346</v>
+        <v>1.002470989548635</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -4142,22 +4139,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.25658890189224</v>
+        <v>13.17405419152022</v>
       </c>
       <c r="C5">
-        <v>12.318384639382639</v>
+        <v>13.975221110755189</v>
       </c>
       <c r="D5">
-        <v>8.6010052028375572</v>
+        <v>9.6670604500599833</v>
       </c>
       <c r="E5">
-        <v>6.991109813145381</v>
+        <v>8.6430625334306033</v>
       </c>
       <c r="F5">
-        <v>1.7285073289936621</v>
+        <v>1.658837855373152</v>
       </c>
       <c r="G5">
-        <v>0.83528632015460891</v>
+        <v>0.81535620929528108</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -4165,45 +4162,45 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.5964146658092764</v>
+        <v>5.2328142038496717</v>
       </c>
       <c r="C6">
-        <v>4.1148788354016084</v>
+        <v>3.5353642855891638</v>
       </c>
       <c r="D6">
-        <v>3.3462207534496651</v>
+        <v>2.3118497213457418</v>
       </c>
       <c r="E6">
-        <v>1.6088432602960741</v>
+        <v>1.6387628172449451</v>
       </c>
       <c r="F6">
-        <v>0.79830263034598314</v>
+        <v>0.90931711549816208</v>
       </c>
       <c r="G6">
-        <v>0.99195809257112377</v>
+        <v>0.84277726658396135</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>1.800271949003476</v>
+        <v>1.238102166081769</v>
       </c>
       <c r="C7">
-        <v>1.3488057717455151</v>
+        <v>0.99390803736162514</v>
       </c>
       <c r="D7">
-        <v>1.0156960704187159</v>
+        <v>0.82775753182884726</v>
       </c>
       <c r="E7">
-        <v>0.71026645945577094</v>
+        <v>0.71796249160371717</v>
       </c>
       <c r="F7">
-        <v>1.0268872189989411</v>
+        <v>0.79698304229809391</v>
       </c>
       <c r="G7">
-        <v>0.5647878574187688</v>
+        <v>0.54755315186550779</v>
       </c>
     </row>
   </sheetData>
@@ -4236,7 +4233,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -4244,22 +4241,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.838025471909849</v>
+        <v>3.166946365032961</v>
       </c>
       <c r="C2">
-        <v>3.53751812694503</v>
+        <v>4.2497959014766957</v>
       </c>
       <c r="D2">
-        <v>4.8315884556062896</v>
+        <v>4.088308747115736</v>
       </c>
       <c r="E2">
-        <v>3.4640283617201351</v>
+        <v>3.1291985844595041</v>
       </c>
       <c r="F2">
-        <v>4.4345125155313427</v>
+        <v>3.137605109846243</v>
       </c>
       <c r="G2">
-        <v>6.197640372635143</v>
+        <v>3.5314925666975698</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -4267,22 +4264,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.387659741343275</v>
+        <v>3.0202240761208099</v>
       </c>
       <c r="C3">
-        <v>4.4368500566195852</v>
+        <v>2.8298149905285821</v>
       </c>
       <c r="D3">
-        <v>4.3920254241927594</v>
+        <v>2.9231497620672791</v>
       </c>
       <c r="E3">
-        <v>4.85556061679448</v>
+        <v>3.2005171700741322</v>
       </c>
       <c r="F3">
-        <v>4.5188234697377334</v>
+        <v>3.1026212013830001</v>
       </c>
       <c r="G3">
-        <v>3.8341121968477552</v>
+        <v>3.119107834798144</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -4290,22 +4287,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.3406161911139378</v>
+        <v>3.4333480040807789</v>
       </c>
       <c r="C4">
-        <v>4.5260684439793071</v>
+        <v>3.122487355262352</v>
       </c>
       <c r="D4">
-        <v>5.0256374228826912</v>
+        <v>3.1387525624620221</v>
       </c>
       <c r="E4">
-        <v>4.7349972653668928</v>
+        <v>2.8405729067254311</v>
       </c>
       <c r="F4">
-        <v>3.62211027330375</v>
+        <v>3.3542960606584562</v>
       </c>
       <c r="G4">
-        <v>3.1659791862301438</v>
+        <v>3.1822532868132489</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -4313,22 +4310,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.9664522203307442</v>
+        <v>2.723150516419647</v>
       </c>
       <c r="C5">
-        <v>5.4184022011455149</v>
+        <v>2.6693924630383719</v>
       </c>
       <c r="D5">
-        <v>3.311682440313461</v>
+        <v>2.521599096204028</v>
       </c>
       <c r="E5">
-        <v>4.983977973041088</v>
+        <v>2.608247620084688</v>
       </c>
       <c r="F5">
-        <v>3.798012578209375</v>
+        <v>3.0380128559674242</v>
       </c>
       <c r="G5">
-        <v>4.0524653323944637</v>
+        <v>3.0039533461261212</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -4336,45 +4333,45 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.149037504350964</v>
+        <v>1.1799794549955931</v>
       </c>
       <c r="C6">
-        <v>1.247841501828449</v>
+        <v>1.312980467988988</v>
       </c>
       <c r="D6">
-        <v>1.5472781136902789</v>
+        <v>1.188559406028463</v>
       </c>
       <c r="E6">
-        <v>1.433079199892241</v>
+        <v>1.367342355273433</v>
       </c>
       <c r="F6">
-        <v>1.430959750303282</v>
+        <v>1.5075074260634851</v>
       </c>
       <c r="G6">
-        <v>1.628360225257458</v>
+        <v>1.339302788485611</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>1.644613632424641</v>
+        <v>0.92857410167716581</v>
       </c>
       <c r="C7">
-        <v>1.0724532392308641</v>
+        <v>1.040526779215174</v>
       </c>
       <c r="D7">
-        <v>1.334555028640237</v>
+        <v>1.1583143234005639</v>
       </c>
       <c r="E7">
-        <v>1.1832337422239469</v>
+        <v>0.94598244790813357</v>
       </c>
       <c r="F7">
-        <v>1.673051022841582</v>
+        <v>1.004874120034722</v>
       </c>
       <c r="G7">
-        <v>2.3945537632836018</v>
+        <v>0.98356147527707538</v>
       </c>
     </row>
   </sheetData>
@@ -4407,7 +4404,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -4415,22 +4412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>179.70209812276471</v>
+        <v>105.9562904808825</v>
       </c>
       <c r="C2">
-        <v>99.715047694782314</v>
+        <v>134.05929864823301</v>
       </c>
       <c r="D2">
-        <v>119.0258707980169</v>
+        <v>111.1551122456508</v>
       </c>
       <c r="E2">
-        <v>100.19694698559201</v>
+        <v>89.399380360598968</v>
       </c>
       <c r="F2">
-        <v>24.907719808123399</v>
+        <v>20.810468594990951</v>
       </c>
       <c r="G2">
-        <v>3.6847659687882199</v>
+        <v>4.0258530419092233</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -4438,22 +4435,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.276051828440099</v>
+        <v>15.32667834938281</v>
       </c>
       <c r="C3">
-        <v>11.8598517129765</v>
+        <v>13.94811750377727</v>
       </c>
       <c r="D3">
-        <v>11.32422644706544</v>
+        <v>12.83880384739817</v>
       </c>
       <c r="E3">
-        <v>10.33762211479335</v>
+        <v>15.48378905166652</v>
       </c>
       <c r="F3">
-        <v>5.7293315721089222</v>
+        <v>6.1631397997953741</v>
       </c>
       <c r="G3">
-        <v>2.473231567707137</v>
+        <v>2.1685104486878419</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -4461,22 +4458,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.25008545100906</v>
+        <v>14.6892837482277</v>
       </c>
       <c r="C4">
-        <v>11.43485178295829</v>
+        <v>15.25677522640995</v>
       </c>
       <c r="D4">
-        <v>12.367119209883381</v>
+        <v>11.350174568816801</v>
       </c>
       <c r="E4">
-        <v>9.2918207064756029</v>
+        <v>12.43025507976475</v>
       </c>
       <c r="F4">
-        <v>3.736590587288799</v>
+        <v>4.2421463721655952</v>
       </c>
       <c r="G4">
-        <v>1.5616550819374511</v>
+        <v>1.643820402920579</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -4484,22 +4481,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.09991201848484</v>
+        <v>10.8994241305119</v>
       </c>
       <c r="C5">
-        <v>12.581913375187611</v>
+        <v>10.716781378972991</v>
       </c>
       <c r="D5">
-        <v>9.3928806453095266</v>
+        <v>10.779318883427621</v>
       </c>
       <c r="E5">
-        <v>8.1751294125332326</v>
+        <v>9.1459780394018502</v>
       </c>
       <c r="F5">
-        <v>2.1759589108014832</v>
+        <v>2.585770423282951</v>
       </c>
       <c r="G5">
-        <v>1.238657009271352</v>
+        <v>1.306683570126175</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -4507,45 +4504,45 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.3804055990209871</v>
+        <v>5.9710628867993227</v>
       </c>
       <c r="C6">
-        <v>5.3884188467517529</v>
+        <v>4.5934058444904782</v>
       </c>
       <c r="D6">
-        <v>4.3575396876487922</v>
+        <v>3.4944228928348071</v>
       </c>
       <c r="E6">
-        <v>2.3700117551822188</v>
+        <v>2.4036003566224871</v>
       </c>
       <c r="F6">
-        <v>1.1057720843372481</v>
+        <v>1.3150305684738119</v>
       </c>
       <c r="G6">
-        <v>1.4877590351476759</v>
+        <v>1.3092281589398189</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>1.489730852495732</v>
+        <v>1.367127831756888</v>
       </c>
       <c r="C7">
-        <v>1.31503356438474</v>
+        <v>1.436322272127371</v>
       </c>
       <c r="D7">
-        <v>1.2006601386339111</v>
+        <v>1.211277766358029</v>
       </c>
       <c r="E7">
-        <v>1.3742611139107379</v>
+        <v>1.1702175107235111</v>
       </c>
       <c r="F7">
-        <v>1.547803783421257</v>
+        <v>1.2561019162190841</v>
       </c>
       <c r="G7">
-        <v>0.63419111437595388</v>
+        <v>0.59266881626995116</v>
       </c>
     </row>
   </sheetData>
@@ -4578,7 +4575,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -4586,22 +4583,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>73.366285347890241</v>
+        <v>46.528974503288019</v>
       </c>
       <c r="C2">
-        <v>57.512006650313893</v>
+        <v>52.069713084037389</v>
       </c>
       <c r="D2">
-        <v>44.754427982848561</v>
+        <v>51.936954392221942</v>
       </c>
       <c r="E2">
-        <v>45.334097611763852</v>
+        <v>50.288293825869381</v>
       </c>
       <c r="F2">
-        <v>62.105120055401322</v>
+        <v>54.590441863319853</v>
       </c>
       <c r="G2">
-        <v>31.3077598788513</v>
+        <v>33.944660738504169</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -4609,22 +4606,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>33.742619323042433</v>
+        <v>40.202460415538361</v>
       </c>
       <c r="C3">
-        <v>25.915021591998158</v>
+        <v>39.632910704042047</v>
       </c>
       <c r="D3">
-        <v>46.800731143265473</v>
+        <v>49.090776950039199</v>
       </c>
       <c r="E3">
-        <v>28.434812731724008</v>
+        <v>40.884161519084493</v>
       </c>
       <c r="F3">
-        <v>63.977572701659703</v>
+        <v>36.158277415164306</v>
       </c>
       <c r="G3">
-        <v>48.686477780240331</v>
+        <v>21.85204376423637</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -4632,22 +4629,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>79.034601416527352</v>
+        <v>33.582193807611951</v>
       </c>
       <c r="C4">
-        <v>64.249382170707534</v>
+        <v>29.90424490009616</v>
       </c>
       <c r="D4">
-        <v>41.829230127783333</v>
+        <v>24.602294913225141</v>
       </c>
       <c r="E4">
-        <v>41.495385684340363</v>
+        <v>28.429396497475491</v>
       </c>
       <c r="F4">
-        <v>37.372020171580488</v>
+        <v>26.20231917677177</v>
       </c>
       <c r="G4">
-        <v>48.320001887325887</v>
+        <v>20.731790281726099</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -4655,22 +4652,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>34.168560206406212</v>
+        <v>25.47693910117875</v>
       </c>
       <c r="C5">
-        <v>30.816623026862789</v>
+        <v>27.567047853682929</v>
       </c>
       <c r="D5">
-        <v>27.38542970145286</v>
+        <v>31.324011454304401</v>
       </c>
       <c r="E5">
-        <v>32.699775008714951</v>
+        <v>31.056782036515092</v>
       </c>
       <c r="F5">
-        <v>26.05823123823053</v>
+        <v>24.809041475344628</v>
       </c>
       <c r="G5">
-        <v>35.940655640341177</v>
+        <v>15.610733109049679</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -4678,45 +4675,45 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.4379205328531022</v>
+        <v>7.2434467225768833</v>
       </c>
       <c r="C6">
-        <v>16.544484825081259</v>
+        <v>8.4816264776355421</v>
       </c>
       <c r="D6">
-        <v>17.777511647682701</v>
+        <v>8.6905568276833769</v>
       </c>
       <c r="E6">
-        <v>10.600471531507621</v>
+        <v>6.4127851416142887</v>
       </c>
       <c r="F6">
-        <v>12.75994532319163</v>
+        <v>6.1318347349792282</v>
       </c>
       <c r="G6">
-        <v>10.850483636062201</v>
+        <v>7.232509229237392</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>3.0607249857647481</v>
+        <v>1.821962112349409</v>
       </c>
       <c r="C7">
-        <v>2.394101719848615</v>
+        <v>2.1079384968324968</v>
       </c>
       <c r="D7">
-        <v>2.3587088919453172</v>
+        <v>1.783525017387678</v>
       </c>
       <c r="E7">
-        <v>1.9789409552702719</v>
+        <v>1.675994308205236</v>
       </c>
       <c r="F7">
-        <v>2.5211621711170422</v>
+        <v>1.8639180138075191</v>
       </c>
       <c r="G7">
-        <v>2.6957549632307569</v>
+        <v>1.7364218547172161</v>
       </c>
     </row>
   </sheetData>
@@ -4749,7 +4746,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -4757,22 +4754,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.5794951909773403</v>
+        <v>6.3224731811840824</v>
       </c>
       <c r="C2">
-        <v>6.827537830335821</v>
+        <v>6.1510811035718014</v>
       </c>
       <c r="D2">
-        <v>7.7782946644769657</v>
+        <v>6.3602386892778746</v>
       </c>
       <c r="E2">
-        <v>4.800075898561782</v>
+        <v>6.2080611621046522</v>
       </c>
       <c r="F2">
-        <v>8.8304807347426539</v>
+        <v>5.4273493446299046</v>
       </c>
       <c r="G2">
-        <v>4.047265697653061</v>
+        <v>3.1601794942758041</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -4780,22 +4777,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.3398108208996748</v>
+        <v>3.5394780144060189</v>
       </c>
       <c r="C3">
-        <v>3.3411778842359099</v>
+        <v>5.8644737995047098</v>
       </c>
       <c r="D3">
-        <v>6.2640899479671024</v>
+        <v>5.9747655081164188</v>
       </c>
       <c r="E3">
-        <v>5.2645686921230057</v>
+        <v>5.6717029677250759</v>
       </c>
       <c r="F3">
-        <v>6.4983496378455241</v>
+        <v>3.7588314199403481</v>
       </c>
       <c r="G3">
-        <v>6.7573573129644453</v>
+        <v>3.6636888581355871</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -4803,22 +4800,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.0133958733495891</v>
+        <v>4.2787344314982034</v>
       </c>
       <c r="C4">
-        <v>4.0860288185654881</v>
+        <v>5.3292071834969352</v>
       </c>
       <c r="D4">
-        <v>3.4848951328678441</v>
+        <v>4.8446884999105064</v>
       </c>
       <c r="E4">
-        <v>6.4079161813099326</v>
+        <v>5.0699402244345793</v>
       </c>
       <c r="F4">
-        <v>6.301725460940542</v>
+        <v>4.0415053134092176</v>
       </c>
       <c r="G4">
-        <v>6.9396600009653451</v>
+        <v>3.2258851582114429</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -4826,22 +4823,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.6517653107433699</v>
+        <v>5.0941318612265114</v>
       </c>
       <c r="C5">
-        <v>5.8499356454306044</v>
+        <v>5.1011202598660788</v>
       </c>
       <c r="D5">
-        <v>3.604603480428175</v>
+        <v>5.0129579095046379</v>
       </c>
       <c r="E5">
-        <v>6.4560711263934856</v>
+        <v>3.684666670278065</v>
       </c>
       <c r="F5">
-        <v>5.2031118996058749</v>
+        <v>2.4942820458348671</v>
       </c>
       <c r="G5">
-        <v>5.2622071378649977</v>
+        <v>3.0632300075011698</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -4849,45 +4846,45 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.8499520085887422</v>
+        <v>4.4686965241445726</v>
       </c>
       <c r="C6">
-        <v>6.3709505338539172</v>
+        <v>2.581752868843564</v>
       </c>
       <c r="D6">
-        <v>8.2239390723747796</v>
+        <v>2.6119459910183509</v>
       </c>
       <c r="E6">
-        <v>7.4976341094871346</v>
+        <v>2.6956830063499702</v>
       </c>
       <c r="F6">
-        <v>6.618856462290446</v>
+        <v>3.083898135527825</v>
       </c>
       <c r="G6">
-        <v>6.0482838691302003</v>
+        <v>2.861559343502929</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>1.830427686027327</v>
+        <v>1.747384195489428</v>
       </c>
       <c r="C7">
-        <v>1.9504172553732559</v>
+        <v>1.9069925954794971</v>
       </c>
       <c r="D7">
-        <v>2.2750590167579299</v>
+        <v>2.106703452706832</v>
       </c>
       <c r="E7">
-        <v>1.7290111431671049</v>
+        <v>1.944011717332303</v>
       </c>
       <c r="F7">
-        <v>2.3443889016825432</v>
+        <v>2.1281523307733439</v>
       </c>
       <c r="G7">
-        <v>2.2812971249003602</v>
+        <v>1.981854663494198</v>
       </c>
     </row>
   </sheetData>
@@ -4920,7 +4917,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -4928,22 +4925,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>66.94580235647669</v>
+        <v>36.349583437409187</v>
       </c>
       <c r="C2">
-        <v>36.527247285090453</v>
+        <v>45.590871082190802</v>
       </c>
       <c r="D2">
-        <v>64.30969345774389</v>
+        <v>35.360979987305967</v>
       </c>
       <c r="E2">
-        <v>22.582184923919549</v>
+        <v>26.981033727177479</v>
       </c>
       <c r="F2">
-        <v>17.98221280830526</v>
+        <v>6.9595292050806048</v>
       </c>
       <c r="G2">
-        <v>2.6176876039563468</v>
+        <v>1.8615454995424741</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -4951,22 +4948,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.642177956856571</v>
+        <v>28.62326700012542</v>
       </c>
       <c r="C3">
-        <v>17.205748129796401</v>
+        <v>22.443404389657559</v>
       </c>
       <c r="D3">
-        <v>18.998166828761281</v>
+        <v>17.166733651481859</v>
       </c>
       <c r="E3">
-        <v>15.903989041160861</v>
+        <v>10.101505125393629</v>
       </c>
       <c r="F3">
-        <v>9.7760077770340246</v>
+        <v>2.484003797542635</v>
       </c>
       <c r="G3">
-        <v>1.200631364936434</v>
+        <v>1.2857255486348509</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -4974,22 +4971,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.67428689374707</v>
+        <v>20.323653356511091</v>
       </c>
       <c r="C4">
-        <v>26.73880312682294</v>
+        <v>20.785104325957349</v>
       </c>
       <c r="D4">
-        <v>13.315682714140021</v>
+        <v>12.836512544545791</v>
       </c>
       <c r="E4">
-        <v>10.577941182096531</v>
+        <v>7.0330742958470767</v>
       </c>
       <c r="F4">
-        <v>4.8141260661754659</v>
+        <v>1.5901700989062231</v>
       </c>
       <c r="G4">
-        <v>1.415092946719932</v>
+        <v>1.1186584280403491</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -4997,22 +4994,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.685006161169969</v>
+        <v>13.383606943870319</v>
       </c>
       <c r="C5">
-        <v>9.8523031154061176</v>
+        <v>12.64222259682303</v>
       </c>
       <c r="D5">
-        <v>9.6079229808665154</v>
+        <v>8.1363741361356379</v>
       </c>
       <c r="E5">
-        <v>11.15766975916508</v>
+        <v>7.4244101403570557</v>
       </c>
       <c r="F5">
-        <v>1.82810452923806</v>
+        <v>1.5023900017425069</v>
       </c>
       <c r="G5">
-        <v>1.2780091792584201</v>
+        <v>1.018628572717303</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -5020,45 +5017,45 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.6349717674002067</v>
+        <v>3.746422668598568</v>
       </c>
       <c r="C6">
-        <v>6.9521490275112887</v>
+        <v>1.825651832037378</v>
       </c>
       <c r="D6">
-        <v>3.4740828324875408</v>
+        <v>1.544347411880479</v>
       </c>
       <c r="E6">
-        <v>1.353825172238871</v>
+        <v>1.2038030481291011</v>
       </c>
       <c r="F6">
-        <v>1.137026498882667</v>
+        <v>1.050857515742271</v>
       </c>
       <c r="G6">
-        <v>0.75347476127120361</v>
+        <v>0.68983126903110714</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>0.98610038325799521</v>
+        <v>0.92362600018732421</v>
       </c>
       <c r="C7">
-        <v>1.3926975977148719</v>
+        <v>1.078762736573585</v>
       </c>
       <c r="D7">
-        <v>0.98476585981680509</v>
+        <v>0.95538592274144873</v>
       </c>
       <c r="E7">
-        <v>0.94745134356874217</v>
+        <v>0.97344832872848752</v>
       </c>
       <c r="F7">
-        <v>0.79533710166733718</v>
+        <v>0.72585414595733089</v>
       </c>
       <c r="G7">
-        <v>0.26293310074527482</v>
+        <v>0.2453901366455602</v>
       </c>
     </row>
   </sheetData>
@@ -5091,7 +5088,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -5099,22 +5096,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.7445819470066617</v>
+        <v>4.2076589461705822</v>
       </c>
       <c r="C2">
-        <v>4.2246272351048306</v>
+        <v>2.9009231946445531</v>
       </c>
       <c r="D2">
-        <v>8.5053982878587586</v>
+        <v>3.2597007556106652</v>
       </c>
       <c r="E2">
-        <v>4.3662374026687258</v>
+        <v>3.2360334678282721</v>
       </c>
       <c r="F2">
-        <v>8.9787575496428573</v>
+        <v>2.6517388180766779</v>
       </c>
       <c r="G2">
-        <v>2.177156275113953</v>
+        <v>1.768730237526525</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -5122,22 +5119,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.1662699980349172</v>
+        <v>3.9936459951570562</v>
       </c>
       <c r="C3">
-        <v>3.123493784461274</v>
+        <v>2.7936454433462572</v>
       </c>
       <c r="D3">
-        <v>6.4013441207361303</v>
+        <v>2.6950436557497661</v>
       </c>
       <c r="E3">
-        <v>3.1263362011657598</v>
+        <v>2.4316912872011711</v>
       </c>
       <c r="F3">
-        <v>6.6128089648381136</v>
+        <v>2.009611711757052</v>
       </c>
       <c r="G3">
-        <v>1.5133008528284191</v>
+        <v>1.2974541308470151</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -5145,22 +5142,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.8528693952917026</v>
+        <v>3.656438664322796</v>
       </c>
       <c r="C4">
-        <v>4.9574113360706589</v>
+        <v>4.2158000212046964</v>
       </c>
       <c r="D4">
-        <v>2.8320438342621821</v>
+        <v>3.998196714470875</v>
       </c>
       <c r="E4">
-        <v>3.4090800277120881</v>
+        <v>2.8968171364761361</v>
       </c>
       <c r="F4">
-        <v>5.3520583247613267</v>
+        <v>1.620129527863529</v>
       </c>
       <c r="G4">
-        <v>1.3469501576407441</v>
+        <v>1.133433987695381</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -5168,22 +5165,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.0799715594065038</v>
+        <v>4.3004696170134862</v>
       </c>
       <c r="C5">
-        <v>3.24194714187519</v>
+        <v>2.1971509400832971</v>
       </c>
       <c r="D5">
-        <v>2.5825987912814412</v>
+        <v>2.1806432297883549</v>
       </c>
       <c r="E5">
-        <v>5.4740089804876</v>
+        <v>2.34528945692584</v>
       </c>
       <c r="F5">
-        <v>1.525097426643812</v>
+        <v>1.575685734382251</v>
       </c>
       <c r="G5">
-        <v>1.0903171122627371</v>
+        <v>1.0319851623611509</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -5191,45 +5188,45 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.5389370805807139</v>
+        <v>1.705881044967938</v>
       </c>
       <c r="C6">
-        <v>4.2316760328403227</v>
+        <v>1.675831013524282</v>
       </c>
       <c r="D6">
-        <v>3.2493995905627751</v>
+        <v>1.666785760561492</v>
       </c>
       <c r="E6">
-        <v>1.2490593776470429</v>
+        <v>1.280361038500796</v>
       </c>
       <c r="F6">
-        <v>0.97824427644857115</v>
+        <v>1.036062689406589</v>
       </c>
       <c r="G6">
-        <v>0.85866937992496528</v>
+        <v>0.7832716929998168</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>1.2757643068480189</v>
+        <v>0.980859803403484</v>
       </c>
       <c r="C7">
-        <v>1.059032816619597</v>
+        <v>1.119032805300848</v>
       </c>
       <c r="D7">
-        <v>1.1314962215840509</v>
+        <v>1.0464241065945761</v>
       </c>
       <c r="E7">
-        <v>0.96540444147402349</v>
+        <v>0.95464714963952002</v>
       </c>
       <c r="F7">
-        <v>0.82117023418840429</v>
+        <v>0.79823457349296012</v>
       </c>
       <c r="G7">
-        <v>0.35240452423850138</v>
+        <v>0.34645379378218771</v>
       </c>
     </row>
   </sheetData>
@@ -5262,7 +5259,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -5270,22 +5267,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>54.195077345050237</v>
+        <v>36.551861974360911</v>
       </c>
       <c r="C2">
-        <v>25.095855061503869</v>
+        <v>22.95512997201708</v>
       </c>
       <c r="D2">
-        <v>61.266284941668133</v>
+        <v>17.88807410209937</v>
       </c>
       <c r="E2">
-        <v>21.955883077731631</v>
+        <v>15.452940023795341</v>
       </c>
       <c r="F2">
-        <v>18.20306968180001</v>
+        <v>4.4603488601841788</v>
       </c>
       <c r="G2">
-        <v>2.3028850150064271</v>
+        <v>1.9397524157035251</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -5293,22 +5290,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>28.602504325114161</v>
+        <v>18.47726877084235</v>
       </c>
       <c r="C3">
-        <v>34.999374445651263</v>
+        <v>10.75474450836944</v>
       </c>
       <c r="D3">
-        <v>22.258369230475971</v>
+        <v>9.891267021714123</v>
       </c>
       <c r="E3">
-        <v>20.041991041384129</v>
+        <v>8.1322121255566273</v>
       </c>
       <c r="F3">
-        <v>7.353938950380571</v>
+        <v>2.215279956854165</v>
       </c>
       <c r="G3">
-        <v>1.500575177555556</v>
+        <v>1.134637784921688</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -5316,22 +5313,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>29.97781174442931</v>
+        <v>14.931215088847029</v>
       </c>
       <c r="C4">
-        <v>36.154702485012962</v>
+        <v>12.417031299233869</v>
       </c>
       <c r="D4">
-        <v>21.14237319176079</v>
+        <v>12.647496078418779</v>
       </c>
       <c r="E4">
-        <v>18.25695682367645</v>
+        <v>11.248641007011329</v>
       </c>
       <c r="F4">
-        <v>4.556671647845147</v>
+        <v>1.782333250976103</v>
       </c>
       <c r="G4">
-        <v>1.073909104353254</v>
+        <v>0.99003772449187433</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -5339,22 +5336,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>36.541604713410152</v>
+        <v>14.0620173384544</v>
       </c>
       <c r="C5">
-        <v>30.573814741853969</v>
+        <v>12.07907984372612</v>
       </c>
       <c r="D5">
-        <v>28.114834675782649</v>
+        <v>9.7782433822468775</v>
       </c>
       <c r="E5">
-        <v>13.20161721177211</v>
+        <v>6.4048931193002554</v>
       </c>
       <c r="F5">
-        <v>1.7724740238912271</v>
+        <v>2.317734922904374</v>
       </c>
       <c r="G5">
-        <v>0.93876467654374163</v>
+        <v>0.94344983360153578</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -5362,45 +5359,45 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.64829204886766</v>
+        <v>10.365290635640591</v>
       </c>
       <c r="C6">
-        <v>12.20308382074152</v>
+        <v>9.0776303628990025</v>
       </c>
       <c r="D6">
-        <v>9.4703955027645446</v>
+        <v>7.6273054138463134</v>
       </c>
       <c r="E6">
-        <v>5.7784189008943914</v>
+        <v>5.4340734512003754</v>
       </c>
       <c r="F6">
-        <v>1.503692264060581</v>
+        <v>1.510888567771498</v>
       </c>
       <c r="G6">
-        <v>0.78502454788638265</v>
+        <v>0.72928210137603733</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>1.1510747827798991</v>
+        <v>0.87797604103782678</v>
       </c>
       <c r="C7">
-        <v>0.99115477205648816</v>
+        <v>0.92375426699030794</v>
       </c>
       <c r="D7">
-        <v>0.91589265079699667</v>
+        <v>0.87000865601118893</v>
       </c>
       <c r="E7">
-        <v>0.90782723201448556</v>
+        <v>0.83023496695961396</v>
       </c>
       <c r="F7">
-        <v>0.78474642804651495</v>
+        <v>0.72216975280602302</v>
       </c>
       <c r="G7">
-        <v>0.30362911195043929</v>
+        <v>0.28850425888441422</v>
       </c>
     </row>
   </sheetData>
@@ -5433,7 +5430,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -5441,22 +5438,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.4153718989258213</v>
+        <v>3.6099306474221362</v>
       </c>
       <c r="C2">
-        <v>3.8614641892233839</v>
+        <v>3.2028576955421482</v>
       </c>
       <c r="D2">
-        <v>8.6185611230032411</v>
+        <v>3.639138612347415</v>
       </c>
       <c r="E2">
-        <v>5.0917459980429749</v>
+        <v>3.6287239486252858</v>
       </c>
       <c r="F2">
-        <v>7.3650975670331427</v>
+        <v>2.3522821201479451</v>
       </c>
       <c r="G2">
-        <v>1.5448357834652939</v>
+        <v>1.688538559207005</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -5464,22 +5461,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.4560722442220762</v>
+        <v>3.5464846947176651</v>
       </c>
       <c r="C3">
-        <v>7.0322952744915774</v>
+        <v>3.323845714971791</v>
       </c>
       <c r="D3">
-        <v>4.9022217925929032</v>
+        <v>3.3675333224400168</v>
       </c>
       <c r="E3">
-        <v>5.5399808300180107</v>
+        <v>3.0293580663586481</v>
       </c>
       <c r="F3">
-        <v>5.0678560542961071</v>
+        <v>2.2327369725819479</v>
       </c>
       <c r="G3">
-        <v>1.7808709907337921</v>
+        <v>1.4999772294770199</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -5487,22 +5484,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.5401814764381019</v>
+        <v>3.998369334702867</v>
       </c>
       <c r="C4">
-        <v>8.6652450617395029</v>
+        <v>3.6574387185222101</v>
       </c>
       <c r="D4">
-        <v>6.9790579387386744</v>
+        <v>3.7533926748776651</v>
       </c>
       <c r="E4">
-        <v>6.576348123425495</v>
+        <v>3.9023735698424491</v>
       </c>
       <c r="F4">
-        <v>7.4380640437949026</v>
+        <v>2.1141301449514742</v>
       </c>
       <c r="G4">
-        <v>1.4861374958147771</v>
+        <v>1.4948254811892361</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -5510,22 +5507,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.650631726949131</v>
+        <v>5.6995192176245144</v>
       </c>
       <c r="C5">
-        <v>12.4796259041502</v>
+        <v>5.5634755841053574</v>
       </c>
       <c r="D5">
-        <v>10.355347374175739</v>
+        <v>4.9066130584696248</v>
       </c>
       <c r="E5">
-        <v>13.472169959228349</v>
+        <v>5.148864509689969</v>
       </c>
       <c r="F5">
-        <v>2.4612789888160802</v>
+        <v>2.5642898085173358</v>
       </c>
       <c r="G5">
-        <v>1.28524391016463</v>
+        <v>1.325241744806313</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -5533,45 +5530,45 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.65440470195845</v>
+        <v>7.4137785760411967</v>
       </c>
       <c r="C6">
-        <v>7.9243233468149068</v>
+        <v>6.8705641195555067</v>
       </c>
       <c r="D6">
-        <v>7.4813634628195071</v>
+        <v>6.5662485265953734</v>
       </c>
       <c r="E6">
-        <v>5.709059334103971</v>
+        <v>5.3060253008916503</v>
       </c>
       <c r="F6">
-        <v>2.284543838145511</v>
+        <v>2.369969116743059</v>
       </c>
       <c r="G6">
-        <v>1.3443234979828429</v>
+        <v>1.0781966673356891</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>1.373837697167787</v>
+        <v>1.2002402155243941</v>
       </c>
       <c r="C7">
-        <v>1.2888339956673309</v>
+        <v>1.16361349426504</v>
       </c>
       <c r="D7">
-        <v>1.5222764847456529</v>
+        <v>1.162930057985782</v>
       </c>
       <c r="E7">
-        <v>1.386437919716619</v>
+        <v>1.1990617125951211</v>
       </c>
       <c r="F7">
-        <v>0.95428952803248546</v>
+        <v>0.93200361053603309</v>
       </c>
       <c r="G7">
-        <v>0.78493898906134207</v>
+        <v>0.78072361769744758</v>
       </c>
     </row>
   </sheetData>
@@ -5604,7 +5601,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -5612,22 +5609,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>211.49949734564811</v>
+        <v>292.35396584483487</v>
       </c>
       <c r="C2">
-        <v>266.21500991945697</v>
+        <v>244.43364502942319</v>
       </c>
       <c r="D2">
-        <v>292.95143341223098</v>
+        <v>227.93511943929801</v>
       </c>
       <c r="E2">
-        <v>243.93257991972291</v>
+        <v>256.97343863161439</v>
       </c>
       <c r="F2">
-        <v>288.77747607474828</v>
+        <v>293.75216089802342</v>
       </c>
       <c r="G2">
-        <v>220.09735877802589</v>
+        <v>273.65448512950809</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -5635,22 +5632,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>119.64273329653319</v>
+        <v>68.072131854867848</v>
       </c>
       <c r="C3">
-        <v>70.217221315622794</v>
+        <v>86.55248300924184</v>
       </c>
       <c r="D3">
-        <v>69.554222992442106</v>
+        <v>81.113382251364584</v>
       </c>
       <c r="E3">
-        <v>101.639702649027</v>
+        <v>82.607293302854103</v>
       </c>
       <c r="F3">
-        <v>111.07878466367001</v>
+        <v>105.346183527262</v>
       </c>
       <c r="G3">
-        <v>90.933847779274203</v>
+        <v>66.460416150787793</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -5658,22 +5655,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>110.87225404933061</v>
+        <v>68.510445995452628</v>
       </c>
       <c r="C4">
-        <v>114.455001277935</v>
+        <v>68.876040719550318</v>
       </c>
       <c r="D4">
-        <v>63.358968651624707</v>
+        <v>79.330382261455895</v>
       </c>
       <c r="E4">
-        <v>65.023953912911296</v>
+        <v>85.305828843617007</v>
       </c>
       <c r="F4">
-        <v>102.17635699752979</v>
+        <v>71.875590600982491</v>
       </c>
       <c r="G4">
-        <v>66.830745614257054</v>
+        <v>63.548300790669671</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -5681,22 +5678,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>68.940075283877661</v>
+        <v>67.27461499125971</v>
       </c>
       <c r="C5">
-        <v>79.776148037856174</v>
+        <v>59.654471677263487</v>
       </c>
       <c r="D5">
-        <v>60.397200870132842</v>
+        <v>48.288882597543719</v>
       </c>
       <c r="E5">
-        <v>51.48381138471634</v>
+        <v>71.094975416372876</v>
       </c>
       <c r="F5">
-        <v>80.226491801828743</v>
+        <v>77.724845244949663</v>
       </c>
       <c r="G5">
-        <v>57.664922869915003</v>
+        <v>58.794010861151222</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -5704,45 +5701,45 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.826929168853049</v>
+        <v>14.18779094354759</v>
       </c>
       <c r="C6">
-        <v>18.75225274883412</v>
+        <v>16.275258507718771</v>
       </c>
       <c r="D6">
-        <v>22.116835605165779</v>
+        <v>14.31703392485195</v>
       </c>
       <c r="E6">
-        <v>19.450797567696199</v>
+        <v>14.39599974425272</v>
       </c>
       <c r="F6">
-        <v>15.045420990795749</v>
+        <v>14.156132009271939</v>
       </c>
       <c r="G6">
-        <v>30.98228173811798</v>
+        <v>19.2112120192511</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>11.11063136399506</v>
+        <v>3.5265718881101158</v>
       </c>
       <c r="C7">
-        <v>13.80040284821443</v>
+        <v>2.8831725545375062</v>
       </c>
       <c r="D7">
-        <v>11.93435533478492</v>
+        <v>3.7449334841057662</v>
       </c>
       <c r="E7">
-        <v>8.076941479740988</v>
+        <v>2.7385942916110531</v>
       </c>
       <c r="F7">
-        <v>8.2418314309587384</v>
+        <v>3.2562989398392359</v>
       </c>
       <c r="G7">
-        <v>8.8044803132464242</v>
+        <v>3.2091062183027401</v>
       </c>
     </row>
   </sheetData>
@@ -5775,7 +5772,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -5783,22 +5780,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>87.229115849938253</v>
+        <v>83.003527811971068</v>
       </c>
       <c r="C2">
-        <v>72.170536096680692</v>
+        <v>77.987748347541981</v>
       </c>
       <c r="D2">
-        <v>90.99716488252372</v>
+        <v>66.304765273507513</v>
       </c>
       <c r="E2">
-        <v>65.541753896915537</v>
+        <v>78.58890321063987</v>
       </c>
       <c r="F2">
-        <v>84.475284395596617</v>
+        <v>73.388822735614042</v>
       </c>
       <c r="G2">
-        <v>65.81030080291228</v>
+        <v>73.462938984309915</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -5806,22 +5803,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>66.370229608056789</v>
+        <v>50.54741954359887</v>
       </c>
       <c r="C3">
-        <v>41.458656817741513</v>
+        <v>49.016961011641499</v>
       </c>
       <c r="D3">
-        <v>42.761825390397227</v>
+        <v>42.337521388699543</v>
       </c>
       <c r="E3">
-        <v>40.519149471060409</v>
+        <v>41.552596910270999</v>
       </c>
       <c r="F3">
-        <v>66.612647851139769</v>
+        <v>48.032020440259039</v>
       </c>
       <c r="G3">
-        <v>55.975230471219817</v>
+        <v>59.739241707315571</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -5829,22 +5826,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>69.387240798377391</v>
+        <v>45.664945686727897</v>
       </c>
       <c r="C4">
-        <v>69.545799972709702</v>
+        <v>43.721835984979997</v>
       </c>
       <c r="D4">
-        <v>42.798418527750968</v>
+        <v>51.906674323105591</v>
       </c>
       <c r="E4">
-        <v>42.940719567370877</v>
+        <v>40.949544354014947</v>
       </c>
       <c r="F4">
-        <v>54.23469582070976</v>
+        <v>45.831849345930912</v>
       </c>
       <c r="G4">
-        <v>48.970073673050003</v>
+        <v>59.434631835638918</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -5852,22 +5849,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>36.738329955687931</v>
+        <v>36.67514626856979</v>
       </c>
       <c r="C5">
-        <v>54.712706104543557</v>
+        <v>47.067669830195292</v>
       </c>
       <c r="D5">
-        <v>46.31760465988669</v>
+        <v>44.885999484457763</v>
       </c>
       <c r="E5">
-        <v>37.817278281558579</v>
+        <v>40.962156247082248</v>
       </c>
       <c r="F5">
-        <v>48.718739873563983</v>
+        <v>41.582703293354733</v>
       </c>
       <c r="G5">
-        <v>38.106800170914127</v>
+        <v>46.828180401517237</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -5875,45 +5872,45 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.47279269374447</v>
+        <v>20.209013647053769</v>
       </c>
       <c r="C6">
-        <v>22.172343800511189</v>
+        <v>16.625836993038099</v>
       </c>
       <c r="D6">
-        <v>17.49717863395173</v>
+        <v>20.38976760657679</v>
       </c>
       <c r="E6">
-        <v>21.71540526916808</v>
+        <v>18.785639440213171</v>
       </c>
       <c r="F6">
-        <v>27.165630551459401</v>
+        <v>20.822357777504632</v>
       </c>
       <c r="G6">
-        <v>24.23407318919045</v>
+        <v>24.354039884833611</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>3.285050435567197</v>
+        <v>3.2205511862667491</v>
       </c>
       <c r="C7">
-        <v>6.0510966631054153</v>
+        <v>3.419336921896674</v>
       </c>
       <c r="D7">
-        <v>3.1791320563699279</v>
+        <v>3.8430204867836841</v>
       </c>
       <c r="E7">
-        <v>3.0573793040296691</v>
+        <v>3.9847570503493541</v>
       </c>
       <c r="F7">
-        <v>9.8070038143914502</v>
+        <v>3.6775454148788169</v>
       </c>
       <c r="G7">
-        <v>3.804953618826072</v>
+        <v>4.0628661029312676</v>
       </c>
     </row>
   </sheetData>
@@ -5946,7 +5943,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -5954,22 +5951,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>96.430654064606912</v>
+        <v>79.600133112421105</v>
       </c>
       <c r="C2">
-        <v>96.543176404015611</v>
+        <v>87.75199757769235</v>
       </c>
       <c r="D2">
-        <v>122.8002542431724</v>
+        <v>118.1147553239625</v>
       </c>
       <c r="E2">
-        <v>63.937151840653407</v>
+        <v>84.01913565601572</v>
       </c>
       <c r="F2">
-        <v>24.826870624147141</v>
+        <v>23.745480728466639</v>
       </c>
       <c r="G2">
-        <v>8.1720581971969892</v>
+        <v>4.7053372161960247</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -5977,22 +5974,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>39.227120417766493</v>
+        <v>42.572735697299528</v>
       </c>
       <c r="C3">
-        <v>51.949370976591567</v>
+        <v>36.556440469881487</v>
       </c>
       <c r="D3">
-        <v>32.835977210976743</v>
+        <v>34.593281506703953</v>
       </c>
       <c r="E3">
-        <v>35.097936396011129</v>
+        <v>35.692205855538603</v>
       </c>
       <c r="F3">
-        <v>10.392563924896571</v>
+        <v>7.1073282123226766</v>
       </c>
       <c r="G3">
-        <v>3.521101544353284</v>
+        <v>1.5048738459411639</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -6000,22 +5997,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>53.38546193820769</v>
+        <v>33.910785425957833</v>
       </c>
       <c r="C4">
-        <v>53.31194615088026</v>
+        <v>37.727263852009543</v>
       </c>
       <c r="D4">
-        <v>29.35260468299575</v>
+        <v>31.859854134919271</v>
       </c>
       <c r="E4">
-        <v>18.27327941072571</v>
+        <v>19.399672594235021</v>
       </c>
       <c r="F4">
-        <v>3.711369751880492</v>
+        <v>4.1543636056504871</v>
       </c>
       <c r="G4">
-        <v>1.247090317081448</v>
+        <v>0.96739217036899428</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -6023,22 +6020,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>39.290427840186837</v>
+        <v>31.074278258631772</v>
       </c>
       <c r="C5">
-        <v>26.277611225042222</v>
+        <v>27.484631858710259</v>
       </c>
       <c r="D5">
-        <v>21.749461472646239</v>
+        <v>17.009856688544769</v>
       </c>
       <c r="E5">
-        <v>10.77349101903234</v>
+        <v>10.85283731874862</v>
       </c>
       <c r="F5">
-        <v>6.2618339370537361</v>
+        <v>2.6672610775277472</v>
       </c>
       <c r="G5">
-        <v>0.56097692263307786</v>
+        <v>0.59046146513295117</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -6046,45 +6043,45 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.2718434300556813</v>
+        <v>6.0194756940303034</v>
       </c>
       <c r="C6">
-        <v>6.3460814029530654</v>
+        <v>5.1977869061612134</v>
       </c>
       <c r="D6">
-        <v>3.4576349728879099</v>
+        <v>2.84222643002304</v>
       </c>
       <c r="E6">
-        <v>4.652586139142894</v>
+        <v>2.2193967409156818</v>
       </c>
       <c r="F6">
-        <v>0.67266534555053081</v>
+        <v>0.55120208690907091</v>
       </c>
       <c r="G6">
-        <v>0.73495017557582432</v>
+        <v>0.36240203719555242</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>1.1407801254576919</v>
+        <v>0.96525522010091336</v>
       </c>
       <c r="C7">
-        <v>1.138972359656689</v>
+        <v>0.84416416092544111</v>
       </c>
       <c r="D7">
-        <v>0.67826761737932839</v>
+        <v>0.76393700655487717</v>
       </c>
       <c r="E7">
-        <v>0.58768033666560171</v>
+        <v>0.51462769740526149</v>
       </c>
       <c r="F7">
-        <v>0.62865914620516417</v>
+        <v>0.34919695256764072</v>
       </c>
       <c r="G7">
-        <v>0.34748248890234967</v>
+        <v>0.33877101164965562</v>
       </c>
     </row>
   </sheetData>
@@ -6117,7 +6114,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -6125,22 +6122,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.016424477292484</v>
+        <v>2.569781631348405</v>
       </c>
       <c r="C2">
-        <v>3.21693215246176</v>
+        <v>2.7364341670646288</v>
       </c>
       <c r="D2">
-        <v>2.7414577559978119</v>
+        <v>3.0186956678806989</v>
       </c>
       <c r="E2">
-        <v>3.471997956197646</v>
+        <v>2.273529616020495</v>
       </c>
       <c r="F2">
-        <v>1.853872831467233</v>
+        <v>0.86417227303968147</v>
       </c>
       <c r="G2">
-        <v>0.88105492991727397</v>
+        <v>0.68911306631884994</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -6148,22 +6145,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.1387112405416664</v>
+        <v>2.882783059038776</v>
       </c>
       <c r="C3">
-        <v>4.6583163046739733</v>
+        <v>2.7789464979404319</v>
       </c>
       <c r="D3">
-        <v>4.1791500174686664</v>
+        <v>2.4451367464173601</v>
       </c>
       <c r="E3">
-        <v>4.7548163747210364</v>
+        <v>2.1574599642573151</v>
       </c>
       <c r="F3">
-        <v>1.3309091128009181</v>
+        <v>1.0124944229411099</v>
       </c>
       <c r="G3">
-        <v>0.90276847697461637</v>
+        <v>0.85327754936541778</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -6171,22 +6168,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.9398109350292474</v>
+        <v>2.8640878840303139</v>
       </c>
       <c r="C4">
-        <v>7.8406781990269048</v>
+        <v>2.508268183428489</v>
       </c>
       <c r="D4">
-        <v>4.0413644245839802</v>
+        <v>2.1342018465547739</v>
       </c>
       <c r="E4">
-        <v>4.4869398471197277</v>
+        <v>2.747619112027019</v>
       </c>
       <c r="F4">
-        <v>1.0224007594534481</v>
+        <v>1.03552705454627</v>
       </c>
       <c r="G4">
-        <v>1.014369138586674</v>
+        <v>0.92812678079238242</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -6194,22 +6191,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.1379518199422378</v>
+        <v>2.5668154015352891</v>
       </c>
       <c r="C5">
-        <v>4.3644305040061138</v>
+        <v>2.0171241413233201</v>
       </c>
       <c r="D5">
-        <v>3.9382439534526981</v>
+        <v>2.0945138593210459</v>
       </c>
       <c r="E5">
-        <v>2.655007337005963</v>
+        <v>2.0885771920224969</v>
       </c>
       <c r="F5">
-        <v>0.97560848981280435</v>
+        <v>1.04474007286668</v>
       </c>
       <c r="G5">
-        <v>1.1773860931750999</v>
+        <v>1.036513755294137</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -6217,45 +6214,45 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.0964184613693431</v>
+        <v>1.1699383812246</v>
       </c>
       <c r="C6">
-        <v>0.96343155070158937</v>
+        <v>1.093312874150522</v>
       </c>
       <c r="D6">
-        <v>1.122248134120426</v>
+        <v>1.14776715261832</v>
       </c>
       <c r="E6">
-        <v>1.335309323623914</v>
+        <v>1.330855856363679</v>
       </c>
       <c r="F6">
-        <v>1.2191340082534821</v>
+        <v>1.4230022861699141</v>
       </c>
       <c r="G6">
-        <v>1.6741871287903229</v>
+        <v>1.623131053225815</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>2.2092164861418691</v>
+        <v>1.9006950186680081</v>
       </c>
       <c r="C7">
-        <v>2.2435356934003381</v>
+        <v>1.874884672599622</v>
       </c>
       <c r="D7">
-        <v>2.0971872256558259</v>
+        <v>1.982124133921765</v>
       </c>
       <c r="E7">
-        <v>2.1407859339605801</v>
+        <v>1.9096353363779439</v>
       </c>
       <c r="F7">
-        <v>1.220519145040974</v>
+        <v>1.0994361047493031</v>
       </c>
       <c r="G7">
-        <v>1.226108763138132</v>
+        <v>0.93944050903002529</v>
       </c>
     </row>
   </sheetData>
@@ -6288,7 +6285,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -6296,22 +6293,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>45.814552051552731</v>
+        <v>46.458317108796457</v>
       </c>
       <c r="C2">
-        <v>50.606864501575267</v>
+        <v>49.412905130066683</v>
       </c>
       <c r="D2">
-        <v>66.769398432774864</v>
+        <v>47.265050716723408</v>
       </c>
       <c r="E2">
-        <v>41.238437017239448</v>
+        <v>38.201522774079777</v>
       </c>
       <c r="F2">
-        <v>19.328609712409751</v>
+        <v>16.87629905015077</v>
       </c>
       <c r="G2">
-        <v>10.749412664971389</v>
+        <v>3.8942794831654788</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -6319,22 +6316,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>29.552551972564501</v>
+        <v>36.518261581325739</v>
       </c>
       <c r="C3">
-        <v>31.747329014007359</v>
+        <v>32.588540983892692</v>
       </c>
       <c r="D3">
-        <v>26.262892441930219</v>
+        <v>33.517139329660452</v>
       </c>
       <c r="E3">
-        <v>22.30135142196508</v>
+        <v>21.84373548522392</v>
       </c>
       <c r="F3">
-        <v>8.2048053048258822</v>
+        <v>7.2960569200693284</v>
       </c>
       <c r="G3">
-        <v>1.4289852535864509</v>
+        <v>1.2589816218844661</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -6342,22 +6339,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>29.309021385448158</v>
+        <v>29.939975945753829</v>
       </c>
       <c r="C4">
-        <v>42.117366156927297</v>
+        <v>29.925470963168131</v>
       </c>
       <c r="D4">
-        <v>31.656259316160579</v>
+        <v>21.17798515718118</v>
       </c>
       <c r="E4">
-        <v>15.37340058316472</v>
+        <v>16.21342835126816</v>
       </c>
       <c r="F4">
-        <v>3.530630888267456</v>
+        <v>4.0167449470829304</v>
       </c>
       <c r="G4">
-        <v>0.67355336669601396</v>
+        <v>0.72049099224122493</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -6365,22 +6362,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>31.81130364801847</v>
+        <v>28.473764347393821</v>
       </c>
       <c r="C5">
-        <v>26.217823285973981</v>
+        <v>22.84732017796091</v>
       </c>
       <c r="D5">
-        <v>23.07983914285116</v>
+        <v>14.46289689221163</v>
       </c>
       <c r="E5">
-        <v>16.506170822889938</v>
+        <v>9.6677271998374508</v>
       </c>
       <c r="F5">
-        <v>5.3269596897522549</v>
+        <v>1.6919171765508909</v>
       </c>
       <c r="G5">
-        <v>0.41012789952971701</v>
+        <v>0.44221288759240762</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -6388,45 +6385,45 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.2973494962878087</v>
+        <v>4.8291836087512339</v>
       </c>
       <c r="C6">
-        <v>5.4239013277388342</v>
+        <v>4.2191152387950774</v>
       </c>
       <c r="D6">
-        <v>3.2965242400197781</v>
+        <v>3.5878126030267001</v>
       </c>
       <c r="E6">
-        <v>4.6974272182560419</v>
+        <v>2.1194079315890919</v>
       </c>
       <c r="F6">
-        <v>0.43771600710024289</v>
+        <v>0.47289272938542559</v>
       </c>
       <c r="G6">
-        <v>0.57557063415774823</v>
+        <v>0.33445281716197811</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>0.86563170272523571</v>
+        <v>0.9673734864806639</v>
       </c>
       <c r="C7">
-        <v>0.93074258489490025</v>
+        <v>0.85420548218767878</v>
       </c>
       <c r="D7">
-        <v>0.7266264491151414</v>
+        <v>0.64136328290611588</v>
       </c>
       <c r="E7">
-        <v>0.31942585397680417</v>
+        <v>0.38738277948433392</v>
       </c>
       <c r="F7">
-        <v>0.55821308683300297</v>
+        <v>0.33171164493171312</v>
       </c>
       <c r="G7">
-        <v>0.1402704132456947</v>
+        <v>0.13787702097491089</v>
       </c>
     </row>
   </sheetData>
@@ -6459,7 +6456,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -6467,22 +6464,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.8549896987493879</v>
+        <v>1.5541303444923129</v>
       </c>
       <c r="C2">
-        <v>2.7630549855400459</v>
+        <v>1.5117337949119549</v>
       </c>
       <c r="D2">
-        <v>1.868802514378556</v>
+        <v>1.5158111465936019</v>
       </c>
       <c r="E2">
-        <v>1.811697528162032</v>
+        <v>1.529826115637871</v>
       </c>
       <c r="F2">
-        <v>2.409011838334481</v>
+        <v>1.480946261339027</v>
       </c>
       <c r="G2">
-        <v>2.6607652367487469</v>
+        <v>1.5000372331533229</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -6490,22 +6487,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.3134607961381759</v>
+        <v>1.5103029205446341</v>
       </c>
       <c r="C3">
-        <v>2.3088233919112429</v>
+        <v>1.496791314829085</v>
       </c>
       <c r="D3">
-        <v>2.5253041013968609</v>
+        <v>1.4387164919622679</v>
       </c>
       <c r="E3">
-        <v>2.912021421685679</v>
+        <v>1.589603884982562</v>
       </c>
       <c r="F3">
-        <v>2.6133330686972061</v>
+        <v>1.4892153848349621</v>
       </c>
       <c r="G3">
-        <v>2.0354362751715311</v>
+        <v>1.6092553892515049</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -6513,22 +6510,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.419281328906508</v>
+        <v>1.6535612862898761</v>
       </c>
       <c r="C4">
-        <v>2.3151290038123231</v>
+        <v>1.4412760254299659</v>
       </c>
       <c r="D4">
-        <v>2.1167177034661941</v>
+        <v>1.509077500735982</v>
       </c>
       <c r="E4">
-        <v>2.5671227897225601</v>
+        <v>1.5576087641020371</v>
       </c>
       <c r="F4">
-        <v>2.7817966760847521</v>
+        <v>1.37423582057949</v>
       </c>
       <c r="G4">
-        <v>1.866469423334848</v>
+        <v>1.4781571481251079</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -6536,22 +6533,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.3988194408050609</v>
+        <v>1.3147349596263229</v>
       </c>
       <c r="C5">
-        <v>2.3276918734413901</v>
+        <v>1.3397810936155921</v>
       </c>
       <c r="D5">
-        <v>2.5286774833874048</v>
+        <v>1.374527925522173</v>
       </c>
       <c r="E5">
-        <v>2.9713307513862062</v>
+        <v>1.318805982166138</v>
       </c>
       <c r="F5">
-        <v>1.465175538114504</v>
+        <v>1.2864682623530881</v>
       </c>
       <c r="G5">
-        <v>1.509130210479223</v>
+        <v>1.31892600849726</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -6559,45 +6556,45 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.95345334785855362</v>
+        <v>0.75911973503110275</v>
       </c>
       <c r="C6">
-        <v>0.91541656514403791</v>
+        <v>0.76859509640300872</v>
       </c>
       <c r="D6">
-        <v>0.89855458086120565</v>
+        <v>0.76456796824071072</v>
       </c>
       <c r="E6">
-        <v>0.91953318551682528</v>
+        <v>0.75656071888495213</v>
       </c>
       <c r="F6">
-        <v>0.75548132599161455</v>
+        <v>0.79401038232832555</v>
       </c>
       <c r="G6">
-        <v>0.82172886284246582</v>
+        <v>0.78692192102849901</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>1.5500384286833839</v>
+        <v>1.4821107164914571</v>
       </c>
       <c r="C7">
-        <v>1.55349685720318</v>
+        <v>1.4327057421818989</v>
       </c>
       <c r="D7">
-        <v>1.444577575121148</v>
+        <v>1.440255002532937</v>
       </c>
       <c r="E7">
-        <v>1.499904563695011</v>
+        <v>1.444260189418636</v>
       </c>
       <c r="F7">
-        <v>1.5195189107679901</v>
+        <v>1.378793191049744</v>
       </c>
       <c r="G7">
-        <v>1.440381205345165</v>
+        <v>1.397979070221725</v>
       </c>
     </row>
   </sheetData>
@@ -6630,7 +6627,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -6638,22 +6635,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.734030987019112</v>
+        <v>2.9546322937745342</v>
       </c>
       <c r="C2">
-        <v>5.3983417965098228</v>
+        <v>2.8878960516292809</v>
       </c>
       <c r="D2">
-        <v>3.2764508284977811</v>
+        <v>2.72832829418217</v>
       </c>
       <c r="E2">
-        <v>3.0726355456180441</v>
+        <v>2.9116227038959579</v>
       </c>
       <c r="F2">
-        <v>5.0318343704333923</v>
+        <v>2.9645927261743412</v>
       </c>
       <c r="G2">
-        <v>3.0314972871086132</v>
+        <v>2.9969644199995642</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -6661,22 +6658,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.73140409131131</v>
+        <v>3.5320889706006819</v>
       </c>
       <c r="C3">
-        <v>5.3832246034627582</v>
+        <v>3.3752638190459781</v>
       </c>
       <c r="D3">
-        <v>4.8527260802596706</v>
+        <v>3.571156838004673</v>
       </c>
       <c r="E3">
-        <v>5.4447929087116824</v>
+        <v>3.547938646768491</v>
       </c>
       <c r="F3">
-        <v>4.6353911115474506</v>
+        <v>3.4529331530049112</v>
       </c>
       <c r="G3">
-        <v>3.924836264432777</v>
+        <v>3.5749831979140132</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -6684,22 +6681,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.384926701897677</v>
+        <v>3.5609551916031288</v>
       </c>
       <c r="C4">
-        <v>5.0559621100709897</v>
+        <v>2.925006276140699</v>
       </c>
       <c r="D4">
-        <v>5.1375486804283019</v>
+        <v>3.0831158861327261</v>
       </c>
       <c r="E4">
-        <v>4.2002667444656634</v>
+        <v>3.4432705521740008</v>
       </c>
       <c r="F4">
-        <v>3.3746881871971111</v>
+        <v>3.094255801828854</v>
       </c>
       <c r="G4">
-        <v>3.566038792428758</v>
+        <v>2.906725181983655</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -6707,22 +6704,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.2870315870032663</v>
+        <v>2.3189004719979041</v>
       </c>
       <c r="C5">
-        <v>4.1352977798093988</v>
+        <v>2.3167930381476931</v>
       </c>
       <c r="D5">
-        <v>4.2197787012876287</v>
+        <v>2.3553400337229982</v>
       </c>
       <c r="E5">
-        <v>5.5503560599698396</v>
+        <v>2.5365828560583972</v>
       </c>
       <c r="F5">
-        <v>2.6860456717314771</v>
+        <v>2.3823055477500041</v>
       </c>
       <c r="G5">
-        <v>2.0614937266020901</v>
+        <v>2.3040620330043549</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -6730,45 +6727,45 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.0146808031903249</v>
+        <v>0.92263265861447419</v>
       </c>
       <c r="C6">
-        <v>0.94411937510066191</v>
+        <v>0.90068131271779528</v>
       </c>
       <c r="D6">
-        <v>0.90399943714144171</v>
+        <v>0.92327302186973714</v>
       </c>
       <c r="E6">
-        <v>0.9476935221307845</v>
+        <v>0.92881119166060788</v>
       </c>
       <c r="F6">
-        <v>1.060456169635827</v>
+        <v>0.98889330184098001</v>
       </c>
       <c r="G6">
-        <v>0.9460745479981334</v>
+        <v>0.98638499871362018</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>1.580634194705747</v>
+        <v>1.485626085802394</v>
       </c>
       <c r="C7">
-        <v>1.591828061526894</v>
+        <v>1.4577655115917381</v>
       </c>
       <c r="D7">
-        <v>1.649229207828234</v>
+        <v>1.4965656582105169</v>
       </c>
       <c r="E7">
-        <v>1.573573668474584</v>
+        <v>1.458740914973057</v>
       </c>
       <c r="F7">
-        <v>1.559302822011648</v>
+        <v>1.5628576040961331</v>
       </c>
       <c r="G7">
-        <v>1.5447760158551569</v>
+        <v>1.4626565674327501</v>
       </c>
     </row>
   </sheetData>
@@ -6801,7 +6798,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -6809,22 +6806,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.79331870185286</v>
+        <v>1.278134254063817</v>
       </c>
       <c r="C2">
-        <v>2.2231357292040581</v>
+        <v>1.4443599277331769</v>
       </c>
       <c r="D2">
-        <v>2.1049097168981739</v>
+        <v>1.443273349968595</v>
       </c>
       <c r="E2">
-        <v>2.9210639478794849</v>
+        <v>1.3070220557082151</v>
       </c>
       <c r="F2">
-        <v>1.560100108456705</v>
+        <v>0.78341817156652382</v>
       </c>
       <c r="G2">
-        <v>1.401766955966903</v>
+        <v>1.330557520822395</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -6832,22 +6829,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.0777555971956589</v>
+        <v>1.363328822808026</v>
       </c>
       <c r="C3">
-        <v>2.791335612182535</v>
+        <v>1.6935961727095881</v>
       </c>
       <c r="D3">
-        <v>2.9091864446182152</v>
+        <v>1.4997369845337281</v>
       </c>
       <c r="E3">
-        <v>2.708125694689655</v>
+        <v>1.454760211012939</v>
       </c>
       <c r="F3">
-        <v>0.78287942888965323</v>
+        <v>0.77712623906278933</v>
       </c>
       <c r="G3">
-        <v>1.401169848568536</v>
+        <v>1.426795564184554</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -6855,22 +6852,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.4748875640009098</v>
+        <v>1.4747140486954879</v>
       </c>
       <c r="C4">
-        <v>2.807997891285182</v>
+        <v>1.535536858938642</v>
       </c>
       <c r="D4">
-        <v>3.0302409792064648</v>
+        <v>1.700125739027798</v>
       </c>
       <c r="E4">
-        <v>2.5176193605040962</v>
+        <v>1.431484466443353</v>
       </c>
       <c r="F4">
-        <v>0.77734045474325231</v>
+        <v>0.73285462516991373</v>
       </c>
       <c r="G4">
-        <v>1.3185411474221791</v>
+        <v>1.36409643800393</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -6878,22 +6875,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.2531912662138889</v>
+        <v>1.191595440038421</v>
       </c>
       <c r="C5">
-        <v>2.279778003080057</v>
+        <v>1.360939196234294</v>
       </c>
       <c r="D5">
-        <v>1.6815138489132611</v>
+        <v>1.415174468803968</v>
       </c>
       <c r="E5">
-        <v>1.4610292691828799</v>
+        <v>1.639282137913223</v>
       </c>
       <c r="F5">
-        <v>0.73145032106028396</v>
+        <v>0.78554543418881717</v>
       </c>
       <c r="G5">
-        <v>1.0797338225450821</v>
+        <v>1.088983296536193</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -6901,45 +6898,45 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.72737254166445431</v>
+        <v>0.75520888205546743</v>
       </c>
       <c r="C6">
-        <v>0.82611289459756021</v>
+        <v>0.751902285584781</v>
       </c>
       <c r="D6">
-        <v>0.75747645730269775</v>
+        <v>0.72886633557479141</v>
       </c>
       <c r="E6">
-        <v>0.7216831469206707</v>
+        <v>0.69074638218933671</v>
       </c>
       <c r="F6">
-        <v>0.5492578582649944</v>
+        <v>0.52922063438511646</v>
       </c>
       <c r="G6">
-        <v>1.1781101284999811</v>
+        <v>0.89590679639611048</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>1.477510706531459</v>
+        <v>1.3534155830785299</v>
       </c>
       <c r="C7">
-        <v>1.372531349486269</v>
+        <v>1.3445849064557429</v>
       </c>
       <c r="D7">
-        <v>1.2829585813186459</v>
+        <v>1.2462004983826049</v>
       </c>
       <c r="E7">
-        <v>1.06801982796104</v>
+        <v>1.0372829957673231</v>
       </c>
       <c r="F7">
-        <v>0.97201569920158337</v>
+        <v>0.92889389592069493</v>
       </c>
       <c r="G7">
-        <v>0.35696603881064881</v>
+        <v>0.3530334464368225</v>
       </c>
     </row>
   </sheetData>
@@ -6972,7 +6969,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -6980,22 +6977,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.315548060363505</v>
+        <v>3.651004288359101</v>
       </c>
       <c r="C2">
-        <v>5.2132960617758792</v>
+        <v>3.4807829951801761</v>
       </c>
       <c r="D2">
-        <v>5.3745942766309813</v>
+        <v>3.2918677309439648</v>
       </c>
       <c r="E2">
-        <v>3.846473095852549</v>
+        <v>2.3314083126748182</v>
       </c>
       <c r="F2">
-        <v>1.4474371458624571</v>
+        <v>0.98446416742918852</v>
       </c>
       <c r="G2">
-        <v>1.500951612784404</v>
+        <v>1.492633115429433</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -7003,22 +7000,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.607202450628181</v>
+        <v>3.3193388248148001</v>
       </c>
       <c r="C3">
-        <v>5.2473512787151373</v>
+        <v>2.9423656562070519</v>
       </c>
       <c r="D3">
-        <v>5.2151030071464453</v>
+        <v>2.728123800962766</v>
       </c>
       <c r="E3">
-        <v>4.1989130637364829</v>
+        <v>2.0753090378799541</v>
       </c>
       <c r="F3">
-        <v>0.94010460779965987</v>
+        <v>0.84156050767923141</v>
       </c>
       <c r="G3">
-        <v>1.5880317500918271</v>
+        <v>1.49691650008809</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -7026,22 +7023,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.6877942261689816</v>
+        <v>3.293023716431307</v>
       </c>
       <c r="C4">
-        <v>5.0479022974425343</v>
+        <v>3.1739537647194611</v>
       </c>
       <c r="D4">
-        <v>2.8709915936951411</v>
+        <v>2.4750055959845589</v>
       </c>
       <c r="E4">
-        <v>1.829838764042764</v>
+        <v>1.9248879885159911</v>
       </c>
       <c r="F4">
-        <v>0.83902660486347125</v>
+        <v>0.78839185231263142</v>
       </c>
       <c r="G4">
-        <v>1.3128549290360849</v>
+        <v>1.3399567767392331</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -7049,22 +7046,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.9252657206273862</v>
+        <v>2.3597553557106412</v>
       </c>
       <c r="C5">
-        <v>2.8618289635565781</v>
+        <v>2.0807160174507788</v>
       </c>
       <c r="D5">
-        <v>1.742363498218185</v>
+        <v>2.0918007723678489</v>
       </c>
       <c r="E5">
-        <v>1.9586027705925451</v>
+        <v>1.895019149129082</v>
       </c>
       <c r="F5">
-        <v>0.7298769094432207</v>
+        <v>0.77006512675835848</v>
       </c>
       <c r="G5">
-        <v>1.127043707046637</v>
+        <v>1.125240958710928</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -7072,45 +7069,45 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.1286230279246769</v>
+        <v>0.93409557125484477</v>
       </c>
       <c r="C6">
-        <v>1.0010918325186839</v>
+        <v>0.85027560250294087</v>
       </c>
       <c r="D6">
-        <v>0.88072331867236653</v>
+        <v>0.9294021831576158</v>
       </c>
       <c r="E6">
-        <v>0.76424864631949918</v>
+        <v>0.72315761265468037</v>
       </c>
       <c r="F6">
-        <v>0.47167797883002538</v>
+        <v>0.48261315913033159</v>
       </c>
       <c r="G6">
-        <v>0.98134637942301139</v>
+        <v>0.88345075966900122</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>1.574842515703784</v>
+        <v>1.4940659682738591</v>
       </c>
       <c r="C7">
-        <v>1.5051396637907271</v>
+        <v>1.4521813793730329</v>
       </c>
       <c r="D7">
-        <v>1.3830203621465531</v>
+        <v>1.3501619859419911</v>
       </c>
       <c r="E7">
-        <v>1.1158082495941399</v>
+        <v>1.0922370068285721</v>
       </c>
       <c r="F7">
-        <v>0.89213371896244076</v>
+        <v>0.86666994820187637</v>
       </c>
       <c r="G7">
-        <v>0.20542561958691899</v>
+        <v>0.20221841620978359</v>
       </c>
     </row>
   </sheetData>
@@ -7143,7 +7140,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -7151,22 +7148,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>420.30914930951849</v>
+        <v>340.25221098005841</v>
       </c>
       <c r="C2">
-        <v>320.25075524750969</v>
+        <v>238.1779533595207</v>
       </c>
       <c r="D2">
-        <v>580.46008463290605</v>
+        <v>238.17731441702989</v>
       </c>
       <c r="E2">
-        <v>580.40896923364062</v>
+        <v>416.31128614447391</v>
       </c>
       <c r="F2">
-        <v>340.28160233463598</v>
+        <v>236.1742297083172</v>
       </c>
       <c r="G2">
-        <v>600.43981632076691</v>
+        <v>238.1779533595207</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -7174,22 +7171,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>360.31244942176232</v>
+        <v>236.1742297083172</v>
       </c>
       <c r="C3">
-        <v>340.23048693537061</v>
+        <v>240.18167701072409</v>
       </c>
       <c r="D3">
-        <v>380.29857053453128</v>
+        <v>240.18103806823331</v>
       </c>
       <c r="E3">
-        <v>340.23048693537061</v>
+        <v>236.1742297083172</v>
       </c>
       <c r="F3">
-        <v>560.37812214651433</v>
+        <v>236.17486865080809</v>
       </c>
       <c r="G3">
-        <v>720.52905746990189</v>
+        <v>330.24701051634833</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -7197,22 +7194,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>340.28160233463598</v>
+        <v>252.1848506432203</v>
       </c>
       <c r="C4">
-        <v>360.06371398189208</v>
+        <v>550.10997073635974</v>
       </c>
       <c r="D4">
-        <v>360.2613340224969</v>
+        <v>248.18890430564809</v>
       </c>
       <c r="E4">
-        <v>340.28799175954418</v>
+        <v>250.1868774744342</v>
       </c>
       <c r="F4">
-        <v>340.28799175954418</v>
+        <v>330.24701051634833</v>
       </c>
       <c r="G4">
-        <v>340.23048693537061</v>
+        <v>238.1779533595207</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -7220,22 +7217,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>360.2613340224969</v>
+        <v>238.1779533595207</v>
       </c>
       <c r="C5">
-        <v>720.58017286916731</v>
+        <v>238.1779533595207</v>
       </c>
       <c r="D5">
-        <v>640.45039509575406</v>
+        <v>240.17528758581591</v>
       </c>
       <c r="E5">
-        <v>440.33999639664472</v>
+        <v>390.29099214842512</v>
       </c>
       <c r="F5">
-        <v>360.2613340224969</v>
+        <v>438.32604966558819</v>
       </c>
       <c r="G5">
-        <v>580.46008463290605</v>
+        <v>328.24328686514491</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -7243,45 +7240,45 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>440.33999639664472</v>
+        <v>238.1779533595207</v>
       </c>
       <c r="C6">
-        <v>360.2613340224969</v>
+        <v>734.54937254590868</v>
       </c>
       <c r="D6">
-        <v>440.33999639664472</v>
+        <v>246.18581959693549</v>
       </c>
       <c r="E6">
-        <v>520.4122693458844</v>
+        <v>238.1779533595207</v>
       </c>
       <c r="F6">
-        <v>340.23048693537061</v>
+        <v>244.18209594573199</v>
       </c>
       <c r="G6">
-        <v>460.37723290867922</v>
+        <v>248.18379276572159</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>560.42923754577976</v>
+        <v>264.1988862980603</v>
       </c>
       <c r="C7">
-        <v>420.30275988461028</v>
+        <v>428.32084920187822</v>
       </c>
       <c r="D7">
-        <v>400.27191279748399</v>
+        <v>256.19102006064549</v>
       </c>
       <c r="E7">
-        <v>520.36115394661908</v>
+        <v>328.24392580763572</v>
       </c>
       <c r="F7">
-        <v>400.2783022223922</v>
+        <v>258.19474371184901</v>
       </c>
       <c r="G7">
-        <v>540.39839045865358</v>
+        <v>354.26485874617532</v>
       </c>
     </row>
   </sheetData>
@@ -7314,7 +7311,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -7322,22 +7319,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>360.2613340224969</v>
+        <v>382.28312591101019</v>
       </c>
       <c r="C2">
-        <v>300.21990816038351</v>
+        <v>232.17317183081849</v>
       </c>
       <c r="D2">
-        <v>300.21990816038351</v>
+        <v>232.1738107733093</v>
       </c>
       <c r="E2">
-        <v>280.18906107325722</v>
+        <v>410.30714355826251</v>
       </c>
       <c r="F2">
-        <v>300.2135187354753</v>
+        <v>232.17317183081849</v>
       </c>
       <c r="G2">
-        <v>500.38142225875822</v>
+        <v>232.17317183081849</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -7345,22 +7342,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>280.24017647252259</v>
+        <v>230.17008712210591</v>
       </c>
       <c r="C3">
-        <v>300.21990816038351</v>
+        <v>234.17689548202199</v>
       </c>
       <c r="D3">
-        <v>280.24656589743068</v>
+        <v>230.17008712210591</v>
       </c>
       <c r="E3">
-        <v>300.27102355964882</v>
+        <v>232.17317183081849</v>
       </c>
       <c r="F3">
-        <v>460.37084348377101</v>
+        <v>232.17317183081849</v>
       </c>
       <c r="G3">
-        <v>660.48763160778856</v>
+        <v>422.31606767317601</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -7368,22 +7365,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>420.30914930951849</v>
+        <v>232.17317183081849</v>
       </c>
       <c r="C4">
-        <v>320.25714467241789</v>
+        <v>232.1738107733093</v>
       </c>
       <c r="D4">
-        <v>300.21990816038351</v>
+        <v>238.18370384193801</v>
       </c>
       <c r="E4">
-        <v>280.18267164834901</v>
+        <v>240.1759265283068</v>
       </c>
       <c r="F4">
-        <v>280.18906107325722</v>
+        <v>232.17317183081849</v>
       </c>
       <c r="G4">
-        <v>260.2093293853963</v>
+        <v>316.24011323264881</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -7391,22 +7388,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>300.21990816038351</v>
+        <v>232.17317183081849</v>
       </c>
       <c r="C5">
-        <v>560.42923754577976</v>
+        <v>234.17625653953121</v>
       </c>
       <c r="D5">
-        <v>540.39200103374537</v>
+        <v>236.1742297083172</v>
       </c>
       <c r="E5">
-        <v>360.26772344740499</v>
+        <v>336.25179204505048</v>
       </c>
       <c r="F5">
-        <v>280.18906107325722</v>
+        <v>378.28206803351151</v>
       </c>
       <c r="G5">
-        <v>380.29857053453128</v>
+        <v>320.2360595702209</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -7414,45 +7411,45 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>380.29218110962307</v>
+        <v>232.17317183081849</v>
       </c>
       <c r="C6">
-        <v>280.24656589743068</v>
+        <v>232.1738107733093</v>
       </c>
       <c r="D6">
-        <v>380.24106571035782</v>
+        <v>240.17528758581591</v>
       </c>
       <c r="E6">
-        <v>1180.8999009536731</v>
+        <v>232.17317183081849</v>
       </c>
       <c r="F6">
-        <v>280.24017647252259</v>
+        <v>240.18167701072409</v>
       </c>
       <c r="G6">
-        <v>380.24106571035782</v>
+        <v>234.1717839420954</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>400.27191279748399</v>
+        <v>248.18379276572159</v>
       </c>
       <c r="C7">
-        <v>300.21990816038351</v>
+        <v>270.20302888427159</v>
       </c>
       <c r="D7">
-        <v>300.21990816038351</v>
+        <v>460.3452857841383</v>
       </c>
       <c r="E7">
-        <v>400.27191279748399</v>
+        <v>324.24286793013698</v>
       </c>
       <c r="F7">
-        <v>300.21990816038351</v>
+        <v>248.18379276572159</v>
       </c>
       <c r="G7">
-        <v>400.2783022223922</v>
+        <v>332.25009522506099</v>
       </c>
     </row>
   </sheetData>
@@ -7485,7 +7482,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -7493,22 +7490,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>320.25714467241789</v>
+        <v>444.33019225179959</v>
       </c>
       <c r="C2">
-        <v>300.21990816038351</v>
+        <v>236.1799801907346</v>
       </c>
       <c r="D2">
-        <v>320.25075524750969</v>
+        <v>236.17486865080809</v>
       </c>
       <c r="E2">
-        <v>1040.7798127174119</v>
+        <v>424.31915238188861</v>
       </c>
       <c r="F2">
-        <v>320.25075524750969</v>
+        <v>236.1742297083172</v>
       </c>
       <c r="G2">
-        <v>560.37173272160624</v>
+        <v>246.18518065444471</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -7516,22 +7513,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>520.4186587707926</v>
+        <v>238.1779533595207</v>
       </c>
       <c r="C3">
-        <v>300.21990816038351</v>
+        <v>238.17731441702989</v>
       </c>
       <c r="D3">
-        <v>300.21990816038351</v>
+        <v>236.1742297083172</v>
       </c>
       <c r="E3">
-        <v>300.21990816038351</v>
+        <v>236.1742297083172</v>
       </c>
       <c r="F3">
-        <v>500.38142225875822</v>
+        <v>422.31606767317601</v>
       </c>
       <c r="G3">
-        <v>520.4186587707926</v>
+        <v>328.24328686514491</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -7539,22 +7536,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>540.39200103374537</v>
+        <v>448.33700061171572</v>
       </c>
       <c r="C4">
-        <v>300.2135187354753</v>
+        <v>244.18209594573199</v>
       </c>
       <c r="D4">
-        <v>300.21990816038351</v>
+        <v>242.1783722945286</v>
       </c>
       <c r="E4">
-        <v>300.21990816038351</v>
+        <v>246.18006911451809</v>
       </c>
       <c r="F4">
-        <v>300.21990816038351</v>
+        <v>578.43016433957905</v>
       </c>
       <c r="G4">
-        <v>560.42923754577976</v>
+        <v>250.1868774744342</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -7562,22 +7559,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>300.21990816038351</v>
+        <v>236.1742297083172</v>
       </c>
       <c r="C5">
-        <v>580.46008463290605</v>
+        <v>236.1742297083172</v>
       </c>
       <c r="D5">
-        <v>580.46008463290605</v>
+        <v>362.27208604109933</v>
       </c>
       <c r="E5">
-        <v>400.27191279748399</v>
+        <v>386.28482273099979</v>
       </c>
       <c r="F5">
-        <v>320.25075524750969</v>
+        <v>516.38884848120711</v>
       </c>
       <c r="G5">
-        <v>440.2824915724712</v>
+        <v>340.25796146247569</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -7585,45 +7582,45 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>400.2783022223922</v>
+        <v>236.1742297083172</v>
       </c>
       <c r="C6">
-        <v>320.19963984824432</v>
+        <v>252.1899621831468</v>
       </c>
       <c r="D6">
-        <v>400.32941762165763</v>
+        <v>244.18209594573199</v>
       </c>
       <c r="E6">
-        <v>340.28160233463598</v>
+        <v>410.30714355826251</v>
       </c>
       <c r="F6">
-        <v>340.23048693537061</v>
+        <v>350.26380086867658</v>
       </c>
       <c r="G6">
-        <v>520.36115394661908</v>
+        <v>258.18899322943162</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>400.32941762165763</v>
+        <v>562.42082128965774</v>
       </c>
       <c r="C7">
-        <v>380.29857053453128</v>
+        <v>422.31606767317601</v>
       </c>
       <c r="D7">
-        <v>380.29857053453128</v>
+        <v>454.34114319792701</v>
       </c>
       <c r="E7">
-        <v>440.2824915724712</v>
+        <v>258.19410476935809</v>
       </c>
       <c r="F7">
-        <v>860.64914570616327</v>
+        <v>664.49507891019539</v>
       </c>
       <c r="G7">
-        <v>660.53235758214578</v>
+        <v>372.27792544730022</v>
       </c>
     </row>
   </sheetData>
@@ -7656,7 +7653,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -7664,22 +7661,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>280.18267164834901</v>
+        <v>538.40297305983063</v>
       </c>
       <c r="C2">
-        <v>280.18267164834901</v>
+        <v>234.17689548202199</v>
       </c>
       <c r="D2">
-        <v>280.18906107325722</v>
+        <v>232.17317183081849</v>
       </c>
       <c r="E2">
-        <v>260.2093293853963</v>
+        <v>344.25901933997449</v>
       </c>
       <c r="F2">
-        <v>280.18906107325722</v>
+        <v>234.17625653953121</v>
       </c>
       <c r="G2">
-        <v>500.38781168366643</v>
+        <v>344.25326885755709</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -7687,22 +7684,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>480.35057517163187</v>
+        <v>462.34325895292437</v>
       </c>
       <c r="C3">
-        <v>280.24656589743068</v>
+        <v>420.3129829644634</v>
       </c>
       <c r="D3">
-        <v>280.24017647252259</v>
+        <v>232.17317183081849</v>
       </c>
       <c r="E3">
-        <v>280.24017647252259</v>
+        <v>524.39032529371377</v>
       </c>
       <c r="F3">
-        <v>480.35057517163187</v>
+        <v>236.1799801907346</v>
       </c>
       <c r="G3">
-        <v>480.35057517163187</v>
+        <v>328.24392580763572</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -7710,22 +7707,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>460.31972808450558</v>
+        <v>434.32499178808951</v>
       </c>
       <c r="C4">
-        <v>300.21990816038351</v>
+        <v>242.17901123701941</v>
       </c>
       <c r="D4">
-        <v>280.24656589743068</v>
+        <v>240.18103806823331</v>
       </c>
       <c r="E4">
-        <v>280.24017647252259</v>
+        <v>242.17901123701941</v>
       </c>
       <c r="F4">
-        <v>280.24017647252259</v>
+        <v>244.1827348882228</v>
       </c>
       <c r="G4">
-        <v>520.36754337152718</v>
+        <v>244.18209594573199</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -7733,22 +7730,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>280.18906107325722</v>
+        <v>234.17689548202199</v>
       </c>
       <c r="C5">
-        <v>540.39200103374537</v>
+        <v>234.17114499960459</v>
       </c>
       <c r="D5">
-        <v>560.42923754577976</v>
+        <v>634.47308809415711</v>
       </c>
       <c r="E5">
-        <v>380.24106571035782</v>
+        <v>382.28312591101019</v>
       </c>
       <c r="F5">
-        <v>280.18906107325722</v>
+        <v>468.35379096404392</v>
       </c>
       <c r="G5">
-        <v>380.24106571035782</v>
+        <v>330.24701051634833</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -7756,45 +7753,45 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>380.29857053453128</v>
+        <v>234.17114499960459</v>
       </c>
       <c r="C6">
-        <v>300.21990816038351</v>
+        <v>240.18103806823331</v>
       </c>
       <c r="D6">
-        <v>380.29857053453128</v>
+        <v>304.23182806022612</v>
       </c>
       <c r="E6">
-        <v>280.18267164834901</v>
+        <v>414.30884037825211</v>
       </c>
       <c r="F6">
-        <v>260.2093293853963</v>
+        <v>236.1799801907346</v>
       </c>
       <c r="G6">
-        <v>300.27102355964882</v>
+        <v>244.18209594573199</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>420.30914930951849</v>
+        <v>250.18623853194339</v>
       </c>
       <c r="C7">
-        <v>300.21990816038351</v>
+        <v>418.31500979567733</v>
       </c>
       <c r="D7">
-        <v>280.24017647252259</v>
+        <v>446.333915903003</v>
       </c>
       <c r="E7">
-        <v>380.29857053453128</v>
+        <v>242.17901123701941</v>
       </c>
       <c r="F7">
-        <v>380.29857053453128</v>
+        <v>470.35176413283</v>
       </c>
       <c r="G7">
-        <v>400.32941762165763</v>
+        <v>346.25699250876062</v>
       </c>
     </row>
   </sheetData>
@@ -7827,7 +7824,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -7835,22 +7832,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>28.342324365114202</v>
+        <v>22.491421935153902</v>
       </c>
       <c r="C2">
-        <v>29.898496886416751</v>
+        <v>21.2917532199038</v>
       </c>
       <c r="D2">
-        <v>28.169074543721031</v>
+        <v>23.374472382348539</v>
       </c>
       <c r="E2">
-        <v>27.510412833717702</v>
+        <v>25.757166395030922</v>
       </c>
       <c r="F2">
-        <v>28.14708656849</v>
+        <v>21.367849285245509</v>
       </c>
       <c r="G2">
-        <v>45.000023945041661</v>
+        <v>21.933988056360491</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -7858,22 +7855,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>25.554393340432629</v>
+        <v>14.569510346827061</v>
       </c>
       <c r="C3">
-        <v>16.39769022646248</v>
+        <v>12.52995263970422</v>
       </c>
       <c r="D3">
-        <v>16.71419517602418</v>
+        <v>14.456075359156451</v>
       </c>
       <c r="E3">
-        <v>16.765199099035659</v>
+        <v>12.520481439667551</v>
       </c>
       <c r="F3">
-        <v>28.714336258417461</v>
+        <v>12.66265899175778</v>
       </c>
       <c r="G3">
-        <v>21.17199693748482</v>
+        <v>18.48547988391844</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -7881,22 +7878,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.83308698202811</v>
+        <v>15.01566625778193</v>
       </c>
       <c r="C4">
-        <v>15.310660493522519</v>
+        <v>11.961331002369899</v>
       </c>
       <c r="D4">
-        <v>15.521657824917099</v>
+        <v>20.178250056106499</v>
       </c>
       <c r="E4">
-        <v>16.08819801214279</v>
+        <v>14.390297663197209</v>
       </c>
       <c r="F4">
-        <v>16.46333303488187</v>
+        <v>22.28498610150384</v>
       </c>
       <c r="G4">
-        <v>27.189649176144641</v>
+        <v>13.84964092093051</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -7904,22 +7901,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.24208165909252</v>
+        <v>11.54089236851811</v>
       </c>
       <c r="C5">
-        <v>22.745259075364341</v>
+        <v>9.5093449570237194</v>
       </c>
       <c r="D5">
-        <v>21.735091591919041</v>
+        <v>15.288964734877039</v>
       </c>
       <c r="E5">
-        <v>17.641325861429049</v>
+        <v>9.4516724876107681</v>
       </c>
       <c r="F5">
-        <v>11.755776688647231</v>
+        <v>13.007964826223599</v>
       </c>
       <c r="G5">
-        <v>16.954138270144082</v>
+        <v>17.236593802063211</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -7927,45 +7924,45 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>35.96082147910797</v>
+        <v>8.0641984941061118</v>
       </c>
       <c r="C6">
-        <v>40.945015488144861</v>
+        <v>26.25157602276828</v>
       </c>
       <c r="D6">
-        <v>54.560954149614957</v>
+        <v>20.02431432183635</v>
       </c>
       <c r="E6">
-        <v>14.355233630088099</v>
+        <v>29.05330778267621</v>
       </c>
       <c r="F6">
-        <v>13.388091565148679</v>
+        <v>9.9555820935871768</v>
       </c>
       <c r="G6">
-        <v>39.799632967174837</v>
+        <v>22.089388954729859</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>9.9148224793571291</v>
+        <v>5.5380723180014622</v>
       </c>
       <c r="C7">
-        <v>7.6546740497002581</v>
+        <v>6.2496439484609736</v>
       </c>
       <c r="D7">
-        <v>6.2917272411486822</v>
+        <v>4.6344988180017888</v>
       </c>
       <c r="E7">
-        <v>8.99585045268085</v>
+        <v>5.4050110952499226</v>
       </c>
       <c r="F7">
-        <v>7.0917841057264166</v>
+        <v>3.6100570869698458</v>
       </c>
       <c r="G7">
-        <v>7.8262062317655978</v>
+        <v>3.4596192635765761</v>
       </c>
     </row>
   </sheetData>
@@ -7998,7 +7995,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -8006,22 +8003,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>161.77923074209761</v>
+        <v>134.68741561435581</v>
       </c>
       <c r="C2">
-        <v>150.5475322935668</v>
+        <v>160.7074114699054</v>
       </c>
       <c r="D2">
-        <v>166.9086190509137</v>
+        <v>119.30410251247309</v>
       </c>
       <c r="E2">
-        <v>121.6568939379565</v>
+        <v>133.8719077312563</v>
       </c>
       <c r="F2">
-        <v>120.0135248340558</v>
+        <v>176.87968768954229</v>
       </c>
       <c r="G2">
-        <v>196.83281732000509</v>
+        <v>146.22582982467901</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -8029,22 +8026,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>114.5951343824692</v>
+        <v>93.681541250607737</v>
       </c>
       <c r="C3">
-        <v>84.627198143209043</v>
+        <v>129.6002865525094</v>
       </c>
       <c r="D3">
-        <v>121.6316191777703</v>
+        <v>130.13360388552661</v>
       </c>
       <c r="E3">
-        <v>86.700442380514389</v>
+        <v>101.1555604459212</v>
       </c>
       <c r="F3">
-        <v>96.548196919573712</v>
+        <v>128.73599978068569</v>
       </c>
       <c r="G3">
-        <v>136.0937925194626</v>
+        <v>101.46819360887829</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -8052,22 +8049,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>78.629534859489254</v>
+        <v>107.1448841817587</v>
       </c>
       <c r="C4">
-        <v>116.2672205111332</v>
+        <v>112.8460119103008</v>
       </c>
       <c r="D4">
-        <v>85.910413317032919</v>
+        <v>85.924152621191283</v>
       </c>
       <c r="E4">
-        <v>79.914721832625233</v>
+        <v>109.1430132716627</v>
       </c>
       <c r="F4">
-        <v>93.794961778888506</v>
+        <v>116.1591778997911</v>
       </c>
       <c r="G4">
-        <v>101.1602893309532</v>
+        <v>91.391246923650641</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -8075,22 +8072,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>102.582852910038</v>
+        <v>78.752303411385483</v>
       </c>
       <c r="C5">
-        <v>73.500561943297413</v>
+        <v>71.787867111271609</v>
       </c>
       <c r="D5">
-        <v>57.42056706337268</v>
+        <v>63.233490808427277</v>
       </c>
       <c r="E5">
-        <v>57.221951732476789</v>
+        <v>86.197879916127249</v>
       </c>
       <c r="F5">
-        <v>85.414486887411726</v>
+        <v>85.666826547938243</v>
       </c>
       <c r="G5">
-        <v>80.956831322359733</v>
+        <v>58.810292298045603</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -8098,45 +8095,45 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>24.66083615560628</v>
+        <v>12.37642169954916</v>
       </c>
       <c r="C6">
-        <v>11.820378756471481</v>
+        <v>19.842675235127551</v>
       </c>
       <c r="D6">
-        <v>14.08158924967022</v>
+        <v>11.195886721299271</v>
       </c>
       <c r="E6">
-        <v>14.28563692327365</v>
+        <v>14.432609882657079</v>
       </c>
       <c r="F6">
-        <v>15.320519409039511</v>
+        <v>22.856781120959461</v>
       </c>
       <c r="G6">
-        <v>15.92052473115011</v>
+        <v>12.410426236432061</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>10.10522311063548</v>
+        <v>3.661836179477203</v>
       </c>
       <c r="C7">
-        <v>5.9365842812954366</v>
+        <v>3.8074116037108521</v>
       </c>
       <c r="D7">
-        <v>7.8161554980324501</v>
+        <v>4.1805430244432147</v>
       </c>
       <c r="E7">
-        <v>7.4867821439855504</v>
+        <v>3.7840603141932498</v>
       </c>
       <c r="F7">
-        <v>5.2248464950739884</v>
+        <v>4.165431167763499</v>
       </c>
       <c r="G7">
-        <v>8.6245826507381089</v>
+        <v>4.7085185703809556</v>
       </c>
     </row>
   </sheetData>
@@ -8169,7 +8166,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -8177,22 +8174,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.394907636159811</v>
+        <v>14.795911188836261</v>
       </c>
       <c r="C2">
-        <v>16.075612782430731</v>
+        <v>13.888484862027131</v>
       </c>
       <c r="D2">
-        <v>23.376902340095899</v>
+        <v>13.487058571250371</v>
       </c>
       <c r="E2">
-        <v>15.7925858282203</v>
+        <v>16.179812568014519</v>
       </c>
       <c r="F2">
-        <v>16.385946761681438</v>
+        <v>13.59071121429041</v>
       </c>
       <c r="G2">
-        <v>28.859862390774229</v>
+        <v>18.242163970756469</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -8200,22 +8197,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.50022479071189</v>
+        <v>20.028698484273221</v>
       </c>
       <c r="C3">
-        <v>13.542490034462819</v>
+        <v>11.55149123313749</v>
       </c>
       <c r="D3">
-        <v>14.201919542144919</v>
+        <v>11.64473347761527</v>
       </c>
       <c r="E3">
-        <v>13.59654599061221</v>
+        <v>11.527675586582189</v>
       </c>
       <c r="F3">
-        <v>19.52787761504235</v>
+        <v>11.025314538168759</v>
       </c>
       <c r="G3">
-        <v>16.64883892444983</v>
+        <v>14.8069792593336</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -8223,22 +8220,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.10634338593214</v>
+        <v>16.905960111255862</v>
       </c>
       <c r="C4">
-        <v>17.17945905589589</v>
+        <v>10.9607987094141</v>
       </c>
       <c r="D4">
-        <v>12.880152898416659</v>
+        <v>22.376347350218829</v>
       </c>
       <c r="E4">
-        <v>12.72361592286617</v>
+        <v>13.24653467989396</v>
       </c>
       <c r="F4">
-        <v>13.29378847192619</v>
+        <v>11.972685711623891</v>
       </c>
       <c r="G4">
-        <v>19.958273840913019</v>
+        <v>11.05130314422569</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -8246,22 +8243,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.957489509602659</v>
+        <v>10.22445140536262</v>
       </c>
       <c r="C5">
-        <v>21.280397178856191</v>
+        <v>13.70133017465014</v>
       </c>
       <c r="D5">
-        <v>13.574402118896471</v>
+        <v>11.624336368274371</v>
       </c>
       <c r="E5">
-        <v>15.78913839269455</v>
+        <v>10.89684816308905</v>
       </c>
       <c r="F5">
-        <v>11.625777085663019</v>
+        <v>10.21563245005774</v>
       </c>
       <c r="G5">
-        <v>16.771837526673</v>
+        <v>12.24423075912182</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -8269,45 +8266,45 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>27.434694984630749</v>
+        <v>13.37820519700136</v>
       </c>
       <c r="C6">
-        <v>9.5216698955672339</v>
+        <v>9.4869146303963561</v>
       </c>
       <c r="D6">
-        <v>43.895151393316453</v>
+        <v>19.200676740775609</v>
       </c>
       <c r="E6">
-        <v>11.36209873122967</v>
+        <v>17.366567235895381</v>
       </c>
       <c r="F6">
-        <v>12.857792789555591</v>
+        <v>11.70245769963449</v>
       </c>
       <c r="G6">
-        <v>33.912904027588503</v>
+        <v>9.0782236357826065</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>10.02489038493391</v>
+        <v>3.2398880834512651</v>
       </c>
       <c r="C7">
-        <v>8.2051274877528844</v>
+        <v>2.9073776146750658</v>
       </c>
       <c r="D7">
-        <v>6.2394412705981273</v>
+        <v>3.6059483838609498</v>
       </c>
       <c r="E7">
-        <v>10.435154620082979</v>
+        <v>3.8148095184329471</v>
       </c>
       <c r="F7">
-        <v>9.9928181450674529</v>
+        <v>2.8882248423598309</v>
       </c>
       <c r="G7">
-        <v>9.6389516663914705</v>
+        <v>3.299398700186138</v>
       </c>
     </row>
   </sheetData>
@@ -8340,7 +8337,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -8348,22 +8345,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.03559189674381</v>
+        <v>21.040940992369851</v>
       </c>
       <c r="C2">
-        <v>16.66414843902573</v>
+        <v>13.41964700598818</v>
       </c>
       <c r="D2">
-        <v>26.990890327899169</v>
+        <v>14.37274590011662</v>
       </c>
       <c r="E2">
-        <v>12.22065150281219</v>
+        <v>19.321404819459978</v>
       </c>
       <c r="F2">
-        <v>56.32308768624943</v>
+        <v>11.466066341672381</v>
       </c>
       <c r="G2">
-        <v>11.6274369246148</v>
+        <v>8.4181089882139357</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -8371,22 +8368,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.0454449766720879</v>
+        <v>4.4004852884215113</v>
       </c>
       <c r="C3">
-        <v>4.0841251630803859</v>
+        <v>4.8278424476413226</v>
       </c>
       <c r="D3">
-        <v>4.5148835480866971</v>
+        <v>4.1284838391809764</v>
       </c>
       <c r="E3">
-        <v>3.8438605358355642</v>
+        <v>3.1126318461934419</v>
       </c>
       <c r="F3">
-        <v>6.4257649482503414</v>
+        <v>6.5583131522228166</v>
       </c>
       <c r="G3">
-        <v>2.8975455686661071</v>
+        <v>1.6348067903231629</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -8394,22 +8391,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.0378784235846954</v>
+        <v>3.821298939727821</v>
       </c>
       <c r="C4">
-        <v>3.2760317373501211</v>
+        <v>2.7380608480168291</v>
       </c>
       <c r="D4">
-        <v>3.4120074465959802</v>
+        <v>4.2355871619784384</v>
       </c>
       <c r="E4">
-        <v>2.1633651847270401</v>
+        <v>3.0511805624226769</v>
       </c>
       <c r="F4">
-        <v>3.9249338536517722</v>
+        <v>3.3045871468391681</v>
       </c>
       <c r="G4">
-        <v>0.7588411586409769</v>
+        <v>0.79911346120186633</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -8417,22 +8414,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.8531143694495862</v>
+        <v>2.3178095266927272</v>
       </c>
       <c r="C5">
-        <v>2.7896411098072589</v>
+        <v>3.2659164634782911</v>
       </c>
       <c r="D5">
-        <v>2.115267134245828</v>
+        <v>2.8767666175012301</v>
       </c>
       <c r="E5">
-        <v>9.6767532622167991</v>
+        <v>7.9167365651678603</v>
       </c>
       <c r="F5">
-        <v>2.83192924183348</v>
+        <v>2.3594575055199991</v>
       </c>
       <c r="G5">
-        <v>0.87141121647449538</v>
+        <v>0.70561674887763859</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -8440,45 +8437,45 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4.9286527383063641</v>
+        <v>2.1202712455148078</v>
       </c>
       <c r="C6">
-        <v>4.2310084656512501</v>
+        <v>3.4403940206413508</v>
       </c>
       <c r="D6">
-        <v>4.517685298254321</v>
+        <v>1.0546982774966061</v>
       </c>
       <c r="E6">
-        <v>2.34726161411115</v>
+        <v>0.99709896065151726</v>
       </c>
       <c r="F6">
-        <v>0.67583004591000029</v>
+        <v>0.53377628472526595</v>
       </c>
       <c r="G6">
-        <v>0.68158919326704703</v>
+        <v>0.69393012970955514</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>1.319068815251013</v>
+        <v>0.57402267810679308</v>
       </c>
       <c r="C7">
-        <v>1.2442985395928481</v>
+        <v>0.64314455978635188</v>
       </c>
       <c r="D7">
-        <v>0.72800710457079987</v>
+        <v>0.47867906216920109</v>
       </c>
       <c r="E7">
-        <v>0.85632737132685899</v>
+        <v>0.6751761643952422</v>
       </c>
       <c r="F7">
-        <v>0.68652707877093921</v>
+        <v>0.63780345785952985</v>
       </c>
       <c r="G7">
-        <v>0.2223454991797971</v>
+        <v>0.19909691824754311</v>
       </c>
     </row>
   </sheetData>
@@ -8511,7 +8508,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -8519,22 +8516,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.373189927520428</v>
+        <v>12.176257344053351</v>
       </c>
       <c r="C2">
-        <v>12.810078183078231</v>
+        <v>11.50009119434667</v>
       </c>
       <c r="D2">
-        <v>19.38776039865062</v>
+        <v>11.359158086335761</v>
       </c>
       <c r="E2">
-        <v>11.93903682277851</v>
+        <v>12.75964370871384</v>
       </c>
       <c r="F2">
-        <v>44.567725854688511</v>
+        <v>19.124973353468871</v>
       </c>
       <c r="G2">
-        <v>12.27746417974096</v>
+        <v>3.577329268536932</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -8542,22 +8539,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.811516478339639</v>
+        <v>9.4384524618929007</v>
       </c>
       <c r="C3">
-        <v>7.7754755993651443</v>
+        <v>9.4805841446413233</v>
       </c>
       <c r="D3">
-        <v>7.3027450173180926</v>
+        <v>9.3633415027787645</v>
       </c>
       <c r="E3">
-        <v>7.2244668482726766</v>
+        <v>6.214270596605882</v>
       </c>
       <c r="F3">
-        <v>8.4168026851308717</v>
+        <v>5.388776392895573</v>
       </c>
       <c r="G3">
-        <v>1.6887237117524549</v>
+        <v>1.173880883488019</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -8565,22 +8562,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.864070830556161</v>
+        <v>7.6184602702154329</v>
       </c>
       <c r="C4">
-        <v>6.6598407818539513</v>
+        <v>6.1363848128944918</v>
       </c>
       <c r="D4">
-        <v>6.5291100421242314</v>
+        <v>9.7172806134893204</v>
       </c>
       <c r="E4">
-        <v>4.6475477069515838</v>
+        <v>4.3731176219654504</v>
       </c>
       <c r="F4">
-        <v>4.1035298994292164</v>
+        <v>1.499789487010281</v>
       </c>
       <c r="G4">
-        <v>1.0797309446011589</v>
+        <v>0.70733136577151223</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -8588,22 +8585,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.2395420414733991</v>
+        <v>5.3595941516841181</v>
       </c>
       <c r="C5">
-        <v>5.8681884310497612</v>
+        <v>7.713265612419872</v>
       </c>
       <c r="D5">
-        <v>4.9155408231506863</v>
+        <v>5.5303202510359109</v>
       </c>
       <c r="E5">
-        <v>15.22792024538489</v>
+        <v>4.948640098943426</v>
       </c>
       <c r="F5">
-        <v>4.4290702880114416</v>
+        <v>1.125946983887417</v>
       </c>
       <c r="G5">
-        <v>0.81010283332827038</v>
+        <v>0.77892829586726153</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -8611,45 +8608,45 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.6370931456355198</v>
+        <v>1.8948126424870431</v>
       </c>
       <c r="C6">
-        <v>4.9244294113864919</v>
+        <v>1.4929322565906979</v>
       </c>
       <c r="D6">
-        <v>4.8705894461913841</v>
+        <v>1.4398236131682669</v>
       </c>
       <c r="E6">
-        <v>3.1210643249568411</v>
+        <v>0.98987227773195396</v>
       </c>
       <c r="F6">
-        <v>0.66686828533622611</v>
+        <v>0.60892401648167227</v>
       </c>
       <c r="G6">
-        <v>0.73633047296487431</v>
+        <v>0.60819092636151506</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>1.2258403368539821</v>
+        <v>0.62411204339004611</v>
       </c>
       <c r="C7">
-        <v>1.3789241747939429</v>
+        <v>0.79098221644156863</v>
       </c>
       <c r="D7">
-        <v>1.032647246987956</v>
+        <v>0.63473763388843041</v>
       </c>
       <c r="E7">
-        <v>0.72924227010325027</v>
+        <v>0.68415282946586753</v>
       </c>
       <c r="F7">
-        <v>0.66856840519331084</v>
+        <v>0.61848058493816704</v>
       </c>
       <c r="G7">
-        <v>0.2037160423482797</v>
+        <v>0.19706178076647149</v>
       </c>
     </row>
   </sheetData>
@@ -8682,7 +8679,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -8690,22 +8687,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>886.68943968670669</v>
+        <v>709.34978262763616</v>
       </c>
       <c r="C2">
-        <v>826.27104506107526</v>
+        <v>637.26736017916676</v>
       </c>
       <c r="D2">
-        <v>1057.9431035770219</v>
+        <v>737.15891279810353</v>
       </c>
       <c r="E2">
-        <v>652.4004987371502</v>
+        <v>636.27680048543073</v>
       </c>
       <c r="F2">
-        <v>645.01742101715138</v>
+        <v>884.77428349100376</v>
       </c>
       <c r="G2">
-        <v>1071.2783490866141</v>
+        <v>679.26849828308912</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -8713,22 +8710,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>62.180158647042923</v>
+        <v>67.222397765380251</v>
       </c>
       <c r="C3">
-        <v>80.944229797425265</v>
+        <v>56.03613917684298</v>
       </c>
       <c r="D3">
-        <v>49.981298164570127</v>
+        <v>64.672799363346684</v>
       </c>
       <c r="E3">
-        <v>61.796496910399632</v>
+        <v>60.495393500098388</v>
       </c>
       <c r="F3">
-        <v>51.649124845513967</v>
+        <v>62.387325979269498</v>
       </c>
       <c r="G3">
-        <v>76.815643391687388</v>
+        <v>62.266686416051222</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -8736,22 +8733,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>47.754475940168348</v>
+        <v>55.276037915644189</v>
       </c>
       <c r="C4">
-        <v>74.470002233555022</v>
+        <v>57.481502050240003</v>
       </c>
       <c r="D4">
-        <v>48.27942539356745</v>
+        <v>47.591039103649081</v>
       </c>
       <c r="E4">
-        <v>61.323753641442892</v>
+        <v>47.802782170073961</v>
       </c>
       <c r="F4">
-        <v>59.28170785174941</v>
+        <v>72.962923784709943</v>
       </c>
       <c r="G4">
-        <v>61.799399895245337</v>
+        <v>60.62787471239821</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -8759,22 +8756,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>70.434987293331574</v>
+        <v>51.498666609416382</v>
       </c>
       <c r="C5">
-        <v>51.749651560571436</v>
+        <v>56.273921449698562</v>
       </c>
       <c r="D5">
-        <v>45.469034584181017</v>
+        <v>38.065287082580717</v>
       </c>
       <c r="E5">
-        <v>40.297739291266147</v>
+        <v>39.035406410442413</v>
       </c>
       <c r="F5">
-        <v>62.34257396360578</v>
+        <v>54.030124391275827</v>
       </c>
       <c r="G5">
-        <v>53.067916316170823</v>
+        <v>38.541964931004841</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -8782,45 +8779,45 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.569751133956061</v>
+        <v>15.067395510821161</v>
       </c>
       <c r="C6">
-        <v>12.465088364117211</v>
+        <v>14.98364227713504</v>
       </c>
       <c r="D6">
-        <v>15.796075411658681</v>
+        <v>12.87092514226986</v>
       </c>
       <c r="E6">
-        <v>12.582075919917949</v>
+        <v>15.645095934777769</v>
       </c>
       <c r="F6">
-        <v>17.547179004202992</v>
+        <v>22.922724695995591</v>
       </c>
       <c r="G6">
-        <v>15.40869891376072</v>
+        <v>11.874691482341291</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>7.0081696093314703</v>
+        <v>1.859021462952281</v>
       </c>
       <c r="C7">
-        <v>7.0529118392119434</v>
+        <v>2.0690300156627628</v>
       </c>
       <c r="D7">
-        <v>6.5418959216631798</v>
+        <v>1.754680396966138</v>
       </c>
       <c r="E7">
-        <v>6.602417944040301</v>
+        <v>1.822572505524414</v>
       </c>
       <c r="F7">
-        <v>5.9795876300388571</v>
+        <v>1.708232282187186</v>
       </c>
       <c r="G7">
-        <v>7.8602679391554364</v>
+        <v>2.0457238258909811</v>
       </c>
     </row>
   </sheetData>
@@ -8853,7 +8850,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -8861,22 +8858,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>261.39092111882093</v>
+        <v>74.375521294619432</v>
       </c>
       <c r="C2">
-        <v>116.2695021112052</v>
+        <v>85.963248204320607</v>
       </c>
       <c r="D2">
-        <v>136.1822912324138</v>
+        <v>78.534517279670183</v>
       </c>
       <c r="E2">
-        <v>67.652626142765328</v>
+        <v>82.338761650998379</v>
       </c>
       <c r="F2">
-        <v>12.694534438887191</v>
+        <v>16.176370902390179</v>
       </c>
       <c r="G2">
-        <v>7.6291867091867456</v>
+        <v>5.223757155310123</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -8884,22 +8881,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>75.729837803584331</v>
+        <v>88.619981542598936</v>
       </c>
       <c r="C3">
-        <v>88.544343296556576</v>
+        <v>62.855395959867103</v>
       </c>
       <c r="D3">
-        <v>53.128054557675533</v>
+        <v>67.084223728633262</v>
       </c>
       <c r="E3">
-        <v>59.758638878262893</v>
+        <v>33.216102434830482</v>
       </c>
       <c r="F3">
-        <v>6.7055422800333728</v>
+        <v>8.3598072376531558</v>
       </c>
       <c r="G3">
-        <v>5.6542238050084963</v>
+        <v>1.985662203913511</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -8907,22 +8904,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>63.900857988577783</v>
+        <v>66.833523557941817</v>
       </c>
       <c r="C4">
-        <v>96.33944073244129</v>
+        <v>77.387647333080238</v>
       </c>
       <c r="D4">
-        <v>37.171277568986348</v>
+        <v>38.613823066968251</v>
       </c>
       <c r="E4">
-        <v>26.299338645896309</v>
+        <v>21.509934262145041</v>
       </c>
       <c r="F4">
-        <v>7.8953515819000746</v>
+        <v>5.7262810264303257</v>
       </c>
       <c r="G4">
-        <v>2.6313779600744902</v>
+        <v>1.0070611533217859</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -8930,22 +8927,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>80.234826724630736</v>
+        <v>60.957915119174231</v>
       </c>
       <c r="C5">
-        <v>41.945564245626983</v>
+        <v>38.541929249203037</v>
       </c>
       <c r="D5">
-        <v>22.251813888666561</v>
+        <v>20.505229456315551</v>
       </c>
       <c r="E5">
-        <v>10.424177115913119</v>
+        <v>10.12303919011692</v>
       </c>
       <c r="F5">
-        <v>8.0888726313463586</v>
+        <v>4.8321690447703149</v>
       </c>
       <c r="G5">
-        <v>1.501224581358269</v>
+        <v>0.62988270608789021</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -8953,45 +8950,45 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.611994394560099</v>
+        <v>7.8165844033737102</v>
       </c>
       <c r="C6">
-        <v>5.6000895947800338</v>
+        <v>4.9330649168508227</v>
       </c>
       <c r="D6">
-        <v>3.645509429268559</v>
+        <v>4.8505319324203633</v>
       </c>
       <c r="E6">
-        <v>3.9057897642557831</v>
+        <v>4.171269764662954</v>
       </c>
       <c r="F6">
-        <v>1.4087169288047341</v>
+        <v>0.71433885673096509</v>
       </c>
       <c r="G6">
-        <v>0.95750659561052009</v>
+        <v>0.88042085338371068</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>5.1928012730873672</v>
+        <v>1.5903403830410721</v>
       </c>
       <c r="C7">
-        <v>4.2512626952462256</v>
+        <v>0.9942022198600855</v>
       </c>
       <c r="D7">
-        <v>2.9443469863685618</v>
+        <v>0.57576465093974438</v>
       </c>
       <c r="E7">
-        <v>1.295474104393884</v>
+        <v>0.47255889602776768</v>
       </c>
       <c r="F7">
-        <v>0.80053276031971177</v>
+        <v>0.64717516258537122</v>
       </c>
       <c r="G7">
-        <v>0.74078549922591852</v>
+        <v>0.4940877399742345</v>
       </c>
     </row>
   </sheetData>
@@ -9024,7 +9021,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -9032,22 +9029,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>88.32928689633026</v>
+        <v>55.723364330256352</v>
       </c>
       <c r="C2">
-        <v>66.907119683574123</v>
+        <v>73.136620414662033</v>
       </c>
       <c r="D2">
-        <v>86.081267891646164</v>
+        <v>48.581684473158099</v>
       </c>
       <c r="E2">
-        <v>44.086518546876512</v>
+        <v>55.707941111942333</v>
       </c>
       <c r="F2">
-        <v>21.119355329877401</v>
+        <v>18.900294290049469</v>
       </c>
       <c r="G2">
-        <v>7.0202926747792196</v>
+        <v>2.5695369888365871</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -9055,22 +9052,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>69.461992891175569</v>
+        <v>60.584119882115857</v>
       </c>
       <c r="C3">
-        <v>55.354737326202077</v>
+        <v>39.085222089660682</v>
       </c>
       <c r="D3">
-        <v>58.298650537482771</v>
+        <v>37.18193318108564</v>
       </c>
       <c r="E3">
-        <v>43.431916832672847</v>
+        <v>31.64480159609132</v>
       </c>
       <c r="F3">
-        <v>7.4182814880227337</v>
+        <v>8.9359015736525205</v>
       </c>
       <c r="G3">
-        <v>5.400233371268663</v>
+        <v>1.1273616500694079</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -9078,22 +9075,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>39.968339204158497</v>
+        <v>38.031162984265308</v>
       </c>
       <c r="C4">
-        <v>43.768927443012892</v>
+        <v>43.165238382037813</v>
       </c>
       <c r="D4">
-        <v>29.146863902536989</v>
+        <v>40.195094872935258</v>
       </c>
       <c r="E4">
-        <v>24.52138283490045</v>
+        <v>22.836017704754688</v>
       </c>
       <c r="F4">
-        <v>5.1385126131654051</v>
+        <v>5.5499670066326381</v>
       </c>
       <c r="G4">
-        <v>2.921531583678449</v>
+        <v>0.74437033281461107</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -9101,22 +9098,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>53.262587322730553</v>
+        <v>34.361643135445632</v>
       </c>
       <c r="C5">
-        <v>40.317563678609581</v>
+        <v>23.873307809293699</v>
       </c>
       <c r="D5">
-        <v>18.335312086585152</v>
+        <v>28.923100964105348</v>
       </c>
       <c r="E5">
-        <v>12.66616102121961</v>
+        <v>16.60917219469782</v>
       </c>
       <c r="F5">
-        <v>8.0098226799505934</v>
+        <v>2.5224263460210952</v>
       </c>
       <c r="G5">
-        <v>1.050254195767603</v>
+        <v>0.46073325365558898</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -9124,45 +9121,45 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.5473924438466931</v>
+        <v>6.9221317359477679</v>
       </c>
       <c r="C6">
-        <v>4.6232381888118326</v>
+        <v>5.0001796975434587</v>
       </c>
       <c r="D6">
-        <v>4.0402599066258631</v>
+        <v>3.950753154901212</v>
       </c>
       <c r="E6">
-        <v>5.4092576517256843</v>
+        <v>1.7644368888422479</v>
       </c>
       <c r="F6">
-        <v>0.58407997135068823</v>
+        <v>0.56242117715427276</v>
       </c>
       <c r="G6">
-        <v>0.908002436899218</v>
+        <v>0.8483698020166498</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>2.811702305015026</v>
+        <v>0.98502600456208944</v>
       </c>
       <c r="C7">
-        <v>2.994239277525597</v>
+        <v>0.73132828067956501</v>
       </c>
       <c r="D7">
-        <v>1.5036907111089211</v>
+        <v>0.49659878337472357</v>
       </c>
       <c r="E7">
-        <v>0.37609216551519131</v>
+        <v>0.37873277644265041</v>
       </c>
       <c r="F7">
-        <v>0.80296493859786444</v>
+        <v>0.67950170573283275</v>
       </c>
       <c r="G7">
-        <v>0.51911522988346004</v>
+        <v>0.2855835228849346</v>
       </c>
     </row>
   </sheetData>
@@ -9195,7 +9192,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -9203,22 +9200,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1077.6470804884309</v>
+        <v>877.02723016116954</v>
       </c>
       <c r="C2">
-        <v>690.5005429640612</v>
+        <v>712.43943920826962</v>
       </c>
       <c r="D2">
-        <v>1039.789176579608</v>
+        <v>656.40302465854256</v>
       </c>
       <c r="E2">
-        <v>701.22060363888215</v>
+        <v>857.8089247766485</v>
       </c>
       <c r="F2">
-        <v>910.06434577228276</v>
+        <v>677.45249522246638</v>
       </c>
       <c r="G2">
-        <v>893.42316598149603</v>
+        <v>830.14290943905246</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -9226,22 +9223,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>92.245271501064977</v>
+        <v>56.091981120768772</v>
       </c>
       <c r="C3">
-        <v>70.76239815874959</v>
+        <v>57.076192511458757</v>
       </c>
       <c r="D3">
-        <v>55.784644094841823</v>
+        <v>55.139004450860988</v>
       </c>
       <c r="E3">
-        <v>55.695829381833789</v>
+        <v>59.337021667530912</v>
       </c>
       <c r="F3">
-        <v>79.283327809021699</v>
+        <v>81.229644368222296</v>
       </c>
       <c r="G3">
-        <v>94.685084881388406</v>
+        <v>65.72995692635466</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -9249,22 +9246,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>53.180800285212356</v>
+        <v>51.731438926564607</v>
       </c>
       <c r="C4">
-        <v>61.158348863356053</v>
+        <v>51.757145571784797</v>
       </c>
       <c r="D4">
-        <v>50.311551893422589</v>
+        <v>74.128326344468945</v>
       </c>
       <c r="E4">
-        <v>53.46569662527682</v>
+        <v>80.420562293268787</v>
       </c>
       <c r="F4">
-        <v>68.034469864708683</v>
+        <v>68.179041178838943</v>
       </c>
       <c r="G4">
-        <v>83.597333466799014</v>
+        <v>64.454144383891816</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -9272,22 +9269,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>59.478049333616219</v>
+        <v>48.19968944038105</v>
       </c>
       <c r="C5">
-        <v>56.911632527949308</v>
+        <v>45.493456732923583</v>
       </c>
       <c r="D5">
-        <v>87.031058580722757</v>
+        <v>67.02269704205473</v>
       </c>
       <c r="E5">
-        <v>47.187142060436351</v>
+        <v>70.948485663629043</v>
       </c>
       <c r="F5">
-        <v>53.85181225158923</v>
+        <v>45.531888378352633</v>
       </c>
       <c r="G5">
-        <v>52.308205377933547</v>
+        <v>54.529345266918533</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -9295,45 +9292,45 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23.8395326682889</v>
+        <v>14.67369737697495</v>
       </c>
       <c r="C6">
-        <v>18.539647570210249</v>
+        <v>18.113623293020868</v>
       </c>
       <c r="D6">
-        <v>15.580485747190419</v>
+        <v>16.892573833040601</v>
       </c>
       <c r="E6">
-        <v>13.920477194724739</v>
+        <v>18.47262658280556</v>
       </c>
       <c r="F6">
-        <v>13.24044392089041</v>
+        <v>20.59070353601523</v>
       </c>
       <c r="G6">
-        <v>20.660293140402661</v>
+        <v>19.84031660690005</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>8.0680575233237857</v>
+        <v>2.730896889165825</v>
       </c>
       <c r="C7">
-        <v>8.891197970459908</v>
+        <v>3.3490806745035062</v>
       </c>
       <c r="D7">
-        <v>9.643643823249489</v>
+        <v>3.5167136450015062</v>
       </c>
       <c r="E7">
-        <v>9.6430073373776626</v>
+        <v>3.1007632937162661</v>
       </c>
       <c r="F7">
-        <v>8.2691826452164268</v>
+        <v>2.8814736461341299</v>
       </c>
       <c r="G7">
-        <v>7.4207232774567036</v>
+        <v>3.764456272677827</v>
       </c>
     </row>
   </sheetData>
